--- a/tools/fichier_excel/GroupeTD-GroupeProjet - ProjetInformatique.xlsx
+++ b/tools/fichier_excel/GroupeTD-GroupeProjet - ProjetInformatique.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68926B22-2CB8-4C75-9688-93F5AB933D49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B91838-A6BA-430E-8ACD-7B1ABAC5B4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="894" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="894" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1a-Identification Projet" sheetId="39" r:id="rId1"/>
@@ -176,8 +176,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -7472,6 +7472,33 @@
     <xf numFmtId="0" fontId="100" fillId="80" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="73" borderId="51" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="73" borderId="25" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="73" borderId="52" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -7499,64 +7526,37 @@
     <xf numFmtId="14" fontId="5" fillId="71" borderId="50" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="73" borderId="51" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="73" borderId="25" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="73" borderId="52" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="68" borderId="47" xfId="958" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="68" borderId="49" xfId="958" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="48" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="50" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="96" fillId="69" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="96" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="68" borderId="47" xfId="958" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="68" borderId="49" xfId="958" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="48" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="50" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7752,6 +7752,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="56" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="78" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="78" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="78" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="100" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -7760,27 +7781,6 @@
     </xf>
     <xf numFmtId="14" fontId="100" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="56" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="78" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="78" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="78" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -7983,55 +7983,56 @@
     <cellStyle name="_Solution_Monitoring_Tools_File_V2_83090147-DDQ-TAV-EN-001_OUTILS_PILOTAGE-1" xfId="185" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
     <cellStyle name="_Solution_Monitoring_Tools_File_V2_dossierpilotage_dts_2012_10_19" xfId="186" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
     <cellStyle name="12Under" xfId="187" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="20 % - Akzent1" xfId="194" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="195" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="196" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="197" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="198" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="199" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20 % - Accent1 2" xfId="188" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
     <cellStyle name="20 % - Accent2 2" xfId="189" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
     <cellStyle name="20 % - Accent3 2" xfId="190" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
     <cellStyle name="20 % - Accent4 2" xfId="191" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
     <cellStyle name="20 % - Accent5 2" xfId="192" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
     <cellStyle name="20 % - Accent6 2" xfId="193" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
-    <cellStyle name="20% - Accent1" xfId="194" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="195" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="196" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="197" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="198" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="199" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="206" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="207" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="208" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="209" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="210" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="211" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40 % - Accent1 2" xfId="200" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
     <cellStyle name="40 % - Accent2 2" xfId="201" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
     <cellStyle name="40 % - Accent3 2" xfId="202" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
     <cellStyle name="40 % - Accent4 2" xfId="203" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
     <cellStyle name="40 % - Accent5 2" xfId="204" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
     <cellStyle name="40 % - Accent6 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
-    <cellStyle name="40% - Accent1" xfId="206" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="207" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="208" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="209" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="210" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="211" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="218" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="219" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="220" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="221" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="222" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="223" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60 % - Accent1 2" xfId="212" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
     <cellStyle name="60 % - Accent2 2" xfId="213" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
     <cellStyle name="60 % - Accent3 2" xfId="214" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
     <cellStyle name="60 % - Accent4 2" xfId="215" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
     <cellStyle name="60 % - Accent5 2" xfId="216" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
     <cellStyle name="60 % - Accent6 2" xfId="217" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
-    <cellStyle name="60% - Accent1" xfId="218" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="219" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="220" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="221" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="222" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="223" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="224" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent1 2" xfId="225" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
-    <cellStyle name="Accent2" xfId="226" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent2 2" xfId="227" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
-    <cellStyle name="Accent3" xfId="228" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent3 2" xfId="229" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
-    <cellStyle name="Accent4" xfId="230" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent4 2" xfId="231" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
-    <cellStyle name="Accent5" xfId="232" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent5 2" xfId="233" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
-    <cellStyle name="Accent6" xfId="234" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Accent6 2" xfId="235" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="Akzent1" xfId="224" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="226" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="228" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="230" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="232" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="234" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Bad" xfId="883" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="Berechnung" xfId="245" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Bord: quadrillage" xfId="236" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
     <cellStyle name="Bord: quadrillage gras" xfId="237" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
     <cellStyle name="Bord: quadrillage gras 2" xfId="1170" xr:uid="{E6CC26DB-73E0-447F-AC06-EED4707DF3BB}"/>
@@ -8042,7 +8043,6 @@
     <cellStyle name="branche_1 - Fiche descriptive" xfId="242" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
     <cellStyle name="Caché" xfId="243" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
     <cellStyle name="Calcul 2" xfId="244" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
-    <cellStyle name="Calculation" xfId="245" builtinId="22" customBuiltin="1"/>
     <cellStyle name="CARTOUCHE_THOM" xfId="246" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
     <cellStyle name="Check Cell" xfId="1165" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
     <cellStyle name="Comma [0]" xfId="247" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
@@ -8130,7 +8130,9 @@
     <cellStyle name="Donnée 4" xfId="322" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
     <cellStyle name="Donnée 5" xfId="323" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
     <cellStyle name="Donnée_1 - Fiche descriptive" xfId="324" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="Eingabe" xfId="882" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Entrée 2" xfId="325" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="Ergebnis" xfId="1150" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Euro" xfId="326" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
     <cellStyle name="Euro 2" xfId="327" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
     <cellStyle name="Euro 2 2" xfId="328" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
@@ -8819,7 +8821,6 @@
     <cellStyle name="Hyperlink 2" xfId="879" xr:uid="{00000000-0005-0000-0000-000090030000}"/>
     <cellStyle name="Hyperlink 2 2" xfId="880" xr:uid="{00000000-0005-0000-0000-000091030000}"/>
     <cellStyle name="Hyperlink_1 - Fiche descriptive" xfId="881" xr:uid="{00000000-0005-0000-0000-000092030000}"/>
-    <cellStyle name="Input" xfId="882" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant 2" xfId="884" xr:uid="{00000000-0005-0000-0000-000095030000}"/>
     <cellStyle name="item" xfId="885" xr:uid="{00000000-0005-0000-0000-000096030000}"/>
     <cellStyle name="item 2" xfId="886" xr:uid="{00000000-0005-0000-0000-000097030000}"/>
@@ -8852,7 +8853,6 @@
     <cellStyle name="Lien hypertexte 6 2" xfId="1306" xr:uid="{3157CAE7-E5F3-4808-A259-1024D05AC903}"/>
     <cellStyle name="Lien_x0018_hypertexte" xfId="911" xr:uid="{00000000-0005-0000-0000-0000B0030000}"/>
     <cellStyle name="Lien_x0018_hypertexte 2" xfId="912" xr:uid="{00000000-0005-0000-0000-0000B1030000}"/>
-    <cellStyle name="Linked Cell" xfId="913" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Masqué" xfId="914" xr:uid="{00000000-0005-0000-0000-0000B3030000}"/>
     <cellStyle name="Masqué 2" xfId="915" xr:uid="{00000000-0005-0000-0000-0000B4030000}"/>
     <cellStyle name="Masqué 2 2" xfId="916" xr:uid="{00000000-0005-0000-0000-0000B5030000}"/>
@@ -8885,7 +8885,6 @@
     <cellStyle name="Non modifiable 3" xfId="943" xr:uid="{00000000-0005-0000-0000-0000D1030000}"/>
     <cellStyle name="Non modifiable 3 2" xfId="944" xr:uid="{00000000-0005-0000-0000-0000D2030000}"/>
     <cellStyle name="Non modifiable 4" xfId="945" xr:uid="{00000000-0005-0000-0000-0000D3030000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="946" xr:uid="{00000000-0005-0000-0000-0000D5030000}"/>
     <cellStyle name="Normal 2 2" xfId="947" xr:uid="{00000000-0005-0000-0000-0000D6030000}"/>
     <cellStyle name="Normal 2 2 2" xfId="948" xr:uid="{00000000-0005-0000-0000-0000D7030000}"/>
@@ -8908,7 +8907,7 @@
     <cellStyle name="Normal_Maquette_TDB4 2" xfId="959" xr:uid="{00000000-0005-0000-0000-0000E2030000}"/>
     <cellStyle name="Normal_Project reporting template-87201044-MGPR-GRP-EN- 2" xfId="960" xr:uid="{00000000-0005-0000-0000-0000E3030000}"/>
     <cellStyle name="Normal_Solution_Monitoring_Dashboard_File 2" xfId="961" xr:uid="{00000000-0005-0000-0000-0000E4030000}"/>
-    <cellStyle name="Note" xfId="962" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="962" builtinId="10" customBuiltin="1"/>
     <cellStyle name="obsolete" xfId="963" xr:uid="{00000000-0005-0000-0000-0000E5030000}"/>
     <cellStyle name="one" xfId="964" xr:uid="{00000000-0005-0000-0000-0000E6030000}"/>
     <cellStyle name="Output" xfId="1113" xr:uid="{00000000-0005-0000-0000-0000E7030000}"/>
@@ -9064,6 +9063,7 @@
     <cellStyle name="SAPBEXundefined_1 - Fiche descriptive" xfId="1110" xr:uid="{00000000-0005-0000-0000-00007A040000}"/>
     <cellStyle name="Satisfaisant 2" xfId="1112" xr:uid="{00000000-0005-0000-0000-00007C040000}"/>
     <cellStyle name="Sortie 2" xfId="1114" xr:uid="{00000000-0005-0000-0000-00007E040000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="StationEach" xfId="1115" xr:uid="{00000000-0005-0000-0000-00007F040000}"/>
     <cellStyle name="StationTot" xfId="1116" xr:uid="{00000000-0005-0000-0000-000080040000}"/>
     <cellStyle name="Style 1" xfId="1117" xr:uid="{00000000-0005-0000-0000-000081040000}"/>
@@ -9096,7 +9096,6 @@
     <cellStyle name="TitreSérie 4" xfId="1147" xr:uid="{00000000-0005-0000-0000-0000A0040000}"/>
     <cellStyle name="TitreSérie 5" xfId="1148" xr:uid="{00000000-0005-0000-0000-0000A1040000}"/>
     <cellStyle name="TitreSérie_1 - Fiche descriptive" xfId="1149" xr:uid="{00000000-0005-0000-0000-0000A2040000}"/>
-    <cellStyle name="Total" xfId="1150" builtinId="25" customBuiltin="1"/>
     <cellStyle name="TypeDonnée" xfId="1151" xr:uid="{00000000-0005-0000-0000-0000A4040000}"/>
     <cellStyle name="TypeDonnée 2" xfId="1152" xr:uid="{00000000-0005-0000-0000-0000A5040000}"/>
     <cellStyle name="TypeDonnée 2 2" xfId="1153" xr:uid="{00000000-0005-0000-0000-0000A6040000}"/>
@@ -9112,7 +9111,8 @@
     <cellStyle name="Variation 4" xfId="1163" xr:uid="{00000000-0005-0000-0000-0000B0040000}"/>
     <cellStyle name="Variation_1 - Fiche descriptive" xfId="1164" xr:uid="{00000000-0005-0000-0000-0000B1040000}"/>
     <cellStyle name="Vérification 2" xfId="1166" xr:uid="{00000000-0005-0000-0000-0000B3040000}"/>
-    <cellStyle name="Warning Text" xfId="1167" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="913" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="1167" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Обычный_2.1 GANTT" xfId="1168" xr:uid="{00000000-0005-0000-0000-0000B5040000}"/>
     <cellStyle name="標準_Application List with Client Dependencies DSL" xfId="1169" xr:uid="{00000000-0005-0000-0000-0000B6040000}"/>
   </cellStyles>
@@ -9859,15 +9859,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>97117</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>37353</xdr:rowOff>
+      <xdr:colOff>89497</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>67833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>85285</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>99068</xdr:rowOff>
+      <xdr:colOff>77665</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>129548</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9882,7 +9882,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11199457" y="6773433"/>
+          <a:off x="5697817" y="2277633"/>
           <a:ext cx="1557888" cy="564635"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10807,15 +10807,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>764989</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>742129</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>37917</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>112761</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>89901</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>92533</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10831,7 +10831,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7943029" y="6773997"/>
+          <a:off x="3211009" y="3253557"/>
           <a:ext cx="1702352" cy="557536"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10977,69 +10977,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>112761</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>147401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>97117</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>150387</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Connecteur droit 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{399F35D1-4788-447F-88FE-5D06EB5E79A9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="16" idx="3"/>
-          <a:endCxn id="3" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9645381" y="7051121"/>
-          <a:ext cx="1554076" cy="2986"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -11124,13 +11061,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>85911</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>99068</xdr:rowOff>
+      <xdr:colOff>83581</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>129548</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>91202</xdr:colOff>
+      <xdr:colOff>85910</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>22414</xdr:rowOff>
     </xdr:to>
@@ -11149,9 +11086,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="11973111" y="7338068"/>
-          <a:ext cx="5291" cy="761546"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6476761" y="2842268"/>
+          <a:ext cx="2329" cy="1233986"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11330,6 +11267,588 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>777240</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>125012</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1276</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27B4151F-5262-4AD5-84AD-7589740AAC4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3246120" y="4000500"/>
+          <a:ext cx="1702352" cy="557536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="fr-FR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>Responsable Client</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>Mr.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t> GILLES LEPINARD</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>89497</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Gerader Verbinder 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2710304-EBF8-B456-8AD4-E6D0DA803A1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="4114800" y="2559951"/>
+          <a:ext cx="1583017" cy="369"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>71672</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1276</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E443E7F2-7697-4EC2-B651-54FE3A813BE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2407920" y="2324100"/>
+          <a:ext cx="1702352" cy="557536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="fr-FR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>MOE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Gerade Verbindung mit Pfeil 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D5490C9-251A-36C4-8931-74AB7F7EA1AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2735580" y="2872740"/>
+          <a:ext cx="7620" cy="1424940"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>777240</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Gerader Verbinder 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A21A9A39-9028-12FD-A50F-034CA225FE70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="2750820" y="4279268"/>
+          <a:ext cx="495300" cy="10792"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>149045</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>742129</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Gerader Verbinder 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62DA534-B20C-76E7-4F47-E00561AE4824}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="2735580" y="3532325"/>
+          <a:ext cx="475429" cy="3355"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -24328,7 +24847,7 @@
       <selection activeCell="L2" sqref="L2:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="1.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" style="5"/>
@@ -24350,11 +24869,11 @@
       <c r="I1" s="122"/>
       <c r="J1" s="122"/>
       <c r="K1" s="122"/>
-      <c r="L1" s="188" t="s">
+      <c r="L1" s="197" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="189"/>
-      <c r="N1" s="190"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="199"/>
       <c r="P1" s="24"/>
     </row>
     <row r="2" spans="2:16" ht="12.75" customHeight="1">
@@ -24368,11 +24887,11 @@
       <c r="I2" s="124"/>
       <c r="J2" s="124"/>
       <c r="K2" s="124"/>
-      <c r="L2" s="191">
+      <c r="L2" s="200">
         <v>45912</v>
       </c>
-      <c r="M2" s="192"/>
-      <c r="N2" s="193"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="202"/>
     </row>
     <row r="3" spans="2:16" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="125"/>
@@ -24385,34 +24904,34 @@
       <c r="I3" s="126"/>
       <c r="J3" s="126"/>
       <c r="K3" s="126"/>
-      <c r="L3" s="194" t="s">
+      <c r="L3" s="203" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="195"/>
-      <c r="N3" s="196"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="205"/>
       <c r="P3" s="24"/>
     </row>
     <row r="4" spans="2:16" ht="12.75" customHeight="1" thickBot="1">
       <c r="P4" s="25"/>
     </row>
     <row r="5" spans="2:16" ht="23.4" thickBot="1">
-      <c r="B5" s="197" t="s">
+      <c r="B5" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="197"/>
+      <c r="C5" s="188"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="198" t="s">
+      <c r="E5" s="206" t="s">
         <v>284</v>
       </c>
-      <c r="F5" s="198"/>
-      <c r="G5" s="198"/>
-      <c r="H5" s="198"/>
-      <c r="I5" s="198"/>
-      <c r="J5" s="198"/>
-      <c r="K5" s="198"/>
-      <c r="L5" s="198"/>
-      <c r="M5" s="198"/>
-      <c r="N5" s="198"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="206"/>
+      <c r="J5" s="206"/>
+      <c r="K5" s="206"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="206"/>
     </row>
     <row r="6" spans="2:16" ht="12" customHeight="1" thickBot="1">
       <c r="B6" s="7"/>
@@ -24429,23 +24948,23 @@
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="2:16" ht="18" thickBot="1">
-      <c r="B7" s="197" t="s">
+      <c r="B7" s="188" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="197"/>
+      <c r="C7" s="188"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="201" t="s">
+      <c r="E7" s="191" t="s">
         <v>283</v>
       </c>
-      <c r="F7" s="202"/>
-      <c r="G7" s="202"/>
-      <c r="H7" s="202"/>
-      <c r="I7" s="202"/>
-      <c r="J7" s="202"/>
-      <c r="K7" s="202"/>
-      <c r="L7" s="202"/>
-      <c r="M7" s="202"/>
-      <c r="N7" s="203"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="192"/>
+      <c r="I7" s="192"/>
+      <c r="J7" s="192"/>
+      <c r="K7" s="192"/>
+      <c r="L7" s="192"/>
+      <c r="M7" s="192"/>
+      <c r="N7" s="193"/>
     </row>
     <row r="8" spans="2:16" ht="9.6" customHeight="1" thickBot="1">
       <c r="B8" s="10"/>
@@ -24463,23 +24982,23 @@
       <c r="N8" s="12"/>
     </row>
     <row r="9" spans="2:16" ht="54.6" customHeight="1" thickBot="1">
-      <c r="B9" s="204" t="s">
+      <c r="B9" s="194" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="204"/>
+      <c r="C9" s="194"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="205" t="s">
+      <c r="E9" s="195" t="s">
         <v>300</v>
       </c>
-      <c r="F9" s="206"/>
-      <c r="G9" s="206"/>
-      <c r="H9" s="206"/>
-      <c r="I9" s="206"/>
-      <c r="J9" s="206"/>
-      <c r="K9" s="206"/>
-      <c r="L9" s="206"/>
-      <c r="M9" s="206"/>
-      <c r="N9" s="206"/>
+      <c r="F9" s="196"/>
+      <c r="G9" s="196"/>
+      <c r="H9" s="196"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="196"/>
+      <c r="K9" s="196"/>
+      <c r="L9" s="196"/>
+      <c r="M9" s="196"/>
+      <c r="N9" s="196"/>
     </row>
     <row r="10" spans="2:16" ht="10.95" customHeight="1" thickBot="1">
       <c r="B10" s="10"/>
@@ -24497,23 +25016,23 @@
       <c r="N10" s="12"/>
     </row>
     <row r="11" spans="2:16" ht="61.2" customHeight="1" thickBot="1">
-      <c r="B11" s="197" t="s">
+      <c r="B11" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="197"/>
+      <c r="C11" s="188"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="205" t="s">
+      <c r="E11" s="195" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="206"/>
-      <c r="G11" s="206"/>
-      <c r="H11" s="206"/>
-      <c r="I11" s="206"/>
-      <c r="J11" s="206"/>
-      <c r="K11" s="206"/>
-      <c r="L11" s="206"/>
-      <c r="M11" s="206"/>
-      <c r="N11" s="206"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="196"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="196"/>
+      <c r="K11" s="196"/>
+      <c r="L11" s="196"/>
+      <c r="M11" s="196"/>
+      <c r="N11" s="196"/>
     </row>
     <row r="12" spans="2:16" ht="10.95" customHeight="1" thickBot="1">
       <c r="B12" s="10"/>
@@ -24531,23 +25050,23 @@
       <c r="N12" s="12"/>
     </row>
     <row r="13" spans="2:16" ht="99" customHeight="1" thickBot="1">
-      <c r="B13" s="197" t="s">
+      <c r="B13" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="197"/>
+      <c r="C13" s="188"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="199" t="s">
+      <c r="E13" s="189" t="s">
         <v>285</v>
       </c>
-      <c r="F13" s="200"/>
-      <c r="G13" s="200"/>
-      <c r="H13" s="200"/>
-      <c r="I13" s="200"/>
-      <c r="J13" s="200"/>
-      <c r="K13" s="200"/>
-      <c r="L13" s="200"/>
-      <c r="M13" s="200"/>
-      <c r="N13" s="200"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="190"/>
+      <c r="I13" s="190"/>
+      <c r="J13" s="190"/>
+      <c r="K13" s="190"/>
+      <c r="L13" s="190"/>
+      <c r="M13" s="190"/>
+      <c r="N13" s="190"/>
     </row>
     <row r="14" spans="2:16" ht="73.5" customHeight="1">
       <c r="B14" s="13"/>
@@ -24571,6 +25090,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="13">
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:N5"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="E13:N13"/>
     <mergeCell ref="B7:C7"/>
@@ -24579,11 +25103,6 @@
     <mergeCell ref="E9:N9"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="E11:N11"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:N5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:N8 E10:N10 E12:N12" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -24609,7 +25128,7 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="7.88671875" style="3" customWidth="1"/>
     <col min="2" max="2" width="58.44140625" style="3" customWidth="1"/>
@@ -24636,11 +25155,11 @@
       <c r="F1" s="255"/>
       <c r="G1" s="255"/>
       <c r="H1" s="256"/>
-      <c r="I1" s="209" t="str">
+      <c r="I1" s="207" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="J1" s="210"/>
+      <c r="J1" s="208"/>
     </row>
     <row r="2" spans="1:60" ht="12.75" customHeight="1">
       <c r="A2" s="257"/>
@@ -24651,11 +25170,11 @@
       <c r="F2" s="258"/>
       <c r="G2" s="258"/>
       <c r="H2" s="259"/>
-      <c r="I2" s="211">
+      <c r="I2" s="209">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="J2" s="212"/>
+      <c r="J2" s="210"/>
     </row>
     <row r="3" spans="1:60" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="260"/>
@@ -24666,11 +25185,11 @@
       <c r="F3" s="261"/>
       <c r="G3" s="261"/>
       <c r="H3" s="262"/>
-      <c r="I3" s="213" t="str">
+      <c r="I3" s="211" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="J3" s="214"/>
+      <c r="J3" s="212"/>
     </row>
     <row r="4" spans="1:60" ht="12.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -25299,7 +25818,7 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="A1:H3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A12:J12 A6:J10">
+  <conditionalFormatting sqref="A6:J10 A12:J12">
     <cfRule type="expression" dxfId="2" priority="25" stopIfTrue="1">
       <formula>IF($G6="Done",TRUE,FALSE)</formula>
     </cfRule>
@@ -25333,7 +25852,7 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="16" style="3" customWidth="1"/>
     <col min="2" max="2" width="52" style="3" customWidth="1"/>
@@ -25361,11 +25880,11 @@
       <c r="G1" s="255"/>
       <c r="H1" s="255"/>
       <c r="I1" s="256"/>
-      <c r="J1" s="209" t="str">
+      <c r="J1" s="207" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="K1" s="210"/>
+      <c r="K1" s="208"/>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="258"/>
@@ -25377,11 +25896,11 @@
       <c r="G2" s="258"/>
       <c r="H2" s="258"/>
       <c r="I2" s="259"/>
-      <c r="J2" s="211">
+      <c r="J2" s="209">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="K2" s="212"/>
+      <c r="K2" s="210"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="261"/>
@@ -25393,11 +25912,11 @@
       <c r="G3" s="261"/>
       <c r="H3" s="261"/>
       <c r="I3" s="262"/>
-      <c r="J3" s="213" t="str">
+      <c r="J3" s="211" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="K3" s="214"/>
+      <c r="K3" s="212"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
       <c r="A4" s="26"/>
@@ -25459,7 +25978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="45">
+    <row r="7" spans="1:11" ht="30">
       <c r="A7" s="95">
         <v>2</v>
       </c>
@@ -25592,7 +26111,7 @@
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="33.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" style="3" customWidth="1"/>
@@ -25620,11 +26139,11 @@
       <c r="F1" s="268"/>
       <c r="G1" s="268"/>
       <c r="H1" s="269"/>
-      <c r="I1" s="209" t="str">
+      <c r="I1" s="207" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="J1" s="210"/>
+      <c r="J1" s="208"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1">
       <c r="A2" s="270"/>
@@ -25635,11 +26154,11 @@
       <c r="F2" s="271"/>
       <c r="G2" s="271"/>
       <c r="H2" s="272"/>
-      <c r="I2" s="211">
+      <c r="I2" s="209">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="J2" s="212"/>
+      <c r="J2" s="210"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="273"/>
@@ -25650,11 +26169,11 @@
       <c r="F3" s="274"/>
       <c r="G3" s="274"/>
       <c r="H3" s="275"/>
-      <c r="I3" s="213" t="str">
+      <c r="I3" s="211" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="J3" s="214"/>
+      <c r="J3" s="212"/>
     </row>
     <row r="4" spans="1:10" ht="13.8" thickBot="1">
       <c r="A4" s="41"/>
@@ -26209,7 +26728,7 @@
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="32.5546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="76.33203125" style="3" customWidth="1"/>
@@ -26227,31 +26746,31 @@
       </c>
       <c r="B1" s="277"/>
       <c r="C1" s="277"/>
-      <c r="D1" s="209" t="str">
+      <c r="D1" s="207" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="E1" s="210"/>
+      <c r="E1" s="208"/>
     </row>
     <row r="2" spans="1:12" ht="12.75" customHeight="1">
       <c r="A2" s="278"/>
       <c r="B2" s="279"/>
       <c r="C2" s="279"/>
-      <c r="D2" s="211">
+      <c r="D2" s="209">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="E2" s="212"/>
+      <c r="E2" s="210"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="280"/>
       <c r="B3" s="281"/>
       <c r="C3" s="281"/>
-      <c r="D3" s="213" t="str">
+      <c r="D3" s="211" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="E3" s="214"/>
+      <c r="E3" s="212"/>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -26421,7 +26940,7 @@
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="1.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
@@ -26447,14 +26966,14 @@
         <f>"PLANNING COURANT  au "&amp;TEXT(K2,"jj/mm/aaaa")</f>
         <v>PLANNING COURANT  au 25/00/Freitag</v>
       </c>
-      <c r="C1" s="285"/>
+      <c r="C1" s="282"/>
       <c r="D1" s="277"/>
       <c r="E1" s="277"/>
       <c r="F1" s="277"/>
       <c r="G1" s="277"/>
       <c r="H1" s="277"/>
       <c r="I1" s="277"/>
-      <c r="J1" s="286"/>
+      <c r="J1" s="283"/>
       <c r="K1" s="231" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
@@ -26471,7 +26990,7 @@
       <c r="G2" s="279"/>
       <c r="H2" s="279"/>
       <c r="I2" s="279"/>
-      <c r="J2" s="287"/>
+      <c r="J2" s="284"/>
       <c r="K2" s="220">
         <f>'1a-Identification Projet'!$L$2</f>
         <v>45912</v>
@@ -26489,7 +27008,7 @@
       <c r="G3" s="281"/>
       <c r="H3" s="281"/>
       <c r="I3" s="281"/>
-      <c r="J3" s="288"/>
+      <c r="J3" s="285"/>
       <c r="K3" s="223" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
@@ -26616,25 +27135,25 @@
     </row>
     <row r="7" spans="1:39" ht="24.6">
       <c r="A7"/>
-      <c r="C7" s="289" t="s">
+      <c r="C7" s="286" t="s">
         <v>286</v>
       </c>
-      <c r="D7" s="290"/>
-      <c r="E7" s="290"/>
-      <c r="F7" s="290"/>
-      <c r="G7" s="290"/>
-      <c r="H7" s="290"/>
-      <c r="I7" s="291"/>
+      <c r="D7" s="287"/>
+      <c r="E7" s="287"/>
+      <c r="F7" s="287"/>
+      <c r="G7" s="287"/>
+      <c r="H7" s="287"/>
+      <c r="I7" s="288"/>
       <c r="J7"/>
-      <c r="K7" s="289" t="s">
+      <c r="K7" s="286" t="s">
         <v>113</v>
       </c>
-      <c r="L7" s="290"/>
-      <c r="M7" s="290"/>
-      <c r="N7" s="290"/>
-      <c r="O7" s="290"/>
-      <c r="P7" s="290"/>
-      <c r="Q7" s="291"/>
+      <c r="L7" s="287"/>
+      <c r="M7" s="287"/>
+      <c r="N7" s="287"/>
+      <c r="O7" s="287"/>
+      <c r="P7" s="287"/>
+      <c r="Q7" s="288"/>
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
@@ -28067,28 +28586,28 @@
     </row>
     <row r="31" spans="1:39" ht="27" customHeight="1">
       <c r="A31"/>
-      <c r="C31" s="282">
+      <c r="C31" s="289">
         <v>21</v>
       </c>
-      <c r="D31" s="283" t="s">
+      <c r="D31" s="290" t="s">
         <v>261</v>
       </c>
-      <c r="E31" s="284">
+      <c r="E31" s="291">
         <v>46003</v>
       </c>
-      <c r="F31" s="284">
+      <c r="F31" s="291">
         <v>45943</v>
       </c>
       <c r="G31" s="170" t="s">
         <v>262</v>
       </c>
-      <c r="H31" s="283" t="s">
+      <c r="H31" s="290" t="s">
         <v>230</v>
       </c>
-      <c r="I31" s="282" t="s">
+      <c r="I31" s="289" t="s">
         <v>223</v>
       </c>
-      <c r="K31" s="282"/>
+      <c r="K31" s="289"/>
       <c r="L31" s="171"/>
       <c r="M31" s="172"/>
       <c r="N31" s="172"/>
@@ -28120,16 +28639,16 @@
     </row>
     <row r="32" spans="1:39" ht="27" customHeight="1">
       <c r="A32"/>
-      <c r="C32" s="282"/>
-      <c r="D32" s="283"/>
-      <c r="E32" s="284"/>
-      <c r="F32" s="284"/>
+      <c r="C32" s="289"/>
+      <c r="D32" s="290"/>
+      <c r="E32" s="291"/>
+      <c r="F32" s="291"/>
       <c r="G32" s="170" t="s">
         <v>263</v>
       </c>
-      <c r="H32" s="283"/>
-      <c r="I32" s="282"/>
-      <c r="K32" s="282"/>
+      <c r="H32" s="290"/>
+      <c r="I32" s="289"/>
+      <c r="K32" s="289"/>
       <c r="L32" s="171"/>
       <c r="M32" s="172"/>
       <c r="N32" s="172"/>
@@ -35231,12 +35750,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="13">
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="B1:J3"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="K7:Q7"/>
     <mergeCell ref="I31:I32"/>
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="C31:C32"/>
@@ -35244,6 +35757,12 @@
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="H31:H32"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="B1:J3"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="K7:Q7"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="83" firstPageNumber="0" orientation="landscape" r:id="rId1"/>
@@ -35264,7 +35783,7 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" style="3" customWidth="1"/>
@@ -35301,11 +35820,11 @@
       <c r="D2" s="279"/>
       <c r="E2" s="279"/>
       <c r="F2" s="279"/>
-      <c r="G2" s="211">
+      <c r="G2" s="209">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="H2" s="212"/>
+      <c r="H2" s="210"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="280"/>
@@ -35314,11 +35833,11 @@
       <c r="D3" s="281"/>
       <c r="E3" s="281"/>
       <c r="F3" s="281"/>
-      <c r="G3" s="213" t="str">
+      <c r="G3" s="211" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="H3" s="214"/>
+      <c r="H3" s="212"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="B4" s="26"/>
@@ -35430,7 +35949,7 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" customWidth="1"/>
@@ -35469,7 +35988,7 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="26.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" style="3" customWidth="1"/>
@@ -35490,11 +36009,11 @@
       <c r="D1" s="118"/>
       <c r="E1" s="118"/>
       <c r="F1" s="118"/>
-      <c r="G1" s="209" t="str">
+      <c r="G1" s="207" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="H1" s="210"/>
+      <c r="H1" s="208"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1">
       <c r="A2" s="115"/>
@@ -35503,11 +36022,11 @@
       <c r="D2" s="119"/>
       <c r="E2" s="119"/>
       <c r="F2" s="119"/>
-      <c r="G2" s="211">
+      <c r="G2" s="209">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="H2" s="212"/>
+      <c r="H2" s="210"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
@@ -35516,11 +36035,11 @@
       <c r="D3" s="120"/>
       <c r="E3" s="120"/>
       <c r="F3" s="120"/>
-      <c r="G3" s="213" t="str">
+      <c r="G3" s="211" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="H3" s="214"/>
+      <c r="H3" s="212"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1">
       <c r="B4" s="26"/>
@@ -35550,16 +36069,16 @@
       <c r="H7" s="136"/>
     </row>
     <row r="8" spans="1:15" ht="96" customHeight="1">
-      <c r="A8" s="215" t="s">
+      <c r="A8" s="213" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="215"/>
-      <c r="C8" s="215"/>
-      <c r="D8" s="215"/>
-      <c r="E8" s="215"/>
-      <c r="F8" s="215"/>
-      <c r="G8" s="215"/>
-      <c r="H8" s="215"/>
+      <c r="B8" s="213"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="213"/>
     </row>
     <row r="9" spans="1:15" ht="13.8" thickBot="1">
       <c r="A9" s="76" t="s">
@@ -35616,10 +36135,10 @@
       <c r="F11" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="G11" s="207" t="s">
+      <c r="G11" s="214" t="s">
         <v>123</v>
       </c>
-      <c r="H11" s="216"/>
+      <c r="H11" s="215"/>
     </row>
     <row r="12" spans="1:15" ht="41.4" outlineLevel="2">
       <c r="A12" s="131" t="s">
@@ -35640,10 +36159,10 @@
       <c r="F12" s="132" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="207" t="s">
+      <c r="G12" s="214" t="s">
         <v>128</v>
       </c>
-      <c r="H12" s="208"/>
+      <c r="H12" s="216"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -35669,10 +36188,10 @@
         <v>131</v>
       </c>
       <c r="F13" s="133"/>
-      <c r="G13" s="207" t="s">
+      <c r="G13" s="214" t="s">
         <v>132</v>
       </c>
-      <c r="H13" s="208"/>
+      <c r="H13" s="216"/>
     </row>
     <row r="14" spans="1:15" s="4" customFormat="1" ht="27.6" outlineLevel="2">
       <c r="A14" s="131" t="s">
@@ -35693,10 +36212,10 @@
       <c r="F14" s="133" t="s">
         <v>136</v>
       </c>
-      <c r="G14" s="207" t="s">
+      <c r="G14" s="214" t="s">
         <v>137</v>
       </c>
-      <c r="H14" s="208"/>
+      <c r="H14" s="216"/>
     </row>
     <row r="15" spans="1:15" s="4" customFormat="1" ht="41.4" outlineLevel="2">
       <c r="A15" s="131" t="s">
@@ -35717,10 +36236,10 @@
       <c r="F15" s="132" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="207" t="s">
+      <c r="G15" s="214" t="s">
         <v>142</v>
       </c>
-      <c r="H15" s="208"/>
+      <c r="H15" s="216"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -35748,10 +36267,10 @@
       <c r="F16" s="133" t="s">
         <v>146</v>
       </c>
-      <c r="G16" s="207" t="s">
+      <c r="G16" s="214" t="s">
         <v>147</v>
       </c>
-      <c r="H16" s="208"/>
+      <c r="H16" s="216"/>
     </row>
     <row r="17" spans="1:8" ht="41.4" outlineLevel="2">
       <c r="A17" s="131" t="s">
@@ -35772,10 +36291,10 @@
       <c r="F17" s="132" t="s">
         <v>151</v>
       </c>
-      <c r="G17" s="207" t="s">
+      <c r="G17" s="214" t="s">
         <v>152</v>
       </c>
-      <c r="H17" s="208"/>
+      <c r="H17" s="216"/>
     </row>
     <row r="18" spans="1:8" ht="41.4">
       <c r="A18" s="131" t="s">
@@ -35796,10 +36315,10 @@
       <c r="F18" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G18" s="207" t="s">
+      <c r="G18" s="214" t="s">
         <v>157</v>
       </c>
-      <c r="H18" s="208"/>
+      <c r="H18" s="216"/>
     </row>
     <row r="19" spans="1:8" ht="27.6">
       <c r="A19" s="131" t="s">
@@ -35820,10 +36339,10 @@
       <c r="F19" s="132" t="s">
         <v>161</v>
       </c>
-      <c r="G19" s="207" t="s">
+      <c r="G19" s="214" t="s">
         <v>162</v>
       </c>
-      <c r="H19" s="208"/>
+      <c r="H19" s="216"/>
     </row>
     <row r="20" spans="1:8" ht="27.6">
       <c r="A20" s="131" t="s">
@@ -35844,10 +36363,10 @@
       <c r="F20" s="132" t="s">
         <v>166</v>
       </c>
-      <c r="G20" s="207" t="s">
+      <c r="G20" s="214" t="s">
         <v>167</v>
       </c>
-      <c r="H20" s="208"/>
+      <c r="H20" s="216"/>
     </row>
     <row r="21" spans="1:8" ht="27.6">
       <c r="A21" s="131" t="s">
@@ -35868,10 +36387,10 @@
       <c r="F21" s="132" t="s">
         <v>171</v>
       </c>
-      <c r="G21" s="207" t="s">
+      <c r="G21" s="214" t="s">
         <v>172</v>
       </c>
-      <c r="H21" s="208"/>
+      <c r="H21" s="216"/>
     </row>
     <row r="22" spans="1:8" ht="27.6">
       <c r="A22" s="131" t="s">
@@ -35892,10 +36411,10 @@
       <c r="F22" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="G22" s="207" t="s">
+      <c r="G22" s="214" t="s">
         <v>177</v>
       </c>
-      <c r="H22" s="208"/>
+      <c r="H22" s="216"/>
     </row>
     <row r="23" spans="1:8" ht="27.6">
       <c r="A23" s="131" t="s">
@@ -35916,10 +36435,10 @@
       <c r="F23" s="133" t="s">
         <v>180</v>
       </c>
-      <c r="G23" s="207" t="s">
+      <c r="G23" s="214" t="s">
         <v>181</v>
       </c>
-      <c r="H23" s="208"/>
+      <c r="H23" s="216"/>
     </row>
     <row r="24" spans="1:8" ht="13.8">
       <c r="A24" s="131" t="s">
@@ -35940,10 +36459,10 @@
       <c r="F24" s="133" t="s">
         <v>185</v>
       </c>
-      <c r="G24" s="207" t="s">
+      <c r="G24" s="214" t="s">
         <v>186</v>
       </c>
-      <c r="H24" s="208"/>
+      <c r="H24" s="216"/>
     </row>
     <row r="25" spans="1:8" ht="27.6">
       <c r="A25" s="131" t="s">
@@ -35964,10 +36483,10 @@
       <c r="F25" s="133" t="s">
         <v>190</v>
       </c>
-      <c r="G25" s="207" t="s">
+      <c r="G25" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="H25" s="208"/>
+      <c r="H25" s="216"/>
     </row>
     <row r="26" spans="1:8" ht="13.8">
       <c r="A26" s="131" t="s">
@@ -35988,10 +36507,10 @@
       <c r="F26" s="133" t="s">
         <v>195</v>
       </c>
-      <c r="G26" s="207" t="s">
+      <c r="G26" s="214" t="s">
         <v>196</v>
       </c>
-      <c r="H26" s="208"/>
+      <c r="H26" s="216"/>
     </row>
     <row r="27" spans="1:8" ht="27.6">
       <c r="A27" s="131" t="s">
@@ -36012,10 +36531,10 @@
       <c r="F27" s="132" t="s">
         <v>200</v>
       </c>
-      <c r="G27" s="207" t="s">
+      <c r="G27" s="214" t="s">
         <v>201</v>
       </c>
-      <c r="H27" s="208"/>
+      <c r="H27" s="216"/>
     </row>
     <row r="28" spans="1:8" ht="13.8">
       <c r="A28" s="131" t="s">
@@ -36036,10 +36555,10 @@
       <c r="F28" s="133" t="s">
         <v>205</v>
       </c>
-      <c r="G28" s="207" t="s">
+      <c r="G28" s="214" t="s">
         <v>206</v>
       </c>
-      <c r="H28" s="208"/>
+      <c r="H28" s="216"/>
     </row>
     <row r="29" spans="1:8" ht="13.8">
       <c r="A29" s="131" t="s">
@@ -36060,10 +36579,10 @@
       <c r="F29" s="133" t="s">
         <v>210</v>
       </c>
-      <c r="G29" s="207" t="s">
+      <c r="G29" s="214" t="s">
         <v>211</v>
       </c>
-      <c r="H29" s="208"/>
+      <c r="H29" s="216"/>
     </row>
     <row r="30" spans="1:8" ht="13.8">
       <c r="A30" s="131" t="s">
@@ -36078,26 +36597,11 @@
       </c>
       <c r="E30" s="133"/>
       <c r="F30" s="133"/>
-      <c r="G30" s="207"/>
-      <c r="H30" s="208"/>
+      <c r="G30" s="214"/>
+      <c r="H30" s="216"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
@@ -36107,6 +36611,21 @@
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
@@ -36124,7 +36643,7 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="16384" width="11.5546875" style="181"/>
   </cols>
@@ -36140,11 +36659,11 @@
   </sheetPr>
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="1.6640625" style="3" customWidth="1"/>
     <col min="2" max="16384" width="11.44140625" style="3"/>
@@ -36338,11 +36857,11 @@
   </sheetPr>
   <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="87" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="87" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="1.6640625" style="3" customWidth="1"/>
     <col min="2" max="16384" width="11.44140625" style="3"/>
@@ -37228,11 +37747,11 @@
   </sheetPr>
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q49" sqref="Q49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="1.6640625" style="3" customWidth="1"/>
     <col min="2" max="16384" width="11.44140625" style="3"/>
@@ -37856,7 +38375,7 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="1.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
@@ -38799,7 +39318,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="40.88671875" style="3" customWidth="1"/>
     <col min="2" max="2" width="55.33203125" style="3" customWidth="1"/>
@@ -39154,7 +39673,7 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="88.6640625" style="20" customWidth="1"/>
     <col min="2" max="2" width="85.33203125" style="20" customWidth="1"/>

--- a/tools/fichier_excel/GroupeTD-GroupeProjet - ProjetInformatique.xlsx
+++ b/tools/fichier_excel/GroupeTD-GroupeProjet - ProjetInformatique.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CECA4C-30FD-4759-8B75-9EDD59BA7AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D1837B-D3D3-48A8-B3E9-605F4ED8FA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="894" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="894" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1a-Identification Projet" sheetId="39" r:id="rId1"/>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="345">
   <si>
     <t>Responsable</t>
   </si>
@@ -1251,6 +1251,38 @@
   </si>
   <si>
     <t>Canvas complet</t>
+  </si>
+  <si>
+    <t>Le déroulement du projet a été globalement satisfaisant, mais marqué par plusieurs difficultés organisationnelles. La gestion simultanée des contrôles continus dans d’autres UE a fortement perturbé notre capacité à maintenir un rythme de travail régulier. Cela a entraîné des retards, des réajustements de planning et parfois une baisse de disponibilité des membres.
+Nous avons également constaté qu'il est complexe de coordonner efficacement un groupe : les emplois du temps différents, les niveaux d’implication variables et la communication parfois insuffisante ont provoqué des moments de désalignement.
+Par ailleurs, notre estimation initiale de la charge de certaines tâches s’est révélée trop optimiste, ce qui a ajouté une pression supplémentaire en fin de sprint ou avant les échéances. Malgré cela, l’équipe a su s’adapter, restructurer certaines actions et maintenir une dynamique de progression grâce à un engagement collectif.</t>
+  </si>
+  <si>
+    <t>1. L’importance d’une planification réaliste, tenant compte des périodes chargées et contraintes académiques.
+2. La nécessité d’une communication constante entre les membres afin d’éviter les malentendus et les blocages.
+3. La découverte que gérer une équipe n’est pas simple : cela demande un leadership partagé, de la flexibilité et de la compréhension mutuelle.
+4. Le travail en groupe a renforcé notre capacité à collaborer, à répartir les responsabilités et à maintenir un suivi collectif.
+5. Enfin, nous avons appris à décomposer le travail (WBS) et à évaluer plus précisément la charge réelle de chaque tâche, évitant ainsi l’optimisme excessif.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1. Anticiper davantage les périodes critiques (examens, devoirs, semaines intenses) pour ajuster la charge de travail et éviter les retards.             
+2. Mettre en place un système de suivi plus rigoureux (réunions courtes mais fréquentes, tableau de bord simple) afin de garder une vision claire de l’avancement.
+3.  Continuer à améliorer la communication interne afin de résoudre les problèmes plus rapidement et maintenir une bonne cohésion d’équipe. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                                                                                         </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -6975,7 +7007,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="314">
+  <cellXfs count="318">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="68" borderId="48" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -7499,325 +7531,6 @@
     <xf numFmtId="0" fontId="100" fillId="80" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="34" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="71" borderId="47" xfId="292" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="71" borderId="0" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="71" borderId="49" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="71" borderId="48" xfId="292" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="71" borderId="21" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="71" borderId="50" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="73" borderId="51" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="73" borderId="25" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="73" borderId="52" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="69" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="68" borderId="47" xfId="958" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="68" borderId="49" xfId="958" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="48" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="50" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="34" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="68" borderId="47" xfId="957" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="0" xfId="957" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="49" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="68" borderId="48" xfId="957" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="21" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="50" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="56" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="68" borderId="0" xfId="957" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="68" borderId="21" xfId="957" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="946" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="55" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="57" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="100" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="100" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="53" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="34" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="68" borderId="18" xfId="946" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="68" borderId="0" xfId="946" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="68" borderId="49" xfId="946" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="54" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="21" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="50" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="71" borderId="46" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="71" borderId="34" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="71" borderId="47" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="71" borderId="0" xfId="946" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="71" borderId="48" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="71" borderId="21" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="55" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="65" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="62" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="62" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="62" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="56" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="57" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="47" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="0" xfId="958" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="49" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="48" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="21" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="50" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="55" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="100" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="56" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="78" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="78" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="78" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="55" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="57" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="99" fillId="81" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -7842,57 +7555,388 @@
     <xf numFmtId="2" fontId="97" fillId="80" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="7" fillId="80" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="80" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="80" borderId="0" xfId="946" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="80" borderId="0" xfId="946" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="80" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="80" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="10" fillId="80" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="7" fillId="80" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="80" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="34" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="71" borderId="47" xfId="292" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="71" borderId="0" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="71" borderId="49" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="71" borderId="48" xfId="292" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="71" borderId="21" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="71" borderId="50" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="80" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="80" borderId="0" xfId="946" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="80" borderId="0" xfId="946" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="73" borderId="51" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="73" borderId="25" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="73" borderId="52" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="69" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="68" borderId="47" xfId="958" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="68" borderId="49" xfId="958" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="48" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="50" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="34" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="68" borderId="47" xfId="957" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="0" xfId="957" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="49" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="68" borderId="48" xfId="957" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="21" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="50" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="56" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="68" borderId="0" xfId="957" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="68" borderId="21" xfId="957" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="946" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="55" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="57" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="100" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="100" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="55" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="65" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="62" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="62" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="62" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="56" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="57" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="47" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="0" xfId="958" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="49" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="48" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="21" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="50" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="55" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="53" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="34" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="68" borderId="18" xfId="946" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="68" borderId="0" xfId="946" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="68" borderId="49" xfId="946" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="54" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="21" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="50" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="71" borderId="46" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="71" borderId="34" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="71" borderId="47" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="71" borderId="0" xfId="946" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="71" borderId="48" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="71" borderId="21" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="100" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="56" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="78" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="80" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="80" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="10" fillId="80" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="80" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="101" fillId="78" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="78" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="55" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="57" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1319">
@@ -9632,98 +9676,6 @@
             <a:effectLst/>
             <a:ea typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>726282</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1059656</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle à coins arrondis 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16252032" y="2905125"/>
-          <a:ext cx="3131343" cy="821531"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -107129"/>
-            <a:gd name="adj2" fmla="val -206430"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>A la fin de votre projet , prenez du recul et faite .... un bilan</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100">
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -24805,7 +24757,7 @@
   </sheetPr>
   <dimension ref="B1:S25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
@@ -24831,11 +24783,11 @@
       <c r="I1" s="113"/>
       <c r="J1" s="113"/>
       <c r="K1" s="113"/>
-      <c r="L1" s="179" t="s">
+      <c r="L1" s="206" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="180"/>
-      <c r="N1" s="181"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="208"/>
       <c r="P1" s="24"/>
     </row>
     <row r="2" spans="2:16" ht="12.75" customHeight="1">
@@ -24849,11 +24801,11 @@
       <c r="I2" s="115"/>
       <c r="J2" s="115"/>
       <c r="K2" s="115"/>
-      <c r="L2" s="182">
+      <c r="L2" s="209">
         <v>45912</v>
       </c>
-      <c r="M2" s="183"/>
-      <c r="N2" s="184"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="211"/>
     </row>
     <row r="3" spans="2:16" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="116"/>
@@ -24866,34 +24818,34 @@
       <c r="I3" s="117"/>
       <c r="J3" s="117"/>
       <c r="K3" s="117"/>
-      <c r="L3" s="185" t="s">
+      <c r="L3" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="186"/>
-      <c r="N3" s="187"/>
+      <c r="M3" s="213"/>
+      <c r="N3" s="214"/>
       <c r="P3" s="24"/>
     </row>
     <row r="4" spans="2:16" ht="12.75" customHeight="1" thickBot="1">
       <c r="P4" s="25"/>
     </row>
     <row r="5" spans="2:16" ht="23.4" thickBot="1">
-      <c r="B5" s="188" t="s">
+      <c r="B5" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="188"/>
+      <c r="C5" s="215"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="189" t="s">
+      <c r="E5" s="216" t="s">
         <v>264</v>
       </c>
-      <c r="F5" s="189"/>
-      <c r="G5" s="189"/>
-      <c r="H5" s="189"/>
-      <c r="I5" s="189"/>
-      <c r="J5" s="189"/>
-      <c r="K5" s="189"/>
-      <c r="L5" s="189"/>
-      <c r="M5" s="189"/>
-      <c r="N5" s="189"/>
+      <c r="F5" s="216"/>
+      <c r="G5" s="216"/>
+      <c r="H5" s="216"/>
+      <c r="I5" s="216"/>
+      <c r="J5" s="216"/>
+      <c r="K5" s="216"/>
+      <c r="L5" s="216"/>
+      <c r="M5" s="216"/>
+      <c r="N5" s="216"/>
     </row>
     <row r="6" spans="2:16" ht="12" customHeight="1" thickBot="1">
       <c r="B6" s="7"/>
@@ -24910,23 +24862,23 @@
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="2:16" ht="18" thickBot="1">
-      <c r="B7" s="188" t="s">
+      <c r="B7" s="215" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="188"/>
+      <c r="C7" s="215"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="192" t="s">
+      <c r="E7" s="219" t="s">
         <v>263</v>
       </c>
-      <c r="F7" s="193"/>
-      <c r="G7" s="193"/>
-      <c r="H7" s="193"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="193"/>
-      <c r="K7" s="193"/>
-      <c r="L7" s="193"/>
-      <c r="M7" s="193"/>
-      <c r="N7" s="194"/>
+      <c r="F7" s="220"/>
+      <c r="G7" s="220"/>
+      <c r="H7" s="220"/>
+      <c r="I7" s="220"/>
+      <c r="J7" s="220"/>
+      <c r="K7" s="220"/>
+      <c r="L7" s="220"/>
+      <c r="M7" s="220"/>
+      <c r="N7" s="221"/>
     </row>
     <row r="8" spans="2:16" ht="9.6" customHeight="1" thickBot="1">
       <c r="B8" s="10"/>
@@ -24944,23 +24896,23 @@
       <c r="N8" s="12"/>
     </row>
     <row r="9" spans="2:16" ht="54.6" customHeight="1" thickBot="1">
-      <c r="B9" s="195" t="s">
+      <c r="B9" s="222" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="195"/>
+      <c r="C9" s="222"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="196" t="s">
+      <c r="E9" s="223" t="s">
         <v>277</v>
       </c>
-      <c r="F9" s="197"/>
-      <c r="G9" s="197"/>
-      <c r="H9" s="197"/>
-      <c r="I9" s="197"/>
-      <c r="J9" s="197"/>
-      <c r="K9" s="197"/>
-      <c r="L9" s="197"/>
-      <c r="M9" s="197"/>
-      <c r="N9" s="197"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="224"/>
+      <c r="I9" s="224"/>
+      <c r="J9" s="224"/>
+      <c r="K9" s="224"/>
+      <c r="L9" s="224"/>
+      <c r="M9" s="224"/>
+      <c r="N9" s="224"/>
     </row>
     <row r="10" spans="2:16" ht="10.95" customHeight="1" thickBot="1">
       <c r="B10" s="10"/>
@@ -24978,23 +24930,23 @@
       <c r="N10" s="12"/>
     </row>
     <row r="11" spans="2:16" ht="61.2" customHeight="1" thickBot="1">
-      <c r="B11" s="188" t="s">
+      <c r="B11" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="188"/>
+      <c r="C11" s="215"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="196" t="s">
+      <c r="E11" s="223" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="197"/>
-      <c r="G11" s="197"/>
-      <c r="H11" s="197"/>
-      <c r="I11" s="197"/>
-      <c r="J11" s="197"/>
-      <c r="K11" s="197"/>
-      <c r="L11" s="197"/>
-      <c r="M11" s="197"/>
-      <c r="N11" s="197"/>
+      <c r="F11" s="224"/>
+      <c r="G11" s="224"/>
+      <c r="H11" s="224"/>
+      <c r="I11" s="224"/>
+      <c r="J11" s="224"/>
+      <c r="K11" s="224"/>
+      <c r="L11" s="224"/>
+      <c r="M11" s="224"/>
+      <c r="N11" s="224"/>
     </row>
     <row r="12" spans="2:16" ht="10.95" customHeight="1" thickBot="1">
       <c r="B12" s="10"/>
@@ -25012,23 +24964,23 @@
       <c r="N12" s="12"/>
     </row>
     <row r="13" spans="2:16" ht="99" customHeight="1" thickBot="1">
-      <c r="B13" s="188" t="s">
+      <c r="B13" s="215" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="188"/>
+      <c r="C13" s="215"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="190" t="s">
+      <c r="E13" s="217" t="s">
         <v>265</v>
       </c>
-      <c r="F13" s="191"/>
-      <c r="G13" s="191"/>
-      <c r="H13" s="191"/>
-      <c r="I13" s="191"/>
-      <c r="J13" s="191"/>
-      <c r="K13" s="191"/>
-      <c r="L13" s="191"/>
-      <c r="M13" s="191"/>
-      <c r="N13" s="191"/>
+      <c r="F13" s="218"/>
+      <c r="G13" s="218"/>
+      <c r="H13" s="218"/>
+      <c r="I13" s="218"/>
+      <c r="J13" s="218"/>
+      <c r="K13" s="218"/>
+      <c r="L13" s="218"/>
+      <c r="M13" s="218"/>
+      <c r="N13" s="218"/>
     </row>
     <row r="14" spans="2:16" ht="73.5" customHeight="1">
       <c r="B14" s="13"/>
@@ -25087,7 +25039,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:F6"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
@@ -25106,55 +25058,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A1" s="258" t="str">
+      <c r="A1" s="271" t="str">
         <f>"LISTE DES DECISIONS au "&amp;TEXT(J2,"jj/mm/aaaa")</f>
         <v>LISTE DES DECISIONS au 25/00/Freitag</v>
       </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
-      <c r="E1" s="246"/>
-      <c r="F1" s="246"/>
-      <c r="G1" s="246"/>
-      <c r="H1" s="246"/>
-      <c r="I1" s="247"/>
-      <c r="J1" s="200" t="str">
+      <c r="B1" s="258"/>
+      <c r="C1" s="258"/>
+      <c r="D1" s="258"/>
+      <c r="E1" s="258"/>
+      <c r="F1" s="258"/>
+      <c r="G1" s="258"/>
+      <c r="H1" s="258"/>
+      <c r="I1" s="259"/>
+      <c r="J1" s="227" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="K1" s="201"/>
+      <c r="K1" s="228"/>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A2" s="249"/>
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="249"/>
-      <c r="G2" s="249"/>
-      <c r="H2" s="249"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="202">
+      <c r="A2" s="261"/>
+      <c r="B2" s="261"/>
+      <c r="C2" s="261"/>
+      <c r="D2" s="261"/>
+      <c r="E2" s="261"/>
+      <c r="F2" s="261"/>
+      <c r="G2" s="261"/>
+      <c r="H2" s="261"/>
+      <c r="I2" s="262"/>
+      <c r="J2" s="229">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="K2" s="203"/>
+      <c r="K2" s="230"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="252"/>
-      <c r="B3" s="252"/>
-      <c r="C3" s="252"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="252"/>
-      <c r="F3" s="252"/>
-      <c r="G3" s="252"/>
-      <c r="H3" s="252"/>
-      <c r="I3" s="253"/>
-      <c r="J3" s="204" t="str">
+      <c r="A3" s="264"/>
+      <c r="B3" s="264"/>
+      <c r="C3" s="264"/>
+      <c r="D3" s="264"/>
+      <c r="E3" s="264"/>
+      <c r="F3" s="264"/>
+      <c r="G3" s="264"/>
+      <c r="H3" s="264"/>
+      <c r="I3" s="265"/>
+      <c r="J3" s="231" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="K3" s="205"/>
+      <c r="K3" s="232"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
       <c r="A4" s="26"/>
@@ -25166,13 +25118,13 @@
       <c r="A5" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="255" t="s">
+      <c r="B5" s="268" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="256"/>
-      <c r="D5" s="256"/>
-      <c r="E5" s="256"/>
-      <c r="F5" s="257"/>
+      <c r="C5" s="269"/>
+      <c r="D5" s="269"/>
+      <c r="E5" s="269"/>
+      <c r="F5" s="270"/>
       <c r="G5" s="89" t="s">
         <v>20</v>
       </c>
@@ -25193,13 +25145,13 @@
       <c r="A6" s="90">
         <v>1</v>
       </c>
-      <c r="B6" s="254" t="s">
+      <c r="B6" s="266" t="s">
         <v>314</v>
       </c>
-      <c r="C6" s="254"/>
-      <c r="D6" s="254"/>
-      <c r="E6" s="254"/>
-      <c r="F6" s="254"/>
+      <c r="C6" s="266"/>
+      <c r="D6" s="266"/>
+      <c r="E6" s="266"/>
+      <c r="F6" s="266"/>
       <c r="G6" s="91" t="s">
         <v>267</v>
       </c>
@@ -25220,13 +25172,13 @@
       <c r="A7" s="90">
         <v>2</v>
       </c>
-      <c r="B7" s="254" t="s">
+      <c r="B7" s="266" t="s">
         <v>322</v>
       </c>
-      <c r="C7" s="254"/>
-      <c r="D7" s="254"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="254"/>
+      <c r="C7" s="266"/>
+      <c r="D7" s="266"/>
+      <c r="E7" s="266"/>
+      <c r="F7" s="266"/>
       <c r="G7" s="91" t="s">
         <v>280</v>
       </c>
@@ -25247,13 +25199,13 @@
       <c r="A8" s="90">
         <v>3</v>
       </c>
-      <c r="B8" s="254" t="s">
+      <c r="B8" s="266" t="s">
         <v>323</v>
       </c>
-      <c r="C8" s="254"/>
-      <c r="D8" s="254"/>
-      <c r="E8" s="254"/>
-      <c r="F8" s="254"/>
+      <c r="C8" s="266"/>
+      <c r="D8" s="266"/>
+      <c r="E8" s="266"/>
+      <c r="F8" s="266"/>
       <c r="G8" s="91" t="s">
         <v>285</v>
       </c>
@@ -25271,43 +25223,43 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.6">
-      <c r="A9" s="296"/>
-      <c r="B9" s="297"/>
-      <c r="C9" s="297"/>
-      <c r="D9" s="297"/>
-      <c r="E9" s="297"/>
-      <c r="F9" s="297"/>
-      <c r="G9" s="298"/>
-      <c r="H9" s="298"/>
-      <c r="I9" s="298"/>
-      <c r="J9" s="299"/>
-      <c r="K9" s="300"/>
+      <c r="A9" s="189"/>
+      <c r="B9" s="267"/>
+      <c r="C9" s="267"/>
+      <c r="D9" s="267"/>
+      <c r="E9" s="267"/>
+      <c r="F9" s="267"/>
+      <c r="G9" s="190"/>
+      <c r="H9" s="190"/>
+      <c r="I9" s="190"/>
+      <c r="J9" s="191"/>
+      <c r="K9" s="192"/>
     </row>
     <row r="10" spans="1:11" ht="15.6">
-      <c r="A10" s="296"/>
-      <c r="B10" s="297"/>
-      <c r="C10" s="297"/>
-      <c r="D10" s="297"/>
-      <c r="E10" s="297"/>
-      <c r="F10" s="297"/>
-      <c r="G10" s="298"/>
-      <c r="H10" s="298"/>
-      <c r="I10" s="298"/>
-      <c r="J10" s="301"/>
-      <c r="K10" s="300"/>
+      <c r="A10" s="189"/>
+      <c r="B10" s="267"/>
+      <c r="C10" s="267"/>
+      <c r="D10" s="267"/>
+      <c r="E10" s="267"/>
+      <c r="F10" s="267"/>
+      <c r="G10" s="190"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
+      <c r="J10" s="193"/>
+      <c r="K10" s="192"/>
     </row>
     <row r="11" spans="1:11" ht="15.6">
-      <c r="A11" s="296"/>
-      <c r="B11" s="297"/>
-      <c r="C11" s="297"/>
-      <c r="D11" s="297"/>
-      <c r="E11" s="297"/>
-      <c r="F11" s="297"/>
-      <c r="G11" s="298"/>
-      <c r="H11" s="298"/>
-      <c r="I11" s="298"/>
-      <c r="J11" s="299"/>
-      <c r="K11" s="300"/>
+      <c r="A11" s="189"/>
+      <c r="B11" s="267"/>
+      <c r="C11" s="267"/>
+      <c r="D11" s="267"/>
+      <c r="E11" s="267"/>
+      <c r="F11" s="267"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="190"/>
+      <c r="J11" s="191"/>
+      <c r="K11" s="192"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -25339,8 +25291,8 @@
   </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" outlineLevelRow="2"/>
@@ -25360,52 +25312,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A1" s="245" t="str">
+      <c r="A1" s="257" t="str">
         <f>"DOCUMENTS PROJET au "&amp;TEXT(I2,"jj/mm/aaaa")</f>
         <v>DOCUMENTS PROJET au 25/00/Freitag</v>
       </c>
-      <c r="B1" s="258"/>
-      <c r="C1" s="258"/>
-      <c r="D1" s="258"/>
-      <c r="E1" s="258"/>
-      <c r="F1" s="258"/>
-      <c r="G1" s="258"/>
-      <c r="H1" s="259"/>
-      <c r="I1" s="200" t="str">
+      <c r="B1" s="271"/>
+      <c r="C1" s="271"/>
+      <c r="D1" s="271"/>
+      <c r="E1" s="271"/>
+      <c r="F1" s="271"/>
+      <c r="G1" s="271"/>
+      <c r="H1" s="272"/>
+      <c r="I1" s="227" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="J1" s="201"/>
+      <c r="J1" s="228"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A2" s="260"/>
-      <c r="B2" s="261"/>
-      <c r="C2" s="261"/>
-      <c r="D2" s="261"/>
-      <c r="E2" s="261"/>
-      <c r="F2" s="261"/>
-      <c r="G2" s="261"/>
-      <c r="H2" s="262"/>
-      <c r="I2" s="202">
+      <c r="A2" s="273"/>
+      <c r="B2" s="274"/>
+      <c r="C2" s="274"/>
+      <c r="D2" s="274"/>
+      <c r="E2" s="274"/>
+      <c r="F2" s="274"/>
+      <c r="G2" s="274"/>
+      <c r="H2" s="275"/>
+      <c r="I2" s="229">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="J2" s="203"/>
+      <c r="J2" s="230"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="263"/>
-      <c r="B3" s="264"/>
-      <c r="C3" s="264"/>
-      <c r="D3" s="264"/>
-      <c r="E3" s="264"/>
-      <c r="F3" s="264"/>
-      <c r="G3" s="264"/>
-      <c r="H3" s="265"/>
-      <c r="I3" s="204" t="str">
+      <c r="A3" s="276"/>
+      <c r="B3" s="277"/>
+      <c r="C3" s="277"/>
+      <c r="D3" s="277"/>
+      <c r="E3" s="277"/>
+      <c r="F3" s="277"/>
+      <c r="G3" s="277"/>
+      <c r="H3" s="278"/>
+      <c r="I3" s="231" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="J3" s="205"/>
+      <c r="J3" s="232"/>
     </row>
     <row r="4" spans="1:10" ht="13.8" thickBot="1">
       <c r="A4" s="41"/>
@@ -25948,37 +25900,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A1" s="266" t="str">
+      <c r="A1" s="279" t="str">
         <f>"LIVRABLES PROJET au "&amp;TEXT(D2,"jj/mm/aaaa")</f>
         <v>LIVRABLES PROJET au 25/00/Freitag</v>
       </c>
-      <c r="B1" s="267"/>
-      <c r="C1" s="267"/>
-      <c r="D1" s="200" t="str">
+      <c r="B1" s="280"/>
+      <c r="C1" s="280"/>
+      <c r="D1" s="227" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="E1" s="201"/>
+      <c r="E1" s="228"/>
     </row>
     <row r="2" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A2" s="268"/>
-      <c r="B2" s="269"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="202">
+      <c r="A2" s="281"/>
+      <c r="B2" s="282"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="229">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="E2" s="203"/>
+      <c r="E2" s="230"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="270"/>
-      <c r="B3" s="271"/>
-      <c r="C3" s="271"/>
-      <c r="D3" s="204" t="str">
+      <c r="A3" s="283"/>
+      <c r="B3" s="284"/>
+      <c r="C3" s="284"/>
+      <c r="D3" s="231" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="E3" s="205"/>
+      <c r="E3" s="232"/>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -26083,18 +26035,18 @@
       </c>
     </row>
     <row r="11" spans="1:12" s="4" customFormat="1" outlineLevel="2">
-      <c r="A11" s="303"/>
-      <c r="B11" s="311"/>
-      <c r="C11" s="311"/>
-      <c r="D11" s="311"/>
-      <c r="E11" s="311"/>
+      <c r="A11" s="195"/>
+      <c r="B11" s="203"/>
+      <c r="C11" s="203"/>
+      <c r="D11" s="203"/>
+      <c r="E11" s="203"/>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1" outlineLevel="2">
-      <c r="A12" s="311"/>
-      <c r="B12" s="311"/>
-      <c r="C12" s="311"/>
-      <c r="D12" s="311"/>
-      <c r="E12" s="311"/>
+      <c r="A12" s="203"/>
+      <c r="B12" s="203"/>
+      <c r="C12" s="203"/>
+      <c r="D12" s="203"/>
+      <c r="E12" s="203"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -26104,17 +26056,17 @@
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" outlineLevel="2">
-      <c r="A13" s="311"/>
-      <c r="B13" s="311"/>
-      <c r="C13" s="311"/>
-      <c r="D13" s="311"/>
-      <c r="E13" s="311"/>
+      <c r="A13" s="203"/>
+      <c r="B13" s="203"/>
+      <c r="C13" s="203"/>
+      <c r="D13" s="203"/>
+      <c r="E13" s="203"/>
     </row>
     <row r="14" spans="1:12" outlineLevel="2">
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="C15" s="311"/>
+      <c r="C15" s="203"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -26161,49 +26113,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="239" t="str">
+      <c r="A1" s="294" t="str">
         <f>"Risques / opportunités au "&amp;TEXT(F2,"jj/MM/AAAA")</f>
         <v>Risques / opportunités au 25/09/Freitag</v>
       </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="230" t="str">
+      <c r="B1" s="295"/>
+      <c r="C1" s="295"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="295"/>
+      <c r="F1" s="285" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="G1" s="231"/>
-      <c r="H1" s="231"/>
-      <c r="I1" s="232"/>
+      <c r="G1" s="286"/>
+      <c r="H1" s="286"/>
+      <c r="I1" s="287"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A2" s="241"/>
-      <c r="B2" s="242"/>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="233">
+      <c r="A2" s="296"/>
+      <c r="B2" s="297"/>
+      <c r="C2" s="297"/>
+      <c r="D2" s="297"/>
+      <c r="E2" s="297"/>
+      <c r="F2" s="288">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="G2" s="234"/>
-      <c r="H2" s="234"/>
-      <c r="I2" s="235"/>
+      <c r="G2" s="289"/>
+      <c r="H2" s="289"/>
+      <c r="I2" s="290"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A3" s="243"/>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="236" t="str">
+      <c r="A3" s="298"/>
+      <c r="B3" s="299"/>
+      <c r="C3" s="299"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="299"/>
+      <c r="F3" s="291" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="G3" s="237"/>
-      <c r="H3" s="237"/>
-      <c r="I3" s="238"/>
+      <c r="G3" s="292"/>
+      <c r="H3" s="292"/>
+      <c r="I3" s="293"/>
     </row>
     <row r="4" spans="1:9">
       <c r="F4" s="31"/>
@@ -26504,7 +26456,7 @@
   </sheetPr>
   <dimension ref="A1:AM209"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B14" zoomScale="76" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B17" zoomScale="76" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
@@ -26525,68 +26477,68 @@
     <col min="14" max="14" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22.6640625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="25.21875" style="288" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.21875" style="181" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39">
       <c r="A1" s="16"/>
-      <c r="B1" s="266" t="str">
+      <c r="B1" s="279" t="str">
         <f>"PLANNING COURANT  au "&amp;TEXT(K2,"jj/mm/aaaa")</f>
         <v>PLANNING COURANT  au 25/00/Freitag</v>
       </c>
-      <c r="C1" s="275"/>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
-      <c r="I1" s="267"/>
-      <c r="J1" s="276"/>
-      <c r="K1" s="222" t="str">
+      <c r="C1" s="303"/>
+      <c r="D1" s="280"/>
+      <c r="E1" s="280"/>
+      <c r="F1" s="280"/>
+      <c r="G1" s="280"/>
+      <c r="H1" s="280"/>
+      <c r="I1" s="280"/>
+      <c r="J1" s="304"/>
+      <c r="K1" s="249" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="L1" s="217"/>
-      <c r="M1" s="223"/>
+      <c r="L1" s="244"/>
+      <c r="M1" s="250"/>
     </row>
     <row r="2" spans="1:39" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B2" s="268"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="269"/>
-      <c r="H2" s="269"/>
-      <c r="I2" s="269"/>
-      <c r="J2" s="277"/>
-      <c r="K2" s="211">
+      <c r="B2" s="281"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
+      <c r="G2" s="282"/>
+      <c r="H2" s="282"/>
+      <c r="I2" s="282"/>
+      <c r="J2" s="305"/>
+      <c r="K2" s="238">
         <f>'1a-Identification Projet'!$L$2</f>
         <v>45912</v>
       </c>
-      <c r="L2" s="212"/>
-      <c r="M2" s="213"/>
+      <c r="L2" s="239"/>
+      <c r="M2" s="240"/>
       <c r="N2" s="3"/>
-      <c r="Q2" s="289"/>
+      <c r="Q2" s="182"/>
     </row>
     <row r="3" spans="1:39" s="16" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B3" s="270"/>
-      <c r="C3" s="271"/>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="271"/>
-      <c r="G3" s="271"/>
-      <c r="H3" s="271"/>
-      <c r="I3" s="271"/>
-      <c r="J3" s="278"/>
-      <c r="K3" s="214" t="str">
+      <c r="B3" s="283"/>
+      <c r="C3" s="284"/>
+      <c r="D3" s="284"/>
+      <c r="E3" s="284"/>
+      <c r="F3" s="284"/>
+      <c r="G3" s="284"/>
+      <c r="H3" s="284"/>
+      <c r="I3" s="284"/>
+      <c r="J3" s="306"/>
+      <c r="K3" s="241" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
       </c>
-      <c r="L3" s="215"/>
-      <c r="M3" s="216"/>
+      <c r="L3" s="242"/>
+      <c r="M3" s="243"/>
       <c r="N3" s="3"/>
-      <c r="Q3" s="289"/>
+      <c r="Q3" s="182"/>
     </row>
     <row r="4" spans="1:39" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4"/>
@@ -26605,7 +26557,7 @@
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
-      <c r="Q4" s="290"/>
+      <c r="Q4" s="183"/>
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
@@ -26646,7 +26598,7 @@
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
-      <c r="Q5" s="290"/>
+      <c r="Q5" s="183"/>
       <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
@@ -26706,25 +26658,25 @@
     </row>
     <row r="7" spans="1:39" ht="24.6">
       <c r="A7"/>
-      <c r="C7" s="279" t="s">
+      <c r="C7" s="307" t="s">
         <v>266</v>
       </c>
-      <c r="D7" s="280"/>
-      <c r="E7" s="280"/>
-      <c r="F7" s="280"/>
-      <c r="G7" s="280"/>
-      <c r="H7" s="280"/>
-      <c r="I7" s="281"/>
+      <c r="D7" s="308"/>
+      <c r="E7" s="308"/>
+      <c r="F7" s="308"/>
+      <c r="G7" s="308"/>
+      <c r="H7" s="308"/>
+      <c r="I7" s="309"/>
       <c r="J7"/>
-      <c r="K7" s="279" t="s">
+      <c r="K7" s="307" t="s">
         <v>95</v>
       </c>
-      <c r="L7" s="280"/>
-      <c r="M7" s="280"/>
-      <c r="N7" s="280"/>
-      <c r="O7" s="280"/>
-      <c r="P7" s="280"/>
-      <c r="Q7" s="281"/>
+      <c r="L7" s="308"/>
+      <c r="M7" s="308"/>
+      <c r="N7" s="308"/>
+      <c r="O7" s="308"/>
+      <c r="P7" s="308"/>
+      <c r="Q7" s="309"/>
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
@@ -26789,7 +26741,7 @@
       <c r="P8" s="152" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="291" t="s">
+      <c r="Q8" s="184" t="s">
         <v>300</v>
       </c>
       <c r="R8"/>
@@ -26845,8 +26797,8 @@
       </c>
       <c r="N9" s="155"/>
       <c r="O9" s="156"/>
-      <c r="P9" s="286"/>
-      <c r="Q9" s="292">
+      <c r="P9" s="179"/>
+      <c r="Q9" s="185">
         <f>SUM(Q10,Q13,Q22,Q29)</f>
         <v>16.899999999999999</v>
       </c>
@@ -26904,7 +26856,7 @@
       <c r="N10" s="159"/>
       <c r="O10" s="160"/>
       <c r="P10" s="160"/>
-      <c r="Q10" s="293">
+      <c r="Q10" s="186">
         <v>4</v>
       </c>
       <c r="R10"/>
@@ -26971,7 +26923,7 @@
       <c r="P11" s="162" t="s">
         <v>204</v>
       </c>
-      <c r="Q11" s="287" t="s">
+      <c r="Q11" s="180" t="s">
         <v>273</v>
       </c>
       <c r="R11"/>
@@ -27038,7 +26990,7 @@
       <c r="P12" s="162" t="s">
         <v>207</v>
       </c>
-      <c r="Q12" s="287" t="s">
+      <c r="Q12" s="180" t="s">
         <v>273</v>
       </c>
       <c r="R12"/>
@@ -27097,7 +27049,7 @@
       </c>
       <c r="O13" s="167"/>
       <c r="P13" s="168"/>
-      <c r="Q13" s="294">
+      <c r="Q13" s="187">
         <f>SUM(Q14:Q21)</f>
         <v>6.7</v>
       </c>
@@ -27163,7 +27115,7 @@
       <c r="P14" s="162" t="s">
         <v>212</v>
       </c>
-      <c r="Q14" s="287">
+      <c r="Q14" s="180">
         <v>2</v>
       </c>
       <c r="R14"/>
@@ -27230,7 +27182,7 @@
       <c r="P15" s="162" t="s">
         <v>212</v>
       </c>
-      <c r="Q15" s="287">
+      <c r="Q15" s="180">
         <v>1</v>
       </c>
       <c r="R15"/>
@@ -27297,7 +27249,7 @@
       <c r="P16" s="162" t="s">
         <v>212</v>
       </c>
-      <c r="Q16" s="287">
+      <c r="Q16" s="180">
         <v>1</v>
       </c>
       <c r="R16"/>
@@ -27364,7 +27316,7 @@
       <c r="P17" s="162" t="s">
         <v>274</v>
       </c>
-      <c r="Q17" s="287">
+      <c r="Q17" s="180">
         <v>0.6</v>
       </c>
       <c r="R17"/>
@@ -27431,7 +27383,7 @@
       <c r="P18" s="162" t="s">
         <v>275</v>
       </c>
-      <c r="Q18" s="287">
+      <c r="Q18" s="180">
         <v>0.4</v>
       </c>
       <c r="R18"/>
@@ -27498,7 +27450,7 @@
       <c r="P19" s="162" t="s">
         <v>223</v>
       </c>
-      <c r="Q19" s="287">
+      <c r="Q19" s="180">
         <v>0.4</v>
       </c>
       <c r="R19"/>
@@ -27565,7 +27517,7 @@
       <c r="P20" s="162" t="s">
         <v>212</v>
       </c>
-      <c r="Q20" s="287">
+      <c r="Q20" s="180">
         <v>0.5</v>
       </c>
       <c r="R20"/>
@@ -27616,7 +27568,7 @@
       <c r="P21" s="162" t="s">
         <v>275</v>
       </c>
-      <c r="Q21" s="287">
+      <c r="Q21" s="180">
         <v>0.8</v>
       </c>
       <c r="R21"/>
@@ -27675,7 +27627,7 @@
       </c>
       <c r="O22" s="167"/>
       <c r="P22" s="168"/>
-      <c r="Q22" s="294">
+      <c r="Q22" s="187">
         <f>SUM(Q23:Q28)</f>
         <v>6.2</v>
       </c>
@@ -27743,7 +27695,7 @@
       <c r="P23" s="162" t="s">
         <v>212</v>
       </c>
-      <c r="Q23" s="287">
+      <c r="Q23" s="180">
         <v>1</v>
       </c>
       <c r="R23"/>
@@ -27794,7 +27746,7 @@
       <c r="P24" s="162" t="s">
         <v>219</v>
       </c>
-      <c r="Q24" s="295">
+      <c r="Q24" s="188">
         <v>1</v>
       </c>
       <c r="R24"/>
@@ -27861,7 +27813,7 @@
       <c r="P25" s="162" t="s">
         <v>212</v>
       </c>
-      <c r="Q25" s="287">
+      <c r="Q25" s="180">
         <v>1.5</v>
       </c>
       <c r="R25"/>
@@ -27928,7 +27880,7 @@
       <c r="P26" s="162" t="s">
         <v>212</v>
       </c>
-      <c r="Q26" s="287">
+      <c r="Q26" s="180">
         <v>1.5</v>
       </c>
       <c r="R26"/>
@@ -27995,7 +27947,7 @@
       <c r="P27" s="162" t="s">
         <v>223</v>
       </c>
-      <c r="Q27" s="287">
+      <c r="Q27" s="180">
         <v>0.8</v>
       </c>
       <c r="R27"/>
@@ -28062,7 +28014,7 @@
       <c r="P28" s="162" t="s">
         <v>212</v>
       </c>
-      <c r="Q28" s="287">
+      <c r="Q28" s="180">
         <v>0.4</v>
       </c>
       <c r="R28"/>
@@ -28119,7 +28071,7 @@
       <c r="N29" s="166"/>
       <c r="O29" s="167"/>
       <c r="P29" s="168"/>
-      <c r="Q29" s="294">
+      <c r="Q29" s="187">
         <f>SUM(Q30:Q35)</f>
         <v>0</v>
       </c>
@@ -28175,7 +28127,7 @@
       <c r="N30" s="163"/>
       <c r="O30" s="161"/>
       <c r="P30" s="162"/>
-      <c r="Q30" s="287"/>
+      <c r="Q30" s="180"/>
       <c r="R30"/>
       <c r="S30"/>
       <c r="T30"/>
@@ -28201,34 +28153,34 @@
     </row>
     <row r="31" spans="1:39" ht="27" customHeight="1">
       <c r="A31"/>
-      <c r="C31" s="272">
+      <c r="C31" s="300">
         <v>21</v>
       </c>
-      <c r="D31" s="273" t="s">
+      <c r="D31" s="301" t="s">
         <v>243</v>
       </c>
-      <c r="E31" s="274">
+      <c r="E31" s="302">
         <v>46003</v>
       </c>
-      <c r="F31" s="274">
+      <c r="F31" s="302">
         <v>45943</v>
       </c>
       <c r="G31" s="161" t="s">
         <v>244</v>
       </c>
-      <c r="H31" s="273" t="s">
+      <c r="H31" s="301" t="s">
         <v>212</v>
       </c>
-      <c r="I31" s="272" t="s">
+      <c r="I31" s="300" t="s">
         <v>205</v>
       </c>
-      <c r="K31" s="272"/>
+      <c r="K31" s="300"/>
       <c r="L31" s="162"/>
       <c r="M31" s="163"/>
       <c r="N31" s="163"/>
       <c r="O31" s="161"/>
       <c r="P31" s="162"/>
-      <c r="Q31" s="287"/>
+      <c r="Q31" s="180"/>
       <c r="R31"/>
       <c r="S31"/>
       <c r="T31"/>
@@ -28254,22 +28206,22 @@
     </row>
     <row r="32" spans="1:39" ht="27" customHeight="1">
       <c r="A32"/>
-      <c r="C32" s="272"/>
-      <c r="D32" s="273"/>
-      <c r="E32" s="274"/>
-      <c r="F32" s="274"/>
+      <c r="C32" s="300"/>
+      <c r="D32" s="301"/>
+      <c r="E32" s="302"/>
+      <c r="F32" s="302"/>
       <c r="G32" s="161" t="s">
         <v>245</v>
       </c>
-      <c r="H32" s="273"/>
-      <c r="I32" s="272"/>
-      <c r="K32" s="272"/>
+      <c r="H32" s="301"/>
+      <c r="I32" s="300"/>
+      <c r="K32" s="300"/>
       <c r="L32" s="162"/>
       <c r="M32" s="163"/>
       <c r="N32" s="163"/>
       <c r="O32" s="161"/>
       <c r="P32" s="162"/>
-      <c r="Q32" s="287"/>
+      <c r="Q32" s="180"/>
       <c r="R32"/>
       <c r="S32"/>
       <c r="T32"/>
@@ -28322,7 +28274,7 @@
       <c r="N33" s="163"/>
       <c r="O33" s="161"/>
       <c r="P33" s="162"/>
-      <c r="Q33" s="287"/>
+      <c r="Q33" s="180"/>
       <c r="R33"/>
       <c r="S33"/>
       <c r="T33"/>
@@ -28375,7 +28327,7 @@
       <c r="N34" s="163"/>
       <c r="O34" s="161"/>
       <c r="P34" s="162"/>
-      <c r="Q34" s="287"/>
+      <c r="Q34" s="180"/>
       <c r="R34"/>
       <c r="S34"/>
       <c r="T34"/>
@@ -28428,7 +28380,7 @@
       <c r="N35" s="163"/>
       <c r="O35" s="161"/>
       <c r="P35" s="162"/>
-      <c r="Q35" s="287"/>
+      <c r="Q35" s="180"/>
       <c r="R35"/>
       <c r="S35"/>
       <c r="T35"/>
@@ -28819,7 +28771,7 @@
       <c r="N50"/>
       <c r="O50"/>
       <c r="P50"/>
-      <c r="Q50" s="290"/>
+      <c r="Q50" s="183"/>
       <c r="R50"/>
       <c r="S50"/>
       <c r="T50"/>
@@ -28860,7 +28812,7 @@
       <c r="N51"/>
       <c r="O51"/>
       <c r="P51"/>
-      <c r="Q51" s="290"/>
+      <c r="Q51" s="183"/>
       <c r="R51"/>
       <c r="S51"/>
       <c r="T51"/>
@@ -28901,7 +28853,7 @@
       <c r="N52"/>
       <c r="O52"/>
       <c r="P52"/>
-      <c r="Q52" s="290"/>
+      <c r="Q52" s="183"/>
       <c r="R52"/>
       <c r="S52"/>
       <c r="T52"/>
@@ -28942,7 +28894,7 @@
       <c r="N53"/>
       <c r="O53"/>
       <c r="P53"/>
-      <c r="Q53" s="290"/>
+      <c r="Q53" s="183"/>
       <c r="R53"/>
       <c r="S53"/>
       <c r="T53"/>
@@ -28983,7 +28935,7 @@
       <c r="N54"/>
       <c r="O54"/>
       <c r="P54"/>
-      <c r="Q54" s="290"/>
+      <c r="Q54" s="183"/>
       <c r="R54"/>
       <c r="S54"/>
       <c r="T54"/>
@@ -29024,7 +28976,7 @@
       <c r="N55"/>
       <c r="O55"/>
       <c r="P55"/>
-      <c r="Q55" s="290"/>
+      <c r="Q55" s="183"/>
       <c r="R55"/>
       <c r="S55"/>
       <c r="T55"/>
@@ -29065,7 +29017,7 @@
       <c r="N56"/>
       <c r="O56"/>
       <c r="P56"/>
-      <c r="Q56" s="290"/>
+      <c r="Q56" s="183"/>
       <c r="R56"/>
       <c r="S56"/>
       <c r="T56"/>
@@ -29106,7 +29058,7 @@
       <c r="N57"/>
       <c r="O57"/>
       <c r="P57"/>
-      <c r="Q57" s="290"/>
+      <c r="Q57" s="183"/>
       <c r="R57"/>
       <c r="S57"/>
       <c r="T57"/>
@@ -29147,7 +29099,7 @@
       <c r="N58"/>
       <c r="O58"/>
       <c r="P58"/>
-      <c r="Q58" s="290"/>
+      <c r="Q58" s="183"/>
       <c r="R58"/>
       <c r="S58"/>
       <c r="T58"/>
@@ -29188,7 +29140,7 @@
       <c r="N59"/>
       <c r="O59"/>
       <c r="P59"/>
-      <c r="Q59" s="290"/>
+      <c r="Q59" s="183"/>
       <c r="R59"/>
       <c r="S59"/>
       <c r="T59"/>
@@ -29229,7 +29181,7 @@
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60"/>
-      <c r="Q60" s="290"/>
+      <c r="Q60" s="183"/>
       <c r="R60"/>
       <c r="S60"/>
       <c r="T60"/>
@@ -29270,7 +29222,7 @@
       <c r="N61"/>
       <c r="O61"/>
       <c r="P61"/>
-      <c r="Q61" s="290"/>
+      <c r="Q61" s="183"/>
       <c r="R61"/>
       <c r="S61"/>
       <c r="T61"/>
@@ -29311,7 +29263,7 @@
       <c r="N62"/>
       <c r="O62"/>
       <c r="P62"/>
-      <c r="Q62" s="290"/>
+      <c r="Q62" s="183"/>
       <c r="R62"/>
       <c r="S62"/>
       <c r="T62"/>
@@ -29352,7 +29304,7 @@
       <c r="N63"/>
       <c r="O63"/>
       <c r="P63"/>
-      <c r="Q63" s="290"/>
+      <c r="Q63" s="183"/>
       <c r="R63"/>
       <c r="S63"/>
       <c r="T63"/>
@@ -29393,7 +29345,7 @@
       <c r="N64"/>
       <c r="O64"/>
       <c r="P64"/>
-      <c r="Q64" s="290"/>
+      <c r="Q64" s="183"/>
       <c r="R64"/>
       <c r="S64"/>
       <c r="T64"/>
@@ -29434,7 +29386,7 @@
       <c r="N65"/>
       <c r="O65"/>
       <c r="P65"/>
-      <c r="Q65" s="290"/>
+      <c r="Q65" s="183"/>
       <c r="R65"/>
       <c r="S65"/>
       <c r="T65"/>
@@ -29475,7 +29427,7 @@
       <c r="N66"/>
       <c r="O66"/>
       <c r="P66"/>
-      <c r="Q66" s="290"/>
+      <c r="Q66" s="183"/>
       <c r="R66"/>
       <c r="S66"/>
       <c r="T66"/>
@@ -29516,7 +29468,7 @@
       <c r="N67"/>
       <c r="O67"/>
       <c r="P67"/>
-      <c r="Q67" s="290"/>
+      <c r="Q67" s="183"/>
       <c r="R67"/>
       <c r="S67"/>
       <c r="T67"/>
@@ -29557,7 +29509,7 @@
       <c r="N68"/>
       <c r="O68"/>
       <c r="P68"/>
-      <c r="Q68" s="290"/>
+      <c r="Q68" s="183"/>
       <c r="R68"/>
       <c r="S68"/>
       <c r="T68"/>
@@ -29598,7 +29550,7 @@
       <c r="N69"/>
       <c r="O69"/>
       <c r="P69"/>
-      <c r="Q69" s="290"/>
+      <c r="Q69" s="183"/>
       <c r="R69"/>
       <c r="S69"/>
       <c r="T69"/>
@@ -29639,7 +29591,7 @@
       <c r="N70"/>
       <c r="O70"/>
       <c r="P70"/>
-      <c r="Q70" s="290"/>
+      <c r="Q70" s="183"/>
       <c r="R70"/>
       <c r="S70"/>
       <c r="T70"/>
@@ -29680,7 +29632,7 @@
       <c r="N71"/>
       <c r="O71"/>
       <c r="P71"/>
-      <c r="Q71" s="290"/>
+      <c r="Q71" s="183"/>
       <c r="R71"/>
       <c r="S71"/>
       <c r="T71"/>
@@ -29721,7 +29673,7 @@
       <c r="N72"/>
       <c r="O72"/>
       <c r="P72"/>
-      <c r="Q72" s="290"/>
+      <c r="Q72" s="183"/>
       <c r="R72"/>
       <c r="S72"/>
       <c r="T72"/>
@@ -29762,7 +29714,7 @@
       <c r="N73"/>
       <c r="O73"/>
       <c r="P73"/>
-      <c r="Q73" s="290"/>
+      <c r="Q73" s="183"/>
       <c r="R73"/>
       <c r="S73"/>
       <c r="T73"/>
@@ -29803,7 +29755,7 @@
       <c r="N74"/>
       <c r="O74"/>
       <c r="P74"/>
-      <c r="Q74" s="290"/>
+      <c r="Q74" s="183"/>
       <c r="R74"/>
       <c r="S74"/>
       <c r="T74"/>
@@ -29844,7 +29796,7 @@
       <c r="N75"/>
       <c r="O75"/>
       <c r="P75"/>
-      <c r="Q75" s="290"/>
+      <c r="Q75" s="183"/>
       <c r="R75"/>
       <c r="S75"/>
       <c r="T75"/>
@@ -29885,7 +29837,7 @@
       <c r="N76"/>
       <c r="O76"/>
       <c r="P76"/>
-      <c r="Q76" s="290"/>
+      <c r="Q76" s="183"/>
       <c r="R76"/>
       <c r="S76"/>
       <c r="T76"/>
@@ -29926,7 +29878,7 @@
       <c r="N77"/>
       <c r="O77"/>
       <c r="P77"/>
-      <c r="Q77" s="290"/>
+      <c r="Q77" s="183"/>
       <c r="R77"/>
       <c r="S77"/>
       <c r="T77"/>
@@ -29967,7 +29919,7 @@
       <c r="N78"/>
       <c r="O78"/>
       <c r="P78"/>
-      <c r="Q78" s="290"/>
+      <c r="Q78" s="183"/>
       <c r="R78"/>
       <c r="S78"/>
       <c r="T78"/>
@@ -30008,7 +29960,7 @@
       <c r="N79"/>
       <c r="O79"/>
       <c r="P79"/>
-      <c r="Q79" s="290"/>
+      <c r="Q79" s="183"/>
       <c r="R79"/>
       <c r="S79"/>
       <c r="T79"/>
@@ -30049,7 +30001,7 @@
       <c r="N80"/>
       <c r="O80"/>
       <c r="P80"/>
-      <c r="Q80" s="290"/>
+      <c r="Q80" s="183"/>
       <c r="R80"/>
       <c r="S80"/>
       <c r="T80"/>
@@ -30090,7 +30042,7 @@
       <c r="N81"/>
       <c r="O81"/>
       <c r="P81"/>
-      <c r="Q81" s="290"/>
+      <c r="Q81" s="183"/>
       <c r="R81"/>
       <c r="S81"/>
       <c r="T81"/>
@@ -30131,7 +30083,7 @@
       <c r="N82"/>
       <c r="O82"/>
       <c r="P82"/>
-      <c r="Q82" s="290"/>
+      <c r="Q82" s="183"/>
       <c r="R82"/>
       <c r="S82"/>
       <c r="T82"/>
@@ -30172,7 +30124,7 @@
       <c r="N83"/>
       <c r="O83"/>
       <c r="P83"/>
-      <c r="Q83" s="290"/>
+      <c r="Q83" s="183"/>
       <c r="R83"/>
       <c r="S83"/>
       <c r="T83"/>
@@ -30213,7 +30165,7 @@
       <c r="N84"/>
       <c r="O84"/>
       <c r="P84"/>
-      <c r="Q84" s="290"/>
+      <c r="Q84" s="183"/>
       <c r="R84"/>
       <c r="S84"/>
       <c r="T84"/>
@@ -30254,7 +30206,7 @@
       <c r="N85"/>
       <c r="O85"/>
       <c r="P85"/>
-      <c r="Q85" s="290"/>
+      <c r="Q85" s="183"/>
       <c r="R85"/>
       <c r="S85"/>
       <c r="T85"/>
@@ -30295,7 +30247,7 @@
       <c r="N86"/>
       <c r="O86"/>
       <c r="P86"/>
-      <c r="Q86" s="290"/>
+      <c r="Q86" s="183"/>
       <c r="R86"/>
       <c r="S86"/>
       <c r="T86"/>
@@ -30336,7 +30288,7 @@
       <c r="N87"/>
       <c r="O87"/>
       <c r="P87"/>
-      <c r="Q87" s="290"/>
+      <c r="Q87" s="183"/>
       <c r="R87"/>
       <c r="S87"/>
       <c r="T87"/>
@@ -30377,7 +30329,7 @@
       <c r="N88"/>
       <c r="O88"/>
       <c r="P88"/>
-      <c r="Q88" s="290"/>
+      <c r="Q88" s="183"/>
       <c r="R88"/>
       <c r="S88"/>
       <c r="T88"/>
@@ -30418,7 +30370,7 @@
       <c r="N89"/>
       <c r="O89"/>
       <c r="P89"/>
-      <c r="Q89" s="290"/>
+      <c r="Q89" s="183"/>
       <c r="R89"/>
       <c r="S89"/>
       <c r="T89"/>
@@ -30459,7 +30411,7 @@
       <c r="N90"/>
       <c r="O90"/>
       <c r="P90"/>
-      <c r="Q90" s="290"/>
+      <c r="Q90" s="183"/>
       <c r="R90"/>
       <c r="S90"/>
       <c r="T90"/>
@@ -30500,7 +30452,7 @@
       <c r="N91"/>
       <c r="O91"/>
       <c r="P91"/>
-      <c r="Q91" s="290"/>
+      <c r="Q91" s="183"/>
       <c r="R91"/>
       <c r="S91"/>
       <c r="T91"/>
@@ -30541,7 +30493,7 @@
       <c r="N92"/>
       <c r="O92"/>
       <c r="P92"/>
-      <c r="Q92" s="290"/>
+      <c r="Q92" s="183"/>
       <c r="R92"/>
       <c r="S92"/>
       <c r="T92"/>
@@ -30582,7 +30534,7 @@
       <c r="N93"/>
       <c r="O93"/>
       <c r="P93"/>
-      <c r="Q93" s="290"/>
+      <c r="Q93" s="183"/>
       <c r="R93"/>
       <c r="S93"/>
       <c r="T93"/>
@@ -30623,7 +30575,7 @@
       <c r="N94"/>
       <c r="O94"/>
       <c r="P94"/>
-      <c r="Q94" s="290"/>
+      <c r="Q94" s="183"/>
       <c r="R94"/>
       <c r="S94"/>
       <c r="T94"/>
@@ -30664,7 +30616,7 @@
       <c r="N95"/>
       <c r="O95"/>
       <c r="P95"/>
-      <c r="Q95" s="290"/>
+      <c r="Q95" s="183"/>
       <c r="R95"/>
       <c r="S95"/>
       <c r="T95"/>
@@ -30705,7 +30657,7 @@
       <c r="N96"/>
       <c r="O96"/>
       <c r="P96"/>
-      <c r="Q96" s="290"/>
+      <c r="Q96" s="183"/>
       <c r="R96"/>
       <c r="S96"/>
       <c r="T96"/>
@@ -30746,7 +30698,7 @@
       <c r="N97"/>
       <c r="O97"/>
       <c r="P97"/>
-      <c r="Q97" s="290"/>
+      <c r="Q97" s="183"/>
       <c r="R97"/>
       <c r="S97"/>
       <c r="T97"/>
@@ -30787,7 +30739,7 @@
       <c r="N98"/>
       <c r="O98"/>
       <c r="P98"/>
-      <c r="Q98" s="290"/>
+      <c r="Q98" s="183"/>
       <c r="R98"/>
       <c r="S98"/>
       <c r="T98"/>
@@ -30828,7 +30780,7 @@
       <c r="N99"/>
       <c r="O99"/>
       <c r="P99"/>
-      <c r="Q99" s="290"/>
+      <c r="Q99" s="183"/>
       <c r="R99"/>
       <c r="S99"/>
       <c r="T99"/>
@@ -30869,7 +30821,7 @@
       <c r="N100"/>
       <c r="O100"/>
       <c r="P100"/>
-      <c r="Q100" s="290"/>
+      <c r="Q100" s="183"/>
       <c r="R100"/>
       <c r="S100"/>
       <c r="T100"/>
@@ -30910,7 +30862,7 @@
       <c r="N101"/>
       <c r="O101"/>
       <c r="P101"/>
-      <c r="Q101" s="290"/>
+      <c r="Q101" s="183"/>
       <c r="R101"/>
       <c r="S101"/>
       <c r="T101"/>
@@ -30951,7 +30903,7 @@
       <c r="N102"/>
       <c r="O102"/>
       <c r="P102"/>
-      <c r="Q102" s="290"/>
+      <c r="Q102" s="183"/>
       <c r="R102"/>
       <c r="S102"/>
       <c r="T102"/>
@@ -30992,7 +30944,7 @@
       <c r="N103"/>
       <c r="O103"/>
       <c r="P103"/>
-      <c r="Q103" s="290"/>
+      <c r="Q103" s="183"/>
       <c r="R103"/>
       <c r="S103"/>
       <c r="T103"/>
@@ -31033,7 +30985,7 @@
       <c r="N104"/>
       <c r="O104"/>
       <c r="P104"/>
-      <c r="Q104" s="290"/>
+      <c r="Q104" s="183"/>
       <c r="R104"/>
       <c r="S104"/>
       <c r="T104"/>
@@ -31074,7 +31026,7 @@
       <c r="N105"/>
       <c r="O105"/>
       <c r="P105"/>
-      <c r="Q105" s="290"/>
+      <c r="Q105" s="183"/>
       <c r="R105"/>
       <c r="S105"/>
       <c r="T105"/>
@@ -31115,7 +31067,7 @@
       <c r="N106"/>
       <c r="O106"/>
       <c r="P106"/>
-      <c r="Q106" s="290"/>
+      <c r="Q106" s="183"/>
       <c r="R106"/>
       <c r="S106"/>
       <c r="T106"/>
@@ -31156,7 +31108,7 @@
       <c r="N107"/>
       <c r="O107"/>
       <c r="P107"/>
-      <c r="Q107" s="290"/>
+      <c r="Q107" s="183"/>
       <c r="R107"/>
       <c r="S107"/>
       <c r="T107"/>
@@ -31197,7 +31149,7 @@
       <c r="N108"/>
       <c r="O108"/>
       <c r="P108"/>
-      <c r="Q108" s="290"/>
+      <c r="Q108" s="183"/>
       <c r="R108"/>
       <c r="S108"/>
       <c r="T108"/>
@@ -31238,7 +31190,7 @@
       <c r="N109"/>
       <c r="O109"/>
       <c r="P109"/>
-      <c r="Q109" s="290"/>
+      <c r="Q109" s="183"/>
       <c r="R109"/>
       <c r="S109"/>
       <c r="T109"/>
@@ -31279,7 +31231,7 @@
       <c r="N110"/>
       <c r="O110"/>
       <c r="P110"/>
-      <c r="Q110" s="290"/>
+      <c r="Q110" s="183"/>
       <c r="R110"/>
       <c r="S110"/>
       <c r="T110"/>
@@ -31320,7 +31272,7 @@
       <c r="N111"/>
       <c r="O111"/>
       <c r="P111"/>
-      <c r="Q111" s="290"/>
+      <c r="Q111" s="183"/>
       <c r="R111"/>
       <c r="S111"/>
       <c r="T111"/>
@@ -31361,7 +31313,7 @@
       <c r="N112"/>
       <c r="O112"/>
       <c r="P112"/>
-      <c r="Q112" s="290"/>
+      <c r="Q112" s="183"/>
       <c r="R112"/>
       <c r="S112"/>
       <c r="T112"/>
@@ -31402,7 +31354,7 @@
       <c r="N113"/>
       <c r="O113"/>
       <c r="P113"/>
-      <c r="Q113" s="290"/>
+      <c r="Q113" s="183"/>
       <c r="R113"/>
       <c r="S113"/>
       <c r="T113"/>
@@ -31443,7 +31395,7 @@
       <c r="N114"/>
       <c r="O114"/>
       <c r="P114"/>
-      <c r="Q114" s="290"/>
+      <c r="Q114" s="183"/>
       <c r="R114"/>
       <c r="S114"/>
       <c r="T114"/>
@@ -31484,7 +31436,7 @@
       <c r="N115"/>
       <c r="O115"/>
       <c r="P115"/>
-      <c r="Q115" s="290"/>
+      <c r="Q115" s="183"/>
       <c r="R115"/>
       <c r="S115"/>
       <c r="T115"/>
@@ -31525,7 +31477,7 @@
       <c r="N116"/>
       <c r="O116"/>
       <c r="P116"/>
-      <c r="Q116" s="290"/>
+      <c r="Q116" s="183"/>
       <c r="R116"/>
       <c r="S116"/>
       <c r="T116"/>
@@ -31566,7 +31518,7 @@
       <c r="N117"/>
       <c r="O117"/>
       <c r="P117"/>
-      <c r="Q117" s="290"/>
+      <c r="Q117" s="183"/>
       <c r="R117"/>
       <c r="S117"/>
       <c r="T117"/>
@@ -31607,7 +31559,7 @@
       <c r="N118"/>
       <c r="O118"/>
       <c r="P118"/>
-      <c r="Q118" s="290"/>
+      <c r="Q118" s="183"/>
       <c r="R118"/>
       <c r="S118"/>
       <c r="T118"/>
@@ -31648,7 +31600,7 @@
       <c r="N119"/>
       <c r="O119"/>
       <c r="P119"/>
-      <c r="Q119" s="290"/>
+      <c r="Q119" s="183"/>
       <c r="R119"/>
       <c r="S119"/>
       <c r="T119"/>
@@ -31689,7 +31641,7 @@
       <c r="N120"/>
       <c r="O120"/>
       <c r="P120"/>
-      <c r="Q120" s="290"/>
+      <c r="Q120" s="183"/>
       <c r="R120"/>
       <c r="S120"/>
       <c r="T120"/>
@@ -31730,7 +31682,7 @@
       <c r="N121"/>
       <c r="O121"/>
       <c r="P121"/>
-      <c r="Q121" s="290"/>
+      <c r="Q121" s="183"/>
       <c r="R121"/>
       <c r="S121"/>
       <c r="T121"/>
@@ -31771,7 +31723,7 @@
       <c r="N122"/>
       <c r="O122"/>
       <c r="P122"/>
-      <c r="Q122" s="290"/>
+      <c r="Q122" s="183"/>
       <c r="R122"/>
       <c r="S122"/>
       <c r="T122"/>
@@ -31812,7 +31764,7 @@
       <c r="N123"/>
       <c r="O123"/>
       <c r="P123"/>
-      <c r="Q123" s="290"/>
+      <c r="Q123" s="183"/>
       <c r="R123"/>
       <c r="S123"/>
       <c r="T123"/>
@@ -31853,7 +31805,7 @@
       <c r="N124"/>
       <c r="O124"/>
       <c r="P124"/>
-      <c r="Q124" s="290"/>
+      <c r="Q124" s="183"/>
       <c r="R124"/>
       <c r="S124"/>
       <c r="T124"/>
@@ -31894,7 +31846,7 @@
       <c r="N125"/>
       <c r="O125"/>
       <c r="P125"/>
-      <c r="Q125" s="290"/>
+      <c r="Q125" s="183"/>
       <c r="R125"/>
       <c r="S125"/>
       <c r="T125"/>
@@ -31935,7 +31887,7 @@
       <c r="N126"/>
       <c r="O126"/>
       <c r="P126"/>
-      <c r="Q126" s="290"/>
+      <c r="Q126" s="183"/>
       <c r="R126"/>
       <c r="S126"/>
       <c r="T126"/>
@@ -31976,7 +31928,7 @@
       <c r="N127"/>
       <c r="O127"/>
       <c r="P127"/>
-      <c r="Q127" s="290"/>
+      <c r="Q127" s="183"/>
       <c r="R127"/>
       <c r="S127"/>
       <c r="T127"/>
@@ -32017,7 +31969,7 @@
       <c r="N128"/>
       <c r="O128"/>
       <c r="P128"/>
-      <c r="Q128" s="290"/>
+      <c r="Q128" s="183"/>
       <c r="R128"/>
       <c r="S128"/>
       <c r="T128"/>
@@ -32058,7 +32010,7 @@
       <c r="N129"/>
       <c r="O129"/>
       <c r="P129"/>
-      <c r="Q129" s="290"/>
+      <c r="Q129" s="183"/>
       <c r="R129"/>
       <c r="S129"/>
       <c r="T129"/>
@@ -32099,7 +32051,7 @@
       <c r="N130"/>
       <c r="O130"/>
       <c r="P130"/>
-      <c r="Q130" s="290"/>
+      <c r="Q130" s="183"/>
       <c r="R130"/>
       <c r="S130"/>
       <c r="T130"/>
@@ -32140,7 +32092,7 @@
       <c r="N131"/>
       <c r="O131"/>
       <c r="P131"/>
-      <c r="Q131" s="290"/>
+      <c r="Q131" s="183"/>
       <c r="R131"/>
       <c r="S131"/>
       <c r="T131"/>
@@ -32181,7 +32133,7 @@
       <c r="N132"/>
       <c r="O132"/>
       <c r="P132"/>
-      <c r="Q132" s="290"/>
+      <c r="Q132" s="183"/>
       <c r="R132"/>
       <c r="S132"/>
       <c r="T132"/>
@@ -32222,7 +32174,7 @@
       <c r="N133"/>
       <c r="O133"/>
       <c r="P133"/>
-      <c r="Q133" s="290"/>
+      <c r="Q133" s="183"/>
       <c r="R133"/>
       <c r="S133"/>
       <c r="T133"/>
@@ -32263,7 +32215,7 @@
       <c r="N134"/>
       <c r="O134"/>
       <c r="P134"/>
-      <c r="Q134" s="290"/>
+      <c r="Q134" s="183"/>
       <c r="R134"/>
       <c r="S134"/>
       <c r="T134"/>
@@ -32304,7 +32256,7 @@
       <c r="N135"/>
       <c r="O135"/>
       <c r="P135"/>
-      <c r="Q135" s="290"/>
+      <c r="Q135" s="183"/>
       <c r="R135"/>
       <c r="S135"/>
       <c r="T135"/>
@@ -32345,7 +32297,7 @@
       <c r="N136"/>
       <c r="O136"/>
       <c r="P136"/>
-      <c r="Q136" s="290"/>
+      <c r="Q136" s="183"/>
       <c r="R136"/>
       <c r="S136"/>
       <c r="T136"/>
@@ -32386,7 +32338,7 @@
       <c r="N137"/>
       <c r="O137"/>
       <c r="P137"/>
-      <c r="Q137" s="290"/>
+      <c r="Q137" s="183"/>
       <c r="R137"/>
       <c r="S137"/>
       <c r="T137"/>
@@ -32427,7 +32379,7 @@
       <c r="N138"/>
       <c r="O138"/>
       <c r="P138"/>
-      <c r="Q138" s="290"/>
+      <c r="Q138" s="183"/>
       <c r="R138"/>
       <c r="S138"/>
       <c r="T138"/>
@@ -32468,7 +32420,7 @@
       <c r="N139"/>
       <c r="O139"/>
       <c r="P139"/>
-      <c r="Q139" s="290"/>
+      <c r="Q139" s="183"/>
       <c r="R139"/>
       <c r="S139"/>
       <c r="T139"/>
@@ -32509,7 +32461,7 @@
       <c r="N140"/>
       <c r="O140"/>
       <c r="P140"/>
-      <c r="Q140" s="290"/>
+      <c r="Q140" s="183"/>
       <c r="R140"/>
       <c r="S140"/>
       <c r="T140"/>
@@ -32550,7 +32502,7 @@
       <c r="N141"/>
       <c r="O141"/>
       <c r="P141"/>
-      <c r="Q141" s="290"/>
+      <c r="Q141" s="183"/>
       <c r="R141"/>
       <c r="S141"/>
       <c r="T141"/>
@@ -32591,7 +32543,7 @@
       <c r="N142"/>
       <c r="O142"/>
       <c r="P142"/>
-      <c r="Q142" s="290"/>
+      <c r="Q142" s="183"/>
       <c r="R142"/>
       <c r="S142"/>
       <c r="T142"/>
@@ -32632,7 +32584,7 @@
       <c r="N143"/>
       <c r="O143"/>
       <c r="P143"/>
-      <c r="Q143" s="290"/>
+      <c r="Q143" s="183"/>
       <c r="R143"/>
       <c r="S143"/>
       <c r="T143"/>
@@ -32673,7 +32625,7 @@
       <c r="N144"/>
       <c r="O144"/>
       <c r="P144"/>
-      <c r="Q144" s="290"/>
+      <c r="Q144" s="183"/>
       <c r="R144"/>
       <c r="S144"/>
       <c r="T144"/>
@@ -32714,7 +32666,7 @@
       <c r="N145"/>
       <c r="O145"/>
       <c r="P145"/>
-      <c r="Q145" s="290"/>
+      <c r="Q145" s="183"/>
       <c r="R145"/>
       <c r="S145"/>
       <c r="T145"/>
@@ -32755,7 +32707,7 @@
       <c r="N146"/>
       <c r="O146"/>
       <c r="P146"/>
-      <c r="Q146" s="290"/>
+      <c r="Q146" s="183"/>
       <c r="R146"/>
       <c r="S146"/>
       <c r="T146"/>
@@ -32796,7 +32748,7 @@
       <c r="N147"/>
       <c r="O147"/>
       <c r="P147"/>
-      <c r="Q147" s="290"/>
+      <c r="Q147" s="183"/>
       <c r="R147"/>
       <c r="S147"/>
       <c r="T147"/>
@@ -32837,7 +32789,7 @@
       <c r="N148"/>
       <c r="O148"/>
       <c r="P148"/>
-      <c r="Q148" s="290"/>
+      <c r="Q148" s="183"/>
       <c r="R148"/>
       <c r="S148"/>
       <c r="T148"/>
@@ -32878,7 +32830,7 @@
       <c r="N149"/>
       <c r="O149"/>
       <c r="P149"/>
-      <c r="Q149" s="290"/>
+      <c r="Q149" s="183"/>
       <c r="R149"/>
       <c r="S149"/>
       <c r="T149"/>
@@ -32919,7 +32871,7 @@
       <c r="N150"/>
       <c r="O150"/>
       <c r="P150"/>
-      <c r="Q150" s="290"/>
+      <c r="Q150" s="183"/>
       <c r="R150"/>
       <c r="S150"/>
       <c r="T150"/>
@@ -32960,7 +32912,7 @@
       <c r="N151"/>
       <c r="O151"/>
       <c r="P151"/>
-      <c r="Q151" s="290"/>
+      <c r="Q151" s="183"/>
       <c r="R151"/>
       <c r="S151"/>
       <c r="T151"/>
@@ -33001,7 +32953,7 @@
       <c r="N152"/>
       <c r="O152"/>
       <c r="P152"/>
-      <c r="Q152" s="290"/>
+      <c r="Q152" s="183"/>
       <c r="R152"/>
       <c r="S152"/>
       <c r="T152"/>
@@ -33042,7 +32994,7 @@
       <c r="N153"/>
       <c r="O153"/>
       <c r="P153"/>
-      <c r="Q153" s="290"/>
+      <c r="Q153" s="183"/>
       <c r="R153"/>
       <c r="S153"/>
       <c r="T153"/>
@@ -33083,7 +33035,7 @@
       <c r="N154"/>
       <c r="O154"/>
       <c r="P154"/>
-      <c r="Q154" s="290"/>
+      <c r="Q154" s="183"/>
       <c r="R154"/>
       <c r="S154"/>
       <c r="T154"/>
@@ -33124,7 +33076,7 @@
       <c r="N155"/>
       <c r="O155"/>
       <c r="P155"/>
-      <c r="Q155" s="290"/>
+      <c r="Q155" s="183"/>
       <c r="R155"/>
       <c r="S155"/>
       <c r="T155"/>
@@ -33165,7 +33117,7 @@
       <c r="N156"/>
       <c r="O156"/>
       <c r="P156"/>
-      <c r="Q156" s="290"/>
+      <c r="Q156" s="183"/>
       <c r="R156"/>
       <c r="S156"/>
       <c r="T156"/>
@@ -33206,7 +33158,7 @@
       <c r="N157"/>
       <c r="O157"/>
       <c r="P157"/>
-      <c r="Q157" s="290"/>
+      <c r="Q157" s="183"/>
       <c r="R157"/>
       <c r="S157"/>
       <c r="T157"/>
@@ -33247,7 +33199,7 @@
       <c r="N158"/>
       <c r="O158"/>
       <c r="P158"/>
-      <c r="Q158" s="290"/>
+      <c r="Q158" s="183"/>
       <c r="R158"/>
       <c r="S158"/>
       <c r="T158"/>
@@ -33288,7 +33240,7 @@
       <c r="N159"/>
       <c r="O159"/>
       <c r="P159"/>
-      <c r="Q159" s="290"/>
+      <c r="Q159" s="183"/>
       <c r="R159"/>
       <c r="S159"/>
       <c r="T159"/>
@@ -33329,7 +33281,7 @@
       <c r="N160"/>
       <c r="O160"/>
       <c r="P160"/>
-      <c r="Q160" s="290"/>
+      <c r="Q160" s="183"/>
       <c r="R160"/>
       <c r="S160"/>
       <c r="T160"/>
@@ -33370,7 +33322,7 @@
       <c r="N161"/>
       <c r="O161"/>
       <c r="P161"/>
-      <c r="Q161" s="290"/>
+      <c r="Q161" s="183"/>
       <c r="R161"/>
       <c r="S161"/>
       <c r="T161"/>
@@ -33411,7 +33363,7 @@
       <c r="N162"/>
       <c r="O162"/>
       <c r="P162"/>
-      <c r="Q162" s="290"/>
+      <c r="Q162" s="183"/>
       <c r="R162"/>
       <c r="S162"/>
       <c r="T162"/>
@@ -33452,7 +33404,7 @@
       <c r="N163"/>
       <c r="O163"/>
       <c r="P163"/>
-      <c r="Q163" s="290"/>
+      <c r="Q163" s="183"/>
       <c r="R163"/>
       <c r="S163"/>
       <c r="T163"/>
@@ -33493,7 +33445,7 @@
       <c r="N164"/>
       <c r="O164"/>
       <c r="P164"/>
-      <c r="Q164" s="290"/>
+      <c r="Q164" s="183"/>
       <c r="R164"/>
       <c r="S164"/>
       <c r="T164"/>
@@ -33534,7 +33486,7 @@
       <c r="N165"/>
       <c r="O165"/>
       <c r="P165"/>
-      <c r="Q165" s="290"/>
+      <c r="Q165" s="183"/>
       <c r="R165"/>
       <c r="S165"/>
       <c r="T165"/>
@@ -33575,7 +33527,7 @@
       <c r="N166"/>
       <c r="O166"/>
       <c r="P166"/>
-      <c r="Q166" s="290"/>
+      <c r="Q166" s="183"/>
       <c r="R166"/>
       <c r="S166"/>
       <c r="T166"/>
@@ -33616,7 +33568,7 @@
       <c r="N167"/>
       <c r="O167"/>
       <c r="P167"/>
-      <c r="Q167" s="290"/>
+      <c r="Q167" s="183"/>
       <c r="R167"/>
       <c r="S167"/>
       <c r="T167"/>
@@ -33657,7 +33609,7 @@
       <c r="N168"/>
       <c r="O168"/>
       <c r="P168"/>
-      <c r="Q168" s="290"/>
+      <c r="Q168" s="183"/>
       <c r="R168"/>
       <c r="S168"/>
       <c r="T168"/>
@@ -33698,7 +33650,7 @@
       <c r="N169"/>
       <c r="O169"/>
       <c r="P169"/>
-      <c r="Q169" s="290"/>
+      <c r="Q169" s="183"/>
       <c r="R169"/>
       <c r="S169"/>
       <c r="T169"/>
@@ -33739,7 +33691,7 @@
       <c r="N170"/>
       <c r="O170"/>
       <c r="P170"/>
-      <c r="Q170" s="290"/>
+      <c r="Q170" s="183"/>
       <c r="R170"/>
       <c r="S170"/>
       <c r="T170"/>
@@ -33780,7 +33732,7 @@
       <c r="N171"/>
       <c r="O171"/>
       <c r="P171"/>
-      <c r="Q171" s="290"/>
+      <c r="Q171" s="183"/>
       <c r="R171"/>
       <c r="S171"/>
       <c r="T171"/>
@@ -33821,7 +33773,7 @@
       <c r="N172"/>
       <c r="O172"/>
       <c r="P172"/>
-      <c r="Q172" s="290"/>
+      <c r="Q172" s="183"/>
       <c r="R172"/>
       <c r="S172"/>
       <c r="T172"/>
@@ -33862,7 +33814,7 @@
       <c r="N173"/>
       <c r="O173"/>
       <c r="P173"/>
-      <c r="Q173" s="290"/>
+      <c r="Q173" s="183"/>
       <c r="R173"/>
       <c r="S173"/>
       <c r="T173"/>
@@ -33903,7 +33855,7 @@
       <c r="N174"/>
       <c r="O174"/>
       <c r="P174"/>
-      <c r="Q174" s="290"/>
+      <c r="Q174" s="183"/>
       <c r="R174"/>
       <c r="S174"/>
       <c r="T174"/>
@@ -33944,7 +33896,7 @@
       <c r="N175"/>
       <c r="O175"/>
       <c r="P175"/>
-      <c r="Q175" s="290"/>
+      <c r="Q175" s="183"/>
       <c r="R175"/>
       <c r="S175"/>
       <c r="T175"/>
@@ -33985,7 +33937,7 @@
       <c r="N176"/>
       <c r="O176"/>
       <c r="P176"/>
-      <c r="Q176" s="290"/>
+      <c r="Q176" s="183"/>
       <c r="R176"/>
       <c r="S176"/>
       <c r="T176"/>
@@ -34026,7 +33978,7 @@
       <c r="N177"/>
       <c r="O177"/>
       <c r="P177"/>
-      <c r="Q177" s="290"/>
+      <c r="Q177" s="183"/>
       <c r="R177"/>
       <c r="S177"/>
       <c r="T177"/>
@@ -34067,7 +34019,7 @@
       <c r="N178"/>
       <c r="O178"/>
       <c r="P178"/>
-      <c r="Q178" s="290"/>
+      <c r="Q178" s="183"/>
       <c r="R178"/>
       <c r="S178"/>
       <c r="T178"/>
@@ -34108,7 +34060,7 @@
       <c r="N179"/>
       <c r="O179"/>
       <c r="P179"/>
-      <c r="Q179" s="290"/>
+      <c r="Q179" s="183"/>
       <c r="R179"/>
       <c r="S179"/>
       <c r="T179"/>
@@ -34149,7 +34101,7 @@
       <c r="N180"/>
       <c r="O180"/>
       <c r="P180"/>
-      <c r="Q180" s="290"/>
+      <c r="Q180" s="183"/>
       <c r="R180"/>
       <c r="S180"/>
       <c r="T180"/>
@@ -34190,7 +34142,7 @@
       <c r="N181"/>
       <c r="O181"/>
       <c r="P181"/>
-      <c r="Q181" s="290"/>
+      <c r="Q181" s="183"/>
       <c r="R181"/>
       <c r="S181"/>
       <c r="T181"/>
@@ -34231,7 +34183,7 @@
       <c r="N182"/>
       <c r="O182"/>
       <c r="P182"/>
-      <c r="Q182" s="290"/>
+      <c r="Q182" s="183"/>
       <c r="R182"/>
       <c r="S182"/>
       <c r="T182"/>
@@ -34272,7 +34224,7 @@
       <c r="N183"/>
       <c r="O183"/>
       <c r="P183"/>
-      <c r="Q183" s="290"/>
+      <c r="Q183" s="183"/>
       <c r="R183"/>
       <c r="S183"/>
       <c r="T183"/>
@@ -34313,7 +34265,7 @@
       <c r="N184"/>
       <c r="O184"/>
       <c r="P184"/>
-      <c r="Q184" s="290"/>
+      <c r="Q184" s="183"/>
       <c r="R184"/>
       <c r="S184"/>
       <c r="T184"/>
@@ -34354,7 +34306,7 @@
       <c r="N185"/>
       <c r="O185"/>
       <c r="P185"/>
-      <c r="Q185" s="290"/>
+      <c r="Q185" s="183"/>
       <c r="R185"/>
       <c r="S185"/>
       <c r="T185"/>
@@ -34395,7 +34347,7 @@
       <c r="N186"/>
       <c r="O186"/>
       <c r="P186"/>
-      <c r="Q186" s="290"/>
+      <c r="Q186" s="183"/>
       <c r="R186"/>
       <c r="S186"/>
       <c r="T186"/>
@@ -34436,7 +34388,7 @@
       <c r="N187"/>
       <c r="O187"/>
       <c r="P187"/>
-      <c r="Q187" s="290"/>
+      <c r="Q187" s="183"/>
       <c r="R187"/>
       <c r="S187"/>
       <c r="T187"/>
@@ -34477,7 +34429,7 @@
       <c r="N188"/>
       <c r="O188"/>
       <c r="P188"/>
-      <c r="Q188" s="290"/>
+      <c r="Q188" s="183"/>
       <c r="R188"/>
       <c r="S188"/>
       <c r="T188"/>
@@ -34518,7 +34470,7 @@
       <c r="N189"/>
       <c r="O189"/>
       <c r="P189"/>
-      <c r="Q189" s="290"/>
+      <c r="Q189" s="183"/>
       <c r="R189"/>
       <c r="S189"/>
       <c r="T189"/>
@@ -34559,7 +34511,7 @@
       <c r="N190"/>
       <c r="O190"/>
       <c r="P190"/>
-      <c r="Q190" s="290"/>
+      <c r="Q190" s="183"/>
       <c r="R190"/>
       <c r="S190"/>
       <c r="T190"/>
@@ -34600,7 +34552,7 @@
       <c r="N191"/>
       <c r="O191"/>
       <c r="P191"/>
-      <c r="Q191" s="290"/>
+      <c r="Q191" s="183"/>
       <c r="R191"/>
       <c r="S191"/>
       <c r="T191"/>
@@ -34641,7 +34593,7 @@
       <c r="N192"/>
       <c r="O192"/>
       <c r="P192"/>
-      <c r="Q192" s="290"/>
+      <c r="Q192" s="183"/>
       <c r="R192"/>
       <c r="S192"/>
       <c r="T192"/>
@@ -34682,7 +34634,7 @@
       <c r="N193"/>
       <c r="O193"/>
       <c r="P193"/>
-      <c r="Q193" s="290"/>
+      <c r="Q193" s="183"/>
       <c r="R193"/>
       <c r="S193"/>
       <c r="T193"/>
@@ -34723,7 +34675,7 @@
       <c r="N194"/>
       <c r="O194"/>
       <c r="P194"/>
-      <c r="Q194" s="290"/>
+      <c r="Q194" s="183"/>
       <c r="R194"/>
       <c r="S194"/>
       <c r="T194"/>
@@ -34764,7 +34716,7 @@
       <c r="N195"/>
       <c r="O195"/>
       <c r="P195"/>
-      <c r="Q195" s="290"/>
+      <c r="Q195" s="183"/>
       <c r="R195"/>
       <c r="S195"/>
       <c r="T195"/>
@@ -34805,7 +34757,7 @@
       <c r="N196"/>
       <c r="O196"/>
       <c r="P196"/>
-      <c r="Q196" s="290"/>
+      <c r="Q196" s="183"/>
       <c r="R196"/>
       <c r="S196"/>
       <c r="T196"/>
@@ -34846,7 +34798,7 @@
       <c r="N197"/>
       <c r="O197"/>
       <c r="P197"/>
-      <c r="Q197" s="290"/>
+      <c r="Q197" s="183"/>
       <c r="R197"/>
       <c r="S197"/>
       <c r="T197"/>
@@ -34887,7 +34839,7 @@
       <c r="N198"/>
       <c r="O198"/>
       <c r="P198"/>
-      <c r="Q198" s="290"/>
+      <c r="Q198" s="183"/>
       <c r="R198"/>
       <c r="S198"/>
       <c r="T198"/>
@@ -34928,7 +34880,7 @@
       <c r="N199"/>
       <c r="O199"/>
       <c r="P199"/>
-      <c r="Q199" s="290"/>
+      <c r="Q199" s="183"/>
       <c r="R199"/>
       <c r="S199"/>
       <c r="T199"/>
@@ -34969,7 +34921,7 @@
       <c r="N200"/>
       <c r="O200"/>
       <c r="P200"/>
-      <c r="Q200" s="290"/>
+      <c r="Q200" s="183"/>
       <c r="R200"/>
       <c r="S200"/>
       <c r="T200"/>
@@ -35010,7 +34962,7 @@
       <c r="N201"/>
       <c r="O201"/>
       <c r="P201"/>
-      <c r="Q201" s="290"/>
+      <c r="Q201" s="183"/>
       <c r="R201"/>
       <c r="S201"/>
       <c r="T201"/>
@@ -35051,7 +35003,7 @@
       <c r="N202"/>
       <c r="O202"/>
       <c r="P202"/>
-      <c r="Q202" s="290"/>
+      <c r="Q202" s="183"/>
       <c r="R202"/>
       <c r="S202"/>
       <c r="T202"/>
@@ -35092,7 +35044,7 @@
       <c r="N203"/>
       <c r="O203"/>
       <c r="P203"/>
-      <c r="Q203" s="290"/>
+      <c r="Q203" s="183"/>
       <c r="R203"/>
       <c r="S203"/>
       <c r="T203"/>
@@ -35133,7 +35085,7 @@
       <c r="N204"/>
       <c r="O204"/>
       <c r="P204"/>
-      <c r="Q204" s="290"/>
+      <c r="Q204" s="183"/>
       <c r="R204"/>
       <c r="S204"/>
       <c r="T204"/>
@@ -35174,7 +35126,7 @@
       <c r="N205"/>
       <c r="O205"/>
       <c r="P205"/>
-      <c r="Q205" s="290"/>
+      <c r="Q205" s="183"/>
       <c r="R205"/>
       <c r="S205"/>
       <c r="T205"/>
@@ -35215,7 +35167,7 @@
       <c r="N206"/>
       <c r="O206"/>
       <c r="P206"/>
-      <c r="Q206" s="290"/>
+      <c r="Q206" s="183"/>
       <c r="R206"/>
       <c r="S206"/>
       <c r="T206"/>
@@ -35256,7 +35208,7 @@
       <c r="N207"/>
       <c r="O207"/>
       <c r="P207"/>
-      <c r="Q207" s="290"/>
+      <c r="Q207" s="183"/>
       <c r="R207"/>
       <c r="S207"/>
       <c r="T207"/>
@@ -35297,7 +35249,7 @@
       <c r="N208"/>
       <c r="O208"/>
       <c r="P208"/>
-      <c r="Q208" s="290"/>
+      <c r="Q208" s="183"/>
       <c r="R208"/>
       <c r="S208"/>
       <c r="T208"/>
@@ -35338,7 +35290,7 @@
       <c r="N209"/>
       <c r="O209"/>
       <c r="P209"/>
-      <c r="Q209" s="290"/>
+      <c r="Q209" s="183"/>
       <c r="R209"/>
       <c r="S209"/>
       <c r="T209"/>
@@ -35394,8 +35346,8 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
@@ -35413,46 +35365,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A1" s="266" t="str">
+      <c r="A1" s="279" t="str">
         <f>"BILAN au "&amp;TEXT(G2,"jj/mm/aaaa")</f>
         <v>BILAN au 25/00/Freitag</v>
       </c>
-      <c r="B1" s="267"/>
-      <c r="C1" s="267"/>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
-      <c r="G1" s="284" t="str">
+      <c r="B1" s="280"/>
+      <c r="C1" s="280"/>
+      <c r="D1" s="280"/>
+      <c r="E1" s="280"/>
+      <c r="F1" s="280"/>
+      <c r="G1" s="312" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="H1" s="285"/>
+      <c r="H1" s="313"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="268"/>
-      <c r="B2" s="269"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="202">
+      <c r="A2" s="281"/>
+      <c r="B2" s="282"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
+      <c r="G2" s="229">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="H2" s="203"/>
+      <c r="H2" s="230"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="270"/>
-      <c r="B3" s="271"/>
-      <c r="C3" s="271"/>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="271"/>
-      <c r="G3" s="204" t="str">
+      <c r="A3" s="283"/>
+      <c r="B3" s="284"/>
+      <c r="C3" s="284"/>
+      <c r="D3" s="284"/>
+      <c r="E3" s="284"/>
+      <c r="F3" s="284"/>
+      <c r="G3" s="231" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="H3" s="205"/>
+      <c r="H3" s="232"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="B4" s="26"/>
@@ -35466,24 +35418,26 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="282"/>
-      <c r="B7" s="283"/>
-      <c r="C7" s="283"/>
-      <c r="D7" s="283"/>
-      <c r="E7" s="283"/>
-      <c r="F7" s="283"/>
-      <c r="G7" s="283"/>
-      <c r="H7" s="283"/>
-    </row>
-    <row r="8" spans="1:8" ht="87" customHeight="1">
-      <c r="A8" s="282"/>
-      <c r="B8" s="283"/>
-      <c r="C8" s="283"/>
-      <c r="D8" s="283"/>
-      <c r="E8" s="283"/>
-      <c r="F8" s="283"/>
-      <c r="G8" s="283"/>
-      <c r="H8" s="283"/>
+      <c r="A7" s="310"/>
+      <c r="B7" s="311"/>
+      <c r="C7" s="311"/>
+      <c r="D7" s="311"/>
+      <c r="E7" s="311"/>
+      <c r="F7" s="311"/>
+      <c r="G7" s="311"/>
+      <c r="H7" s="311"/>
+    </row>
+    <row r="8" spans="1:8" ht="113.4" customHeight="1">
+      <c r="A8" s="317" t="s">
+        <v>342</v>
+      </c>
+      <c r="B8" s="317"/>
+      <c r="C8" s="317"/>
+      <c r="D8" s="317"/>
+      <c r="E8" s="317"/>
+      <c r="F8" s="317"/>
+      <c r="G8" s="317"/>
+      <c r="H8" s="317"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="76" t="s">
@@ -35491,24 +35445,26 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="282"/>
-      <c r="B10" s="283"/>
-      <c r="C10" s="283"/>
-      <c r="D10" s="283"/>
-      <c r="E10" s="283"/>
-      <c r="F10" s="283"/>
-      <c r="G10" s="283"/>
-      <c r="H10" s="283"/>
-    </row>
-    <row r="11" spans="1:8" ht="93.75" customHeight="1">
-      <c r="A11" s="282"/>
-      <c r="B11" s="283"/>
-      <c r="C11" s="283"/>
-      <c r="D11" s="283"/>
-      <c r="E11" s="283"/>
-      <c r="F11" s="283"/>
-      <c r="G11" s="283"/>
-      <c r="H11" s="283"/>
+      <c r="A10" s="310"/>
+      <c r="B10" s="311"/>
+      <c r="C10" s="311"/>
+      <c r="D10" s="311"/>
+      <c r="E10" s="311"/>
+      <c r="F10" s="311"/>
+      <c r="G10" s="311"/>
+      <c r="H10" s="311"/>
+    </row>
+    <row r="11" spans="1:8" ht="154.19999999999999" customHeight="1">
+      <c r="A11" s="316" t="s">
+        <v>343</v>
+      </c>
+      <c r="B11" s="316"/>
+      <c r="C11" s="316"/>
+      <c r="D11" s="316"/>
+      <c r="E11" s="316"/>
+      <c r="F11" s="316"/>
+      <c r="G11" s="316"/>
+      <c r="H11" s="316"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="76" t="s">
@@ -35516,24 +35472,26 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="282"/>
-      <c r="B13" s="283"/>
-      <c r="C13" s="283"/>
-      <c r="D13" s="283"/>
-      <c r="E13" s="283"/>
-      <c r="F13" s="283"/>
-      <c r="G13" s="283"/>
-      <c r="H13" s="283"/>
+      <c r="A13" s="310"/>
+      <c r="B13" s="311"/>
+      <c r="C13" s="311"/>
+      <c r="D13" s="311"/>
+      <c r="E13" s="311"/>
+      <c r="F13" s="311"/>
+      <c r="G13" s="311"/>
+      <c r="H13" s="311"/>
     </row>
     <row r="14" spans="1:8" ht="93.75" customHeight="1">
-      <c r="A14" s="282"/>
-      <c r="B14" s="283"/>
-      <c r="C14" s="283"/>
-      <c r="D14" s="283"/>
-      <c r="E14" s="283"/>
-      <c r="F14" s="283"/>
-      <c r="G14" s="283"/>
-      <c r="H14" s="283"/>
+      <c r="A14" s="314" t="s">
+        <v>344</v>
+      </c>
+      <c r="B14" s="315"/>
+      <c r="C14" s="315"/>
+      <c r="D14" s="315"/>
+      <c r="E14" s="315"/>
+      <c r="F14" s="315"/>
+      <c r="G14" s="315"/>
+      <c r="H14" s="315"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -35552,7 +35510,6 @@
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -35624,11 +35581,11 @@
       <c r="D1" s="109"/>
       <c r="E1" s="109"/>
       <c r="F1" s="109"/>
-      <c r="G1" s="200" t="str">
+      <c r="G1" s="227" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="H1" s="201"/>
+      <c r="H1" s="228"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1">
       <c r="A2" s="106"/>
@@ -35637,11 +35594,11 @@
       <c r="D2" s="110"/>
       <c r="E2" s="110"/>
       <c r="F2" s="110"/>
-      <c r="G2" s="202">
+      <c r="G2" s="229">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="H2" s="203"/>
+      <c r="H2" s="230"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
@@ -35650,11 +35607,11 @@
       <c r="D3" s="111"/>
       <c r="E3" s="111"/>
       <c r="F3" s="111"/>
-      <c r="G3" s="204" t="str">
+      <c r="G3" s="231" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="H3" s="205"/>
+      <c r="H3" s="232"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1">
       <c r="B4" s="26"/>
@@ -35684,16 +35641,16 @@
       <c r="H7" s="127"/>
     </row>
     <row r="8" spans="1:15" ht="96" customHeight="1">
-      <c r="A8" s="206" t="s">
+      <c r="A8" s="233" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="206"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="206"/>
-      <c r="E8" s="206"/>
-      <c r="F8" s="206"/>
-      <c r="G8" s="206"/>
-      <c r="H8" s="206"/>
+      <c r="B8" s="233"/>
+      <c r="C8" s="233"/>
+      <c r="D8" s="233"/>
+      <c r="E8" s="233"/>
+      <c r="F8" s="233"/>
+      <c r="G8" s="233"/>
+      <c r="H8" s="233"/>
     </row>
     <row r="9" spans="1:15" ht="13.8" thickBot="1">
       <c r="A9" s="76" t="s">
@@ -35750,10 +35707,10 @@
       <c r="F11" s="124" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="198" t="s">
+      <c r="G11" s="225" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="207"/>
+      <c r="H11" s="234"/>
     </row>
     <row r="12" spans="1:15" ht="41.4" outlineLevel="2">
       <c r="A12" s="122" t="s">
@@ -35774,10 +35731,10 @@
       <c r="F12" s="123" t="s">
         <v>109</v>
       </c>
-      <c r="G12" s="198" t="s">
+      <c r="G12" s="225" t="s">
         <v>110</v>
       </c>
-      <c r="H12" s="199"/>
+      <c r="H12" s="226"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -35803,10 +35760,10 @@
         <v>113</v>
       </c>
       <c r="F13" s="124"/>
-      <c r="G13" s="198" t="s">
+      <c r="G13" s="225" t="s">
         <v>114</v>
       </c>
-      <c r="H13" s="199"/>
+      <c r="H13" s="226"/>
     </row>
     <row r="14" spans="1:15" s="4" customFormat="1" ht="27.6" outlineLevel="2">
       <c r="A14" s="122" t="s">
@@ -35827,10 +35784,10 @@
       <c r="F14" s="124" t="s">
         <v>118</v>
       </c>
-      <c r="G14" s="198" t="s">
+      <c r="G14" s="225" t="s">
         <v>119</v>
       </c>
-      <c r="H14" s="199"/>
+      <c r="H14" s="226"/>
     </row>
     <row r="15" spans="1:15" s="4" customFormat="1" ht="41.4" outlineLevel="2">
       <c r="A15" s="122" t="s">
@@ -35851,10 +35808,10 @@
       <c r="F15" s="123" t="s">
         <v>123</v>
       </c>
-      <c r="G15" s="198" t="s">
+      <c r="G15" s="225" t="s">
         <v>124</v>
       </c>
-      <c r="H15" s="199"/>
+      <c r="H15" s="226"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -35882,10 +35839,10 @@
       <c r="F16" s="124" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="198" t="s">
+      <c r="G16" s="225" t="s">
         <v>129</v>
       </c>
-      <c r="H16" s="199"/>
+      <c r="H16" s="226"/>
     </row>
     <row r="17" spans="1:8" ht="41.4" outlineLevel="2">
       <c r="A17" s="122" t="s">
@@ -35906,10 +35863,10 @@
       <c r="F17" s="123" t="s">
         <v>133</v>
       </c>
-      <c r="G17" s="198" t="s">
+      <c r="G17" s="225" t="s">
         <v>134</v>
       </c>
-      <c r="H17" s="199"/>
+      <c r="H17" s="226"/>
     </row>
     <row r="18" spans="1:8" ht="41.4">
       <c r="A18" s="122" t="s">
@@ -35930,10 +35887,10 @@
       <c r="F18" s="123" t="s">
         <v>138</v>
       </c>
-      <c r="G18" s="198" t="s">
+      <c r="G18" s="225" t="s">
         <v>139</v>
       </c>
-      <c r="H18" s="199"/>
+      <c r="H18" s="226"/>
     </row>
     <row r="19" spans="1:8" ht="27.6">
       <c r="A19" s="122" t="s">
@@ -35954,10 +35911,10 @@
       <c r="F19" s="123" t="s">
         <v>143</v>
       </c>
-      <c r="G19" s="198" t="s">
+      <c r="G19" s="225" t="s">
         <v>144</v>
       </c>
-      <c r="H19" s="199"/>
+      <c r="H19" s="226"/>
     </row>
     <row r="20" spans="1:8" ht="27.6">
       <c r="A20" s="122" t="s">
@@ -35978,10 +35935,10 @@
       <c r="F20" s="123" t="s">
         <v>148</v>
       </c>
-      <c r="G20" s="198" t="s">
+      <c r="G20" s="225" t="s">
         <v>149</v>
       </c>
-      <c r="H20" s="199"/>
+      <c r="H20" s="226"/>
     </row>
     <row r="21" spans="1:8" ht="27.6">
       <c r="A21" s="122" t="s">
@@ -36002,10 +35959,10 @@
       <c r="F21" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="G21" s="198" t="s">
+      <c r="G21" s="225" t="s">
         <v>154</v>
       </c>
-      <c r="H21" s="199"/>
+      <c r="H21" s="226"/>
     </row>
     <row r="22" spans="1:8" ht="27.6">
       <c r="A22" s="122" t="s">
@@ -36026,10 +35983,10 @@
       <c r="F22" s="123" t="s">
         <v>158</v>
       </c>
-      <c r="G22" s="198" t="s">
+      <c r="G22" s="225" t="s">
         <v>159</v>
       </c>
-      <c r="H22" s="199"/>
+      <c r="H22" s="226"/>
     </row>
     <row r="23" spans="1:8" ht="27.6">
       <c r="A23" s="122" t="s">
@@ -36050,10 +36007,10 @@
       <c r="F23" s="124" t="s">
         <v>162</v>
       </c>
-      <c r="G23" s="198" t="s">
+      <c r="G23" s="225" t="s">
         <v>163</v>
       </c>
-      <c r="H23" s="199"/>
+      <c r="H23" s="226"/>
     </row>
     <row r="24" spans="1:8" ht="13.8">
       <c r="A24" s="122" t="s">
@@ -36074,10 +36031,10 @@
       <c r="F24" s="124" t="s">
         <v>167</v>
       </c>
-      <c r="G24" s="198" t="s">
+      <c r="G24" s="225" t="s">
         <v>168</v>
       </c>
-      <c r="H24" s="199"/>
+      <c r="H24" s="226"/>
     </row>
     <row r="25" spans="1:8" ht="27.6">
       <c r="A25" s="122" t="s">
@@ -36098,10 +36055,10 @@
       <c r="F25" s="124" t="s">
         <v>172</v>
       </c>
-      <c r="G25" s="198" t="s">
+      <c r="G25" s="225" t="s">
         <v>173</v>
       </c>
-      <c r="H25" s="199"/>
+      <c r="H25" s="226"/>
     </row>
     <row r="26" spans="1:8" ht="13.8">
       <c r="A26" s="122" t="s">
@@ -36122,10 +36079,10 @@
       <c r="F26" s="124" t="s">
         <v>177</v>
       </c>
-      <c r="G26" s="198" t="s">
+      <c r="G26" s="225" t="s">
         <v>178</v>
       </c>
-      <c r="H26" s="199"/>
+      <c r="H26" s="226"/>
     </row>
     <row r="27" spans="1:8" ht="27.6">
       <c r="A27" s="122" t="s">
@@ -36146,10 +36103,10 @@
       <c r="F27" s="123" t="s">
         <v>182</v>
       </c>
-      <c r="G27" s="198" t="s">
+      <c r="G27" s="225" t="s">
         <v>183</v>
       </c>
-      <c r="H27" s="199"/>
+      <c r="H27" s="226"/>
     </row>
     <row r="28" spans="1:8" ht="13.8">
       <c r="A28" s="122" t="s">
@@ -36170,10 +36127,10 @@
       <c r="F28" s="124" t="s">
         <v>187</v>
       </c>
-      <c r="G28" s="198" t="s">
+      <c r="G28" s="225" t="s">
         <v>188</v>
       </c>
-      <c r="H28" s="199"/>
+      <c r="H28" s="226"/>
     </row>
     <row r="29" spans="1:8" ht="13.8">
       <c r="A29" s="122" t="s">
@@ -36194,10 +36151,10 @@
       <c r="F29" s="124" t="s">
         <v>192</v>
       </c>
-      <c r="G29" s="198" t="s">
+      <c r="G29" s="225" t="s">
         <v>193</v>
       </c>
-      <c r="H29" s="199"/>
+      <c r="H29" s="226"/>
     </row>
     <row r="30" spans="1:8" ht="13.8">
       <c r="A30" s="122" t="s">
@@ -36212,8 +36169,8 @@
       </c>
       <c r="E30" s="124"/>
       <c r="F30" s="124"/>
-      <c r="G30" s="198"/>
-      <c r="H30" s="199"/>
+      <c r="G30" s="225"/>
+      <c r="H30" s="226"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -36295,12 +36252,12 @@
       <c r="H1" s="95"/>
       <c r="I1" s="95"/>
       <c r="J1" s="95"/>
-      <c r="K1" s="208" t="str">
+      <c r="K1" s="235" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="L1" s="209"/>
-      <c r="M1" s="210"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="237"/>
     </row>
     <row r="2" spans="1:13" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="B2" s="96"/>
@@ -36312,12 +36269,12 @@
       <c r="H2" s="97"/>
       <c r="I2" s="97"/>
       <c r="J2" s="97"/>
-      <c r="K2" s="211">
+      <c r="K2" s="238">
         <f>'1a-Identification Projet'!$L$2</f>
         <v>45912</v>
       </c>
-      <c r="L2" s="212"/>
-      <c r="M2" s="213"/>
+      <c r="L2" s="239"/>
+      <c r="M2" s="240"/>
     </row>
     <row r="3" spans="1:13" s="16" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="98"/>
@@ -36329,12 +36286,12 @@
       <c r="H3" s="99"/>
       <c r="I3" s="99"/>
       <c r="J3" s="99"/>
-      <c r="K3" s="214" t="str">
+      <c r="K3" s="241" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
       </c>
-      <c r="L3" s="215"/>
-      <c r="M3" s="216"/>
+      <c r="L3" s="242"/>
+      <c r="M3" s="243"/>
     </row>
     <row r="4" spans="1:13" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="3"/>
@@ -36493,12 +36450,12 @@
       <c r="H1" s="95"/>
       <c r="I1" s="95"/>
       <c r="J1" s="95"/>
-      <c r="K1" s="208" t="str">
+      <c r="K1" s="235" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="L1" s="209"/>
-      <c r="M1" s="210"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="237"/>
     </row>
     <row r="2" spans="1:14" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="B2" s="96"/>
@@ -36510,12 +36467,12 @@
       <c r="H2" s="97"/>
       <c r="I2" s="97"/>
       <c r="J2" s="97"/>
-      <c r="K2" s="211">
+      <c r="K2" s="238">
         <f>'1a-Identification Projet'!$L$2</f>
         <v>45912</v>
       </c>
-      <c r="L2" s="212"/>
-      <c r="M2" s="213"/>
+      <c r="L2" s="239"/>
+      <c r="M2" s="240"/>
     </row>
     <row r="3" spans="1:14" s="16" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="98"/>
@@ -36527,12 +36484,12 @@
       <c r="H3" s="99"/>
       <c r="I3" s="99"/>
       <c r="J3" s="99"/>
-      <c r="K3" s="214" t="str">
+      <c r="K3" s="241" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
       </c>
-      <c r="L3" s="215"/>
-      <c r="M3" s="216"/>
+      <c r="L3" s="242"/>
+      <c r="M3" s="243"/>
     </row>
     <row r="4" spans="1:14" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="3"/>
@@ -37383,13 +37340,13 @@
       <c r="H1" s="95"/>
       <c r="I1" s="95"/>
       <c r="J1" s="95"/>
-      <c r="K1" s="208" t="str">
+      <c r="K1" s="235" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="L1" s="217"/>
-      <c r="M1" s="209"/>
-      <c r="N1" s="210"/>
+      <c r="L1" s="244"/>
+      <c r="M1" s="236"/>
+      <c r="N1" s="237"/>
     </row>
     <row r="2" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="B2" s="96"/>
@@ -37401,13 +37358,13 @@
       <c r="H2" s="97"/>
       <c r="I2" s="97"/>
       <c r="J2" s="97"/>
-      <c r="K2" s="211">
+      <c r="K2" s="238">
         <f>'1a-Identification Projet'!$L$2</f>
         <v>45912</v>
       </c>
-      <c r="L2" s="218"/>
-      <c r="M2" s="212"/>
-      <c r="N2" s="213"/>
+      <c r="L2" s="245"/>
+      <c r="M2" s="239"/>
+      <c r="N2" s="240"/>
     </row>
     <row r="3" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="98"/>
@@ -37419,13 +37376,13 @@
       <c r="H3" s="99"/>
       <c r="I3" s="99"/>
       <c r="J3" s="99"/>
-      <c r="K3" s="214" t="str">
+      <c r="K3" s="241" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
       </c>
-      <c r="L3" s="219"/>
-      <c r="M3" s="215"/>
-      <c r="N3" s="216"/>
+      <c r="L3" s="246"/>
+      <c r="M3" s="242"/>
+      <c r="N3" s="243"/>
     </row>
     <row r="4" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="3"/>
@@ -37778,9 +37735,9 @@
       <c r="M52" s="18"/>
     </row>
     <row r="53" spans="3:13" ht="17.399999999999999" customHeight="1">
-      <c r="C53" s="220"/>
-      <c r="D53" s="220"/>
-      <c r="E53" s="220"/>
+      <c r="C53" s="247"/>
+      <c r="D53" s="247"/>
+      <c r="E53" s="247"/>
       <c r="F53" s="174"/>
       <c r="G53" s="174"/>
       <c r="H53" s="174"/>
@@ -37858,9 +37815,9 @@
       <c r="I59" s="17"/>
     </row>
     <row r="67" spans="3:16">
-      <c r="C67" s="220"/>
-      <c r="D67" s="221"/>
-      <c r="E67" s="221"/>
+      <c r="C67" s="247"/>
+      <c r="D67" s="248"/>
+      <c r="E67" s="248"/>
       <c r="F67" s="174"/>
       <c r="G67" s="174"/>
       <c r="H67" s="174"/>
@@ -38016,12 +37973,12 @@
       <c r="H1" s="95"/>
       <c r="I1" s="95"/>
       <c r="J1" s="95"/>
-      <c r="K1" s="222" t="str">
+      <c r="K1" s="249" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="L1" s="217"/>
-      <c r="M1" s="223"/>
+      <c r="L1" s="244"/>
+      <c r="M1" s="250"/>
     </row>
     <row r="2" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="B2" s="96"/>
@@ -38033,12 +37990,12 @@
       <c r="H2" s="97"/>
       <c r="I2" s="97"/>
       <c r="J2" s="97"/>
-      <c r="K2" s="211">
+      <c r="K2" s="238">
         <f>'1a-Identification Projet'!$L$2</f>
         <v>45912</v>
       </c>
-      <c r="L2" s="212"/>
-      <c r="M2" s="213"/>
+      <c r="L2" s="239"/>
+      <c r="M2" s="240"/>
     </row>
     <row r="3" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="98"/>
@@ -38050,12 +38007,12 @@
       <c r="H3" s="99"/>
       <c r="I3" s="99"/>
       <c r="J3" s="99"/>
-      <c r="K3" s="214" t="str">
+      <c r="K3" s="241" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
       </c>
-      <c r="L3" s="215"/>
-      <c r="M3" s="216"/>
+      <c r="L3" s="242"/>
+      <c r="M3" s="243"/>
     </row>
     <row r="4" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="3"/>
@@ -38717,25 +38674,25 @@
       <c r="O27"/>
     </row>
     <row r="28" spans="2:15" ht="28.8" customHeight="1">
-      <c r="B28" s="224">
+      <c r="B28" s="251">
         <v>21</v>
       </c>
-      <c r="C28" s="226" t="s">
+      <c r="C28" s="253" t="s">
         <v>243</v>
       </c>
-      <c r="D28" s="228">
+      <c r="D28" s="255">
         <v>46003</v>
       </c>
-      <c r="E28" s="228">
+      <c r="E28" s="255">
         <v>45943</v>
       </c>
       <c r="F28" s="150" t="s">
         <v>244</v>
       </c>
-      <c r="G28" s="226" t="s">
+      <c r="G28" s="253" t="s">
         <v>212</v>
       </c>
-      <c r="H28" s="224" t="s">
+      <c r="H28" s="251" t="s">
         <v>205</v>
       </c>
       <c r="I28"/>
@@ -38747,15 +38704,15 @@
       <c r="O28"/>
     </row>
     <row r="29" spans="2:15" ht="28.8" customHeight="1" thickBot="1">
-      <c r="B29" s="225"/>
-      <c r="C29" s="227"/>
-      <c r="D29" s="229"/>
-      <c r="E29" s="229"/>
+      <c r="B29" s="252"/>
+      <c r="C29" s="254"/>
+      <c r="D29" s="256"/>
+      <c r="E29" s="256"/>
       <c r="F29" s="143" t="s">
         <v>245</v>
       </c>
-      <c r="G29" s="227"/>
-      <c r="H29" s="225"/>
+      <c r="G29" s="254"/>
+      <c r="H29" s="252"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -39425,7 +39382,7 @@
   <dimension ref="A1:BH19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="82" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
@@ -39444,52 +39401,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="13.5" customHeight="1">
-      <c r="A1" s="245" t="str">
+      <c r="A1" s="257" t="str">
         <f>"LISTE DES ACTIONS au "&amp;TEXT(I2,"jj/mm/aaaa")</f>
         <v>LISTE DES ACTIONS au 25/00/Freitag</v>
       </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
-      <c r="E1" s="246"/>
-      <c r="F1" s="246"/>
-      <c r="G1" s="246"/>
-      <c r="H1" s="247"/>
-      <c r="I1" s="200" t="str">
+      <c r="B1" s="258"/>
+      <c r="C1" s="258"/>
+      <c r="D1" s="258"/>
+      <c r="E1" s="258"/>
+      <c r="F1" s="258"/>
+      <c r="G1" s="258"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="227" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="J1" s="201"/>
+      <c r="J1" s="228"/>
     </row>
     <row r="2" spans="1:60" ht="12.75" customHeight="1">
-      <c r="A2" s="248"/>
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="249"/>
-      <c r="G2" s="249"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="202">
+      <c r="A2" s="260"/>
+      <c r="B2" s="261"/>
+      <c r="C2" s="261"/>
+      <c r="D2" s="261"/>
+      <c r="E2" s="261"/>
+      <c r="F2" s="261"/>
+      <c r="G2" s="261"/>
+      <c r="H2" s="262"/>
+      <c r="I2" s="229">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="J2" s="203"/>
+      <c r="J2" s="230"/>
     </row>
     <row r="3" spans="1:60" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="251"/>
-      <c r="B3" s="252"/>
-      <c r="C3" s="252"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="252"/>
-      <c r="F3" s="252"/>
-      <c r="G3" s="252"/>
-      <c r="H3" s="253"/>
-      <c r="I3" s="204" t="str">
+      <c r="A3" s="263"/>
+      <c r="B3" s="264"/>
+      <c r="C3" s="264"/>
+      <c r="D3" s="264"/>
+      <c r="E3" s="264"/>
+      <c r="F3" s="264"/>
+      <c r="G3" s="264"/>
+      <c r="H3" s="265"/>
+      <c r="I3" s="231" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="J3" s="205"/>
+      <c r="J3" s="232"/>
     </row>
     <row r="4" spans="1:60" ht="12.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -39963,16 +39920,16 @@
       <c r="BH10" s="3"/>
     </row>
     <row r="11" spans="1:60" s="23" customFormat="1" ht="15">
-      <c r="A11" s="304"/>
-      <c r="B11" s="312"/>
-      <c r="C11" s="306"/>
-      <c r="D11" s="307"/>
-      <c r="E11" s="307"/>
-      <c r="F11" s="307"/>
-      <c r="G11" s="306"/>
-      <c r="H11" s="313"/>
-      <c r="I11" s="310"/>
-      <c r="J11" s="305"/>
+      <c r="A11" s="196"/>
+      <c r="B11" s="204"/>
+      <c r="C11" s="198"/>
+      <c r="D11" s="199"/>
+      <c r="E11" s="199"/>
+      <c r="F11" s="199"/>
+      <c r="G11" s="198"/>
+      <c r="H11" s="205"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="197"/>
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
@@ -40025,16 +39982,16 @@
       <c r="BH11" s="3"/>
     </row>
     <row r="12" spans="1:60" s="23" customFormat="1" ht="15">
-      <c r="A12" s="304"/>
-      <c r="B12" s="312"/>
-      <c r="C12" s="306"/>
-      <c r="D12" s="307"/>
-      <c r="E12" s="307"/>
-      <c r="F12" s="307"/>
-      <c r="G12" s="306"/>
-      <c r="H12" s="309"/>
-      <c r="I12" s="310"/>
-      <c r="J12" s="305"/>
+      <c r="A12" s="196"/>
+      <c r="B12" s="204"/>
+      <c r="C12" s="198"/>
+      <c r="D12" s="199"/>
+      <c r="E12" s="199"/>
+      <c r="F12" s="199"/>
+      <c r="G12" s="198"/>
+      <c r="H12" s="201"/>
+      <c r="I12" s="202"/>
+      <c r="J12" s="197"/>
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
@@ -40152,52 +40109,52 @@
       <c r="F14" s="22"/>
     </row>
     <row r="16" spans="1:60">
-      <c r="A16" s="302"/>
-      <c r="B16" s="302"/>
-      <c r="C16" s="302"/>
-      <c r="D16" s="302"/>
-      <c r="E16" s="303"/>
-      <c r="F16" s="303"/>
-      <c r="G16" s="302"/>
-      <c r="H16" s="302"/>
-      <c r="I16" s="302"/>
-      <c r="J16" s="302"/>
+      <c r="A16" s="194"/>
+      <c r="B16" s="194"/>
+      <c r="C16" s="194"/>
+      <c r="D16" s="194"/>
+      <c r="E16" s="195"/>
+      <c r="F16" s="195"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="194"/>
+      <c r="J16" s="194"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="302"/>
-      <c r="B17" s="302"/>
-      <c r="C17" s="302"/>
-      <c r="D17" s="302"/>
-      <c r="E17" s="303"/>
-      <c r="F17" s="303"/>
-      <c r="G17" s="302"/>
-      <c r="H17" s="302"/>
-      <c r="I17" s="302"/>
-      <c r="J17" s="302"/>
+      <c r="A17" s="194"/>
+      <c r="B17" s="194"/>
+      <c r="C17" s="194"/>
+      <c r="D17" s="194"/>
+      <c r="E17" s="195"/>
+      <c r="F17" s="195"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="194"/>
+      <c r="I17" s="194"/>
+      <c r="J17" s="194"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="304"/>
-      <c r="B18" s="305"/>
-      <c r="C18" s="306"/>
-      <c r="D18" s="307"/>
-      <c r="E18" s="307"/>
-      <c r="F18" s="307"/>
-      <c r="G18" s="307"/>
-      <c r="H18" s="307"/>
-      <c r="I18" s="307"/>
-      <c r="J18" s="308"/>
+      <c r="A18" s="196"/>
+      <c r="B18" s="197"/>
+      <c r="C18" s="198"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="199"/>
+      <c r="J18" s="200"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="304"/>
-      <c r="B19" s="305"/>
-      <c r="C19" s="306"/>
-      <c r="D19" s="307"/>
-      <c r="E19" s="307"/>
-      <c r="F19" s="307"/>
-      <c r="G19" s="306"/>
-      <c r="H19" s="309"/>
-      <c r="I19" s="310"/>
-      <c r="J19" s="305"/>
+      <c r="A19" s="196"/>
+      <c r="B19" s="197"/>
+      <c r="C19" s="198"/>
+      <c r="D19" s="199"/>
+      <c r="E19" s="199"/>
+      <c r="F19" s="199"/>
+      <c r="G19" s="198"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="202"/>
+      <c r="J19" s="197"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -40206,37 +40163,37 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="A1:H3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A12:J12 A6:J8">
-    <cfRule type="expression" dxfId="8" priority="31" stopIfTrue="1">
+  <conditionalFormatting sqref="A6:J10">
+    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
       <formula>IF($G6="Done",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
       <formula>IF($G6="Cancelled",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
       <formula>IF($G6="Pending",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A12:J12">
+    <cfRule type="expression" dxfId="5" priority="31" stopIfTrue="1">
+      <formula>IF($G12="Done",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="32" stopIfTrue="1">
+      <formula>IF($G12="Cancelled",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="33" stopIfTrue="1">
+      <formula>IF($G12="Pending",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A18:J19">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>IF($G18="Done",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>IF($G18="Cancelled",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>IF($G18="Pending",TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:J10">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
-      <formula>IF($G9="Done",TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>IF($G9="Cancelled",TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>IF($G9="Pending",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/tools/fichier_excel/GroupeTD-GroupeProjet - ProjetInformatique.xlsx
+++ b/tools/fichier_excel/GroupeTD-GroupeProjet - ProjetInformatique.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D1837B-D3D3-48A8-B3E9-605F4ED8FA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03F8EED-88F1-4ED3-9782-083A990D8D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="894" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2112" windowWidth="23040" windowHeight="11568" tabRatio="894" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1a-Identification Projet" sheetId="39" r:id="rId1"/>
@@ -1169,9 +1169,6 @@
     <t>Moyenne</t>
   </si>
   <si>
-    <t>Décision prise de  travailler sur GihHub.  (Voir action numéro 1)</t>
-  </si>
-  <si>
     <t>Créer le dépôt Git pour le projet</t>
   </si>
   <si>
@@ -1191,12 +1188,6 @@
   </si>
   <si>
     <t>In Progress</t>
-  </si>
-  <si>
-    <t>Décision de communiquer sur whassap au lieu de discord. (Voir action numéro 2)</t>
-  </si>
-  <si>
-    <t>Faire un bilan hebdomadaire tous les dimanches. (Voir action numéro 3)</t>
   </si>
   <si>
     <t>Faire les modifications  demandées par le proffesseur sur le CC2</t>
@@ -1283,6 +1274,15 @@
       </rPr>
       <t xml:space="preserve">                                                                                                                                                                         </t>
     </r>
+  </si>
+  <si>
+    <t>L'équipe doit travailler sur GihHub.  (Voir action numéro 1)</t>
+  </si>
+  <si>
+    <t>L'équipe doit communiquer sur whassap . (Voir action numéro 2)</t>
+  </si>
+  <si>
+    <t>L'équipe doit faire un bilan hebdomadaire tous les dimanches. (Voir action numéro 3)</t>
   </si>
 </sst>
 </file>
@@ -7604,6 +7604,33 @@
     <xf numFmtId="14" fontId="4" fillId="80" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="73" borderId="51" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="73" borderId="25" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="73" borderId="52" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -7631,64 +7658,37 @@
     <xf numFmtId="14" fontId="5" fillId="71" borderId="50" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="73" borderId="51" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="73" borderId="25" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="73" borderId="52" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="68" borderId="47" xfId="958" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="68" borderId="49" xfId="958" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="48" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="50" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="96" fillId="69" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="96" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="68" borderId="47" xfId="958" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="68" borderId="49" xfId="958" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="48" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="50" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7884,6 +7884,27 @@
     <xf numFmtId="0" fontId="8" fillId="71" borderId="21" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="56" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="78" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="78" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="78" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="100" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -7893,26 +7914,17 @@
     <xf numFmtId="14" fontId="100" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="56" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="78" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="78" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="78" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="55" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="57" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -7920,23 +7932,11 @@
     <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="55" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="57" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1319">
@@ -24783,11 +24783,11 @@
       <c r="I1" s="113"/>
       <c r="J1" s="113"/>
       <c r="K1" s="113"/>
-      <c r="L1" s="206" t="s">
+      <c r="L1" s="215" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="207"/>
-      <c r="N1" s="208"/>
+      <c r="M1" s="216"/>
+      <c r="N1" s="217"/>
       <c r="P1" s="24"/>
     </row>
     <row r="2" spans="2:16" ht="12.75" customHeight="1">
@@ -24801,11 +24801,11 @@
       <c r="I2" s="115"/>
       <c r="J2" s="115"/>
       <c r="K2" s="115"/>
-      <c r="L2" s="209">
+      <c r="L2" s="218">
         <v>45912</v>
       </c>
-      <c r="M2" s="210"/>
-      <c r="N2" s="211"/>
+      <c r="M2" s="219"/>
+      <c r="N2" s="220"/>
     </row>
     <row r="3" spans="2:16" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="116"/>
@@ -24818,34 +24818,34 @@
       <c r="I3" s="117"/>
       <c r="J3" s="117"/>
       <c r="K3" s="117"/>
-      <c r="L3" s="212" t="s">
+      <c r="L3" s="221" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="213"/>
-      <c r="N3" s="214"/>
+      <c r="M3" s="222"/>
+      <c r="N3" s="223"/>
       <c r="P3" s="24"/>
     </row>
     <row r="4" spans="2:16" ht="12.75" customHeight="1" thickBot="1">
       <c r="P4" s="25"/>
     </row>
     <row r="5" spans="2:16" ht="23.4" thickBot="1">
-      <c r="B5" s="215" t="s">
+      <c r="B5" s="206" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="215"/>
+      <c r="C5" s="206"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="216" t="s">
+      <c r="E5" s="224" t="s">
         <v>264</v>
       </c>
-      <c r="F5" s="216"/>
-      <c r="G5" s="216"/>
-      <c r="H5" s="216"/>
-      <c r="I5" s="216"/>
-      <c r="J5" s="216"/>
-      <c r="K5" s="216"/>
-      <c r="L5" s="216"/>
-      <c r="M5" s="216"/>
-      <c r="N5" s="216"/>
+      <c r="F5" s="224"/>
+      <c r="G5" s="224"/>
+      <c r="H5" s="224"/>
+      <c r="I5" s="224"/>
+      <c r="J5" s="224"/>
+      <c r="K5" s="224"/>
+      <c r="L5" s="224"/>
+      <c r="M5" s="224"/>
+      <c r="N5" s="224"/>
     </row>
     <row r="6" spans="2:16" ht="12" customHeight="1" thickBot="1">
       <c r="B6" s="7"/>
@@ -24862,23 +24862,23 @@
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="2:16" ht="18" thickBot="1">
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="206" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="215"/>
+      <c r="C7" s="206"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="219" t="s">
+      <c r="E7" s="209" t="s">
         <v>263</v>
       </c>
-      <c r="F7" s="220"/>
-      <c r="G7" s="220"/>
-      <c r="H7" s="220"/>
-      <c r="I7" s="220"/>
-      <c r="J7" s="220"/>
-      <c r="K7" s="220"/>
-      <c r="L7" s="220"/>
-      <c r="M7" s="220"/>
-      <c r="N7" s="221"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="210"/>
+      <c r="H7" s="210"/>
+      <c r="I7" s="210"/>
+      <c r="J7" s="210"/>
+      <c r="K7" s="210"/>
+      <c r="L7" s="210"/>
+      <c r="M7" s="210"/>
+      <c r="N7" s="211"/>
     </row>
     <row r="8" spans="2:16" ht="9.6" customHeight="1" thickBot="1">
       <c r="B8" s="10"/>
@@ -24896,23 +24896,23 @@
       <c r="N8" s="12"/>
     </row>
     <row r="9" spans="2:16" ht="54.6" customHeight="1" thickBot="1">
-      <c r="B9" s="222" t="s">
+      <c r="B9" s="212" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="222"/>
+      <c r="C9" s="212"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="223" t="s">
+      <c r="E9" s="213" t="s">
         <v>277</v>
       </c>
-      <c r="F9" s="224"/>
-      <c r="G9" s="224"/>
-      <c r="H9" s="224"/>
-      <c r="I9" s="224"/>
-      <c r="J9" s="224"/>
-      <c r="K9" s="224"/>
-      <c r="L9" s="224"/>
-      <c r="M9" s="224"/>
-      <c r="N9" s="224"/>
+      <c r="F9" s="214"/>
+      <c r="G9" s="214"/>
+      <c r="H9" s="214"/>
+      <c r="I9" s="214"/>
+      <c r="J9" s="214"/>
+      <c r="K9" s="214"/>
+      <c r="L9" s="214"/>
+      <c r="M9" s="214"/>
+      <c r="N9" s="214"/>
     </row>
     <row r="10" spans="2:16" ht="10.95" customHeight="1" thickBot="1">
       <c r="B10" s="10"/>
@@ -24930,23 +24930,23 @@
       <c r="N10" s="12"/>
     </row>
     <row r="11" spans="2:16" ht="61.2" customHeight="1" thickBot="1">
-      <c r="B11" s="215" t="s">
+      <c r="B11" s="206" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="215"/>
+      <c r="C11" s="206"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="223" t="s">
+      <c r="E11" s="213" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="224"/>
-      <c r="G11" s="224"/>
-      <c r="H11" s="224"/>
-      <c r="I11" s="224"/>
-      <c r="J11" s="224"/>
-      <c r="K11" s="224"/>
-      <c r="L11" s="224"/>
-      <c r="M11" s="224"/>
-      <c r="N11" s="224"/>
+      <c r="F11" s="214"/>
+      <c r="G11" s="214"/>
+      <c r="H11" s="214"/>
+      <c r="I11" s="214"/>
+      <c r="J11" s="214"/>
+      <c r="K11" s="214"/>
+      <c r="L11" s="214"/>
+      <c r="M11" s="214"/>
+      <c r="N11" s="214"/>
     </row>
     <row r="12" spans="2:16" ht="10.95" customHeight="1" thickBot="1">
       <c r="B12" s="10"/>
@@ -24964,23 +24964,23 @@
       <c r="N12" s="12"/>
     </row>
     <row r="13" spans="2:16" ht="99" customHeight="1" thickBot="1">
-      <c r="B13" s="215" t="s">
+      <c r="B13" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="215"/>
+      <c r="C13" s="206"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="217" t="s">
+      <c r="E13" s="207" t="s">
         <v>265</v>
       </c>
-      <c r="F13" s="218"/>
-      <c r="G13" s="218"/>
-      <c r="H13" s="218"/>
-      <c r="I13" s="218"/>
-      <c r="J13" s="218"/>
-      <c r="K13" s="218"/>
-      <c r="L13" s="218"/>
-      <c r="M13" s="218"/>
-      <c r="N13" s="218"/>
+      <c r="F13" s="208"/>
+      <c r="G13" s="208"/>
+      <c r="H13" s="208"/>
+      <c r="I13" s="208"/>
+      <c r="J13" s="208"/>
+      <c r="K13" s="208"/>
+      <c r="L13" s="208"/>
+      <c r="M13" s="208"/>
+      <c r="N13" s="208"/>
     </row>
     <row r="14" spans="2:16" ht="73.5" customHeight="1">
       <c r="B14" s="13"/>
@@ -25004,6 +25004,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="13">
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:N5"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="E13:N13"/>
     <mergeCell ref="B7:C7"/>
@@ -25012,11 +25017,6 @@
     <mergeCell ref="E9:N9"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="E11:N11"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:N5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:N8 E10:N10 E12:N12" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -25038,8 +25038,8 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
@@ -25070,11 +25070,11 @@
       <c r="G1" s="258"/>
       <c r="H1" s="258"/>
       <c r="I1" s="259"/>
-      <c r="J1" s="227" t="str">
+      <c r="J1" s="225" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="K1" s="228"/>
+      <c r="K1" s="226"/>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="261"/>
@@ -25086,11 +25086,11 @@
       <c r="G2" s="261"/>
       <c r="H2" s="261"/>
       <c r="I2" s="262"/>
-      <c r="J2" s="229">
+      <c r="J2" s="227">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="K2" s="230"/>
+      <c r="K2" s="228"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="264"/>
@@ -25102,11 +25102,11 @@
       <c r="G3" s="264"/>
       <c r="H3" s="264"/>
       <c r="I3" s="265"/>
-      <c r="J3" s="231" t="str">
+      <c r="J3" s="229" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="K3" s="232"/>
+      <c r="K3" s="230"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
       <c r="A4" s="26"/>
@@ -25146,7 +25146,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="266" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="C6" s="266"/>
       <c r="D6" s="266"/>
@@ -25173,7 +25173,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="266" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="C7" s="266"/>
       <c r="D7" s="266"/>
@@ -25200,7 +25200,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="266" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="C8" s="266"/>
       <c r="D8" s="266"/>
@@ -25291,7 +25291,7 @@
   </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -25323,11 +25323,11 @@
       <c r="F1" s="271"/>
       <c r="G1" s="271"/>
       <c r="H1" s="272"/>
-      <c r="I1" s="227" t="str">
+      <c r="I1" s="225" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="J1" s="228"/>
+      <c r="J1" s="226"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1">
       <c r="A2" s="273"/>
@@ -25338,11 +25338,11 @@
       <c r="F2" s="274"/>
       <c r="G2" s="274"/>
       <c r="H2" s="275"/>
-      <c r="I2" s="229">
+      <c r="I2" s="227">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="J2" s="230"/>
+      <c r="J2" s="228"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="276"/>
@@ -25353,11 +25353,11 @@
       <c r="F3" s="277"/>
       <c r="G3" s="277"/>
       <c r="H3" s="278"/>
-      <c r="I3" s="231" t="str">
+      <c r="I3" s="229" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="J3" s="232"/>
+      <c r="J3" s="230"/>
     </row>
     <row r="4" spans="1:10" ht="13.8" thickBot="1">
       <c r="A4" s="41"/>
@@ -25433,7 +25433,7 @@
     </row>
     <row r="8" spans="1:10" ht="13.8" outlineLevel="1" thickBot="1">
       <c r="A8" s="59" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
@@ -25465,12 +25465,12 @@
     </row>
     <row r="10" spans="1:10" outlineLevel="1">
       <c r="A10" s="59" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B10" s="59"/>
       <c r="C10" s="59"/>
       <c r="D10" s="59" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E10" s="59"/>
       <c r="F10" s="59"/>
@@ -25483,12 +25483,12 @@
     </row>
     <row r="11" spans="1:10" ht="13.8" outlineLevel="2" thickBot="1">
       <c r="A11" s="59" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
       <c r="D11" s="59" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E11" s="59"/>
       <c r="F11" s="59"/>
@@ -25529,7 +25529,7 @@
     </row>
     <row r="14" spans="1:10" outlineLevel="1">
       <c r="A14" s="59" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B14" s="59"/>
       <c r="C14" s="59"/>
@@ -25549,7 +25549,7 @@
     </row>
     <row r="15" spans="1:10" outlineLevel="2">
       <c r="A15" s="59" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
@@ -25569,7 +25569,7 @@
     </row>
     <row r="16" spans="1:10" outlineLevel="2">
       <c r="A16" s="59" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
@@ -25589,7 +25589,7 @@
     </row>
     <row r="17" spans="1:10" ht="13.8" outlineLevel="2" thickBot="1">
       <c r="A17" s="59" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B17" s="59"/>
       <c r="C17" s="59"/>
@@ -25623,7 +25623,7 @@
     </row>
     <row r="19" spans="1:10" outlineLevel="1">
       <c r="A19" s="59" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B19" s="59"/>
       <c r="C19" s="59"/>
@@ -25906,31 +25906,31 @@
       </c>
       <c r="B1" s="280"/>
       <c r="C1" s="280"/>
-      <c r="D1" s="227" t="str">
+      <c r="D1" s="225" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="E1" s="228"/>
+      <c r="E1" s="226"/>
     </row>
     <row r="2" spans="1:12" ht="12.75" customHeight="1">
       <c r="A2" s="281"/>
       <c r="B2" s="282"/>
       <c r="C2" s="282"/>
-      <c r="D2" s="229">
+      <c r="D2" s="227">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="E2" s="230"/>
+      <c r="E2" s="228"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="283"/>
       <c r="B3" s="284"/>
       <c r="C3" s="284"/>
-      <c r="D3" s="231" t="str">
+      <c r="D3" s="229" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="E3" s="232"/>
+      <c r="E3" s="230"/>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -25963,10 +25963,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="59" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C7" s="59">
         <v>45926</v>
@@ -25980,10 +25980,10 @@
     </row>
     <row r="8" spans="1:12" outlineLevel="2">
       <c r="A8" s="59" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C8" s="59">
         <v>45937</v>
@@ -25997,10 +25997,10 @@
     </row>
     <row r="9" spans="1:12" outlineLevel="2">
       <c r="A9" s="59" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C9" s="59">
         <v>45948</v>
@@ -26021,10 +26021,10 @@
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" outlineLevel="2">
       <c r="A10" s="59" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C10" s="59">
         <v>46003</v>
@@ -26487,14 +26487,14 @@
         <f>"PLANNING COURANT  au "&amp;TEXT(K2,"jj/mm/aaaa")</f>
         <v>PLANNING COURANT  au 25/00/Freitag</v>
       </c>
-      <c r="C1" s="303"/>
+      <c r="C1" s="300"/>
       <c r="D1" s="280"/>
       <c r="E1" s="280"/>
       <c r="F1" s="280"/>
       <c r="G1" s="280"/>
       <c r="H1" s="280"/>
       <c r="I1" s="280"/>
-      <c r="J1" s="304"/>
+      <c r="J1" s="301"/>
       <c r="K1" s="249" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
@@ -26511,7 +26511,7 @@
       <c r="G2" s="282"/>
       <c r="H2" s="282"/>
       <c r="I2" s="282"/>
-      <c r="J2" s="305"/>
+      <c r="J2" s="302"/>
       <c r="K2" s="238">
         <f>'1a-Identification Projet'!$L$2</f>
         <v>45912</v>
@@ -26530,7 +26530,7 @@
       <c r="G3" s="284"/>
       <c r="H3" s="284"/>
       <c r="I3" s="284"/>
-      <c r="J3" s="306"/>
+      <c r="J3" s="303"/>
       <c r="K3" s="241" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
@@ -26658,25 +26658,25 @@
     </row>
     <row r="7" spans="1:39" ht="24.6">
       <c r="A7"/>
-      <c r="C7" s="307" t="s">
+      <c r="C7" s="304" t="s">
         <v>266</v>
       </c>
-      <c r="D7" s="308"/>
-      <c r="E7" s="308"/>
-      <c r="F7" s="308"/>
-      <c r="G7" s="308"/>
-      <c r="H7" s="308"/>
-      <c r="I7" s="309"/>
+      <c r="D7" s="305"/>
+      <c r="E7" s="305"/>
+      <c r="F7" s="305"/>
+      <c r="G7" s="305"/>
+      <c r="H7" s="305"/>
+      <c r="I7" s="306"/>
       <c r="J7"/>
-      <c r="K7" s="307" t="s">
+      <c r="K7" s="304" t="s">
         <v>95</v>
       </c>
-      <c r="L7" s="308"/>
-      <c r="M7" s="308"/>
-      <c r="N7" s="308"/>
-      <c r="O7" s="308"/>
-      <c r="P7" s="308"/>
-      <c r="Q7" s="309"/>
+      <c r="L7" s="305"/>
+      <c r="M7" s="305"/>
+      <c r="N7" s="305"/>
+      <c r="O7" s="305"/>
+      <c r="P7" s="305"/>
+      <c r="Q7" s="306"/>
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
@@ -28153,28 +28153,28 @@
     </row>
     <row r="31" spans="1:39" ht="27" customHeight="1">
       <c r="A31"/>
-      <c r="C31" s="300">
+      <c r="C31" s="307">
         <v>21</v>
       </c>
-      <c r="D31" s="301" t="s">
+      <c r="D31" s="308" t="s">
         <v>243</v>
       </c>
-      <c r="E31" s="302">
+      <c r="E31" s="309">
         <v>46003</v>
       </c>
-      <c r="F31" s="302">
+      <c r="F31" s="309">
         <v>45943</v>
       </c>
       <c r="G31" s="161" t="s">
         <v>244</v>
       </c>
-      <c r="H31" s="301" t="s">
+      <c r="H31" s="308" t="s">
         <v>212</v>
       </c>
-      <c r="I31" s="300" t="s">
+      <c r="I31" s="307" t="s">
         <v>205</v>
       </c>
-      <c r="K31" s="300"/>
+      <c r="K31" s="307"/>
       <c r="L31" s="162"/>
       <c r="M31" s="163"/>
       <c r="N31" s="163"/>
@@ -28206,16 +28206,16 @@
     </row>
     <row r="32" spans="1:39" ht="27" customHeight="1">
       <c r="A32"/>
-      <c r="C32" s="300"/>
-      <c r="D32" s="301"/>
-      <c r="E32" s="302"/>
-      <c r="F32" s="302"/>
+      <c r="C32" s="307"/>
+      <c r="D32" s="308"/>
+      <c r="E32" s="309"/>
+      <c r="F32" s="309"/>
       <c r="G32" s="161" t="s">
         <v>245</v>
       </c>
-      <c r="H32" s="301"/>
-      <c r="I32" s="300"/>
-      <c r="K32" s="300"/>
+      <c r="H32" s="308"/>
+      <c r="I32" s="307"/>
+      <c r="K32" s="307"/>
       <c r="L32" s="162"/>
       <c r="M32" s="163"/>
       <c r="N32" s="163"/>
@@ -35317,12 +35317,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="13">
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="B1:J3"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="K7:Q7"/>
     <mergeCell ref="I31:I32"/>
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="C31:C32"/>
@@ -35330,6 +35324,12 @@
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="H31:H32"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="B1:J3"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="K7:Q7"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="83" firstPageNumber="0" orientation="landscape" r:id="rId1"/>
@@ -35387,11 +35387,11 @@
       <c r="D2" s="282"/>
       <c r="E2" s="282"/>
       <c r="F2" s="282"/>
-      <c r="G2" s="229">
+      <c r="G2" s="227">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="H2" s="230"/>
+      <c r="H2" s="228"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="283"/>
@@ -35400,11 +35400,11 @@
       <c r="D3" s="284"/>
       <c r="E3" s="284"/>
       <c r="F3" s="284"/>
-      <c r="G3" s="231" t="str">
+      <c r="G3" s="229" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="H3" s="232"/>
+      <c r="H3" s="230"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="B4" s="26"/>
@@ -35418,26 +35418,26 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="310"/>
-      <c r="B7" s="311"/>
-      <c r="C7" s="311"/>
-      <c r="D7" s="311"/>
-      <c r="E7" s="311"/>
-      <c r="F7" s="311"/>
-      <c r="G7" s="311"/>
-      <c r="H7" s="311"/>
+      <c r="A7" s="314"/>
+      <c r="B7" s="315"/>
+      <c r="C7" s="315"/>
+      <c r="D7" s="315"/>
+      <c r="E7" s="315"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="315"/>
+      <c r="H7" s="315"/>
     </row>
     <row r="8" spans="1:8" ht="113.4" customHeight="1">
-      <c r="A8" s="317" t="s">
-        <v>342</v>
-      </c>
-      <c r="B8" s="317"/>
-      <c r="C8" s="317"/>
-      <c r="D8" s="317"/>
-      <c r="E8" s="317"/>
-      <c r="F8" s="317"/>
-      <c r="G8" s="317"/>
-      <c r="H8" s="317"/>
+      <c r="A8" s="316" t="s">
+        <v>339</v>
+      </c>
+      <c r="B8" s="316"/>
+      <c r="C8" s="316"/>
+      <c r="D8" s="316"/>
+      <c r="E8" s="316"/>
+      <c r="F8" s="316"/>
+      <c r="G8" s="316"/>
+      <c r="H8" s="316"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="76" t="s">
@@ -35445,26 +35445,26 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="310"/>
-      <c r="B10" s="311"/>
-      <c r="C10" s="311"/>
-      <c r="D10" s="311"/>
-      <c r="E10" s="311"/>
-      <c r="F10" s="311"/>
-      <c r="G10" s="311"/>
-      <c r="H10" s="311"/>
+      <c r="A10" s="314"/>
+      <c r="B10" s="315"/>
+      <c r="C10" s="315"/>
+      <c r="D10" s="315"/>
+      <c r="E10" s="315"/>
+      <c r="F10" s="315"/>
+      <c r="G10" s="315"/>
+      <c r="H10" s="315"/>
     </row>
     <row r="11" spans="1:8" ht="154.19999999999999" customHeight="1">
-      <c r="A11" s="316" t="s">
-        <v>343</v>
-      </c>
-      <c r="B11" s="316"/>
-      <c r="C11" s="316"/>
-      <c r="D11" s="316"/>
-      <c r="E11" s="316"/>
-      <c r="F11" s="316"/>
-      <c r="G11" s="316"/>
-      <c r="H11" s="316"/>
+      <c r="A11" s="317" t="s">
+        <v>340</v>
+      </c>
+      <c r="B11" s="317"/>
+      <c r="C11" s="317"/>
+      <c r="D11" s="317"/>
+      <c r="E11" s="317"/>
+      <c r="F11" s="317"/>
+      <c r="G11" s="317"/>
+      <c r="H11" s="317"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="76" t="s">
@@ -35472,26 +35472,26 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="310"/>
-      <c r="B13" s="311"/>
-      <c r="C13" s="311"/>
-      <c r="D13" s="311"/>
-      <c r="E13" s="311"/>
-      <c r="F13" s="311"/>
-      <c r="G13" s="311"/>
-      <c r="H13" s="311"/>
+      <c r="A13" s="314"/>
+      <c r="B13" s="315"/>
+      <c r="C13" s="315"/>
+      <c r="D13" s="315"/>
+      <c r="E13" s="315"/>
+      <c r="F13" s="315"/>
+      <c r="G13" s="315"/>
+      <c r="H13" s="315"/>
     </row>
     <row r="14" spans="1:8" ht="93.75" customHeight="1">
-      <c r="A14" s="314" t="s">
-        <v>344</v>
-      </c>
-      <c r="B14" s="315"/>
-      <c r="C14" s="315"/>
-      <c r="D14" s="315"/>
-      <c r="E14" s="315"/>
-      <c r="F14" s="315"/>
-      <c r="G14" s="315"/>
-      <c r="H14" s="315"/>
+      <c r="A14" s="310" t="s">
+        <v>341</v>
+      </c>
+      <c r="B14" s="311"/>
+      <c r="C14" s="311"/>
+      <c r="D14" s="311"/>
+      <c r="E14" s="311"/>
+      <c r="F14" s="311"/>
+      <c r="G14" s="311"/>
+      <c r="H14" s="311"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -35556,7 +35556,7 @@
   </sheetPr>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="73" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="73" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -35581,11 +35581,11 @@
       <c r="D1" s="109"/>
       <c r="E1" s="109"/>
       <c r="F1" s="109"/>
-      <c r="G1" s="227" t="str">
+      <c r="G1" s="225" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="H1" s="228"/>
+      <c r="H1" s="226"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1">
       <c r="A2" s="106"/>
@@ -35594,11 +35594,11 @@
       <c r="D2" s="110"/>
       <c r="E2" s="110"/>
       <c r="F2" s="110"/>
-      <c r="G2" s="229">
+      <c r="G2" s="227">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="H2" s="230"/>
+      <c r="H2" s="228"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
@@ -35607,11 +35607,11 @@
       <c r="D3" s="111"/>
       <c r="E3" s="111"/>
       <c r="F3" s="111"/>
-      <c r="G3" s="231" t="str">
+      <c r="G3" s="229" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="H3" s="232"/>
+      <c r="H3" s="230"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1">
       <c r="B4" s="26"/>
@@ -35641,16 +35641,16 @@
       <c r="H7" s="127"/>
     </row>
     <row r="8" spans="1:15" ht="96" customHeight="1">
-      <c r="A8" s="233" t="s">
+      <c r="A8" s="231" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="233"/>
-      <c r="C8" s="233"/>
-      <c r="D8" s="233"/>
-      <c r="E8" s="233"/>
-      <c r="F8" s="233"/>
-      <c r="G8" s="233"/>
-      <c r="H8" s="233"/>
+      <c r="B8" s="231"/>
+      <c r="C8" s="231"/>
+      <c r="D8" s="231"/>
+      <c r="E8" s="231"/>
+      <c r="F8" s="231"/>
+      <c r="G8" s="231"/>
+      <c r="H8" s="231"/>
     </row>
     <row r="9" spans="1:15" ht="13.8" thickBot="1">
       <c r="A9" s="76" t="s">
@@ -35707,10 +35707,10 @@
       <c r="F11" s="124" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="225" t="s">
+      <c r="G11" s="232" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="234"/>
+      <c r="H11" s="233"/>
     </row>
     <row r="12" spans="1:15" ht="41.4" outlineLevel="2">
       <c r="A12" s="122" t="s">
@@ -35731,10 +35731,10 @@
       <c r="F12" s="123" t="s">
         <v>109</v>
       </c>
-      <c r="G12" s="225" t="s">
+      <c r="G12" s="232" t="s">
         <v>110</v>
       </c>
-      <c r="H12" s="226"/>
+      <c r="H12" s="234"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -35760,10 +35760,10 @@
         <v>113</v>
       </c>
       <c r="F13" s="124"/>
-      <c r="G13" s="225" t="s">
+      <c r="G13" s="232" t="s">
         <v>114</v>
       </c>
-      <c r="H13" s="226"/>
+      <c r="H13" s="234"/>
     </row>
     <row r="14" spans="1:15" s="4" customFormat="1" ht="27.6" outlineLevel="2">
       <c r="A14" s="122" t="s">
@@ -35784,10 +35784,10 @@
       <c r="F14" s="124" t="s">
         <v>118</v>
       </c>
-      <c r="G14" s="225" t="s">
+      <c r="G14" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="H14" s="226"/>
+      <c r="H14" s="234"/>
     </row>
     <row r="15" spans="1:15" s="4" customFormat="1" ht="41.4" outlineLevel="2">
       <c r="A15" s="122" t="s">
@@ -35808,10 +35808,10 @@
       <c r="F15" s="123" t="s">
         <v>123</v>
       </c>
-      <c r="G15" s="225" t="s">
+      <c r="G15" s="232" t="s">
         <v>124</v>
       </c>
-      <c r="H15" s="226"/>
+      <c r="H15" s="234"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -35839,10 +35839,10 @@
       <c r="F16" s="124" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="225" t="s">
+      <c r="G16" s="232" t="s">
         <v>129</v>
       </c>
-      <c r="H16" s="226"/>
+      <c r="H16" s="234"/>
     </row>
     <row r="17" spans="1:8" ht="41.4" outlineLevel="2">
       <c r="A17" s="122" t="s">
@@ -35863,10 +35863,10 @@
       <c r="F17" s="123" t="s">
         <v>133</v>
       </c>
-      <c r="G17" s="225" t="s">
+      <c r="G17" s="232" t="s">
         <v>134</v>
       </c>
-      <c r="H17" s="226"/>
+      <c r="H17" s="234"/>
     </row>
     <row r="18" spans="1:8" ht="41.4">
       <c r="A18" s="122" t="s">
@@ -35887,10 +35887,10 @@
       <c r="F18" s="123" t="s">
         <v>138</v>
       </c>
-      <c r="G18" s="225" t="s">
+      <c r="G18" s="232" t="s">
         <v>139</v>
       </c>
-      <c r="H18" s="226"/>
+      <c r="H18" s="234"/>
     </row>
     <row r="19" spans="1:8" ht="27.6">
       <c r="A19" s="122" t="s">
@@ -35911,10 +35911,10 @@
       <c r="F19" s="123" t="s">
         <v>143</v>
       </c>
-      <c r="G19" s="225" t="s">
+      <c r="G19" s="232" t="s">
         <v>144</v>
       </c>
-      <c r="H19" s="226"/>
+      <c r="H19" s="234"/>
     </row>
     <row r="20" spans="1:8" ht="27.6">
       <c r="A20" s="122" t="s">
@@ -35935,10 +35935,10 @@
       <c r="F20" s="123" t="s">
         <v>148</v>
       </c>
-      <c r="G20" s="225" t="s">
+      <c r="G20" s="232" t="s">
         <v>149</v>
       </c>
-      <c r="H20" s="226"/>
+      <c r="H20" s="234"/>
     </row>
     <row r="21" spans="1:8" ht="27.6">
       <c r="A21" s="122" t="s">
@@ -35959,10 +35959,10 @@
       <c r="F21" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="G21" s="225" t="s">
+      <c r="G21" s="232" t="s">
         <v>154</v>
       </c>
-      <c r="H21" s="226"/>
+      <c r="H21" s="234"/>
     </row>
     <row r="22" spans="1:8" ht="27.6">
       <c r="A22" s="122" t="s">
@@ -35983,10 +35983,10 @@
       <c r="F22" s="123" t="s">
         <v>158</v>
       </c>
-      <c r="G22" s="225" t="s">
+      <c r="G22" s="232" t="s">
         <v>159</v>
       </c>
-      <c r="H22" s="226"/>
+      <c r="H22" s="234"/>
     </row>
     <row r="23" spans="1:8" ht="27.6">
       <c r="A23" s="122" t="s">
@@ -36007,10 +36007,10 @@
       <c r="F23" s="124" t="s">
         <v>162</v>
       </c>
-      <c r="G23" s="225" t="s">
+      <c r="G23" s="232" t="s">
         <v>163</v>
       </c>
-      <c r="H23" s="226"/>
+      <c r="H23" s="234"/>
     </row>
     <row r="24" spans="1:8" ht="13.8">
       <c r="A24" s="122" t="s">
@@ -36031,10 +36031,10 @@
       <c r="F24" s="124" t="s">
         <v>167</v>
       </c>
-      <c r="G24" s="225" t="s">
+      <c r="G24" s="232" t="s">
         <v>168</v>
       </c>
-      <c r="H24" s="226"/>
+      <c r="H24" s="234"/>
     </row>
     <row r="25" spans="1:8" ht="27.6">
       <c r="A25" s="122" t="s">
@@ -36055,10 +36055,10 @@
       <c r="F25" s="124" t="s">
         <v>172</v>
       </c>
-      <c r="G25" s="225" t="s">
+      <c r="G25" s="232" t="s">
         <v>173</v>
       </c>
-      <c r="H25" s="226"/>
+      <c r="H25" s="234"/>
     </row>
     <row r="26" spans="1:8" ht="13.8">
       <c r="A26" s="122" t="s">
@@ -36079,10 +36079,10 @@
       <c r="F26" s="124" t="s">
         <v>177</v>
       </c>
-      <c r="G26" s="225" t="s">
+      <c r="G26" s="232" t="s">
         <v>178</v>
       </c>
-      <c r="H26" s="226"/>
+      <c r="H26" s="234"/>
     </row>
     <row r="27" spans="1:8" ht="27.6">
       <c r="A27" s="122" t="s">
@@ -36103,10 +36103,10 @@
       <c r="F27" s="123" t="s">
         <v>182</v>
       </c>
-      <c r="G27" s="225" t="s">
+      <c r="G27" s="232" t="s">
         <v>183</v>
       </c>
-      <c r="H27" s="226"/>
+      <c r="H27" s="234"/>
     </row>
     <row r="28" spans="1:8" ht="13.8">
       <c r="A28" s="122" t="s">
@@ -36127,10 +36127,10 @@
       <c r="F28" s="124" t="s">
         <v>187</v>
       </c>
-      <c r="G28" s="225" t="s">
+      <c r="G28" s="232" t="s">
         <v>188</v>
       </c>
-      <c r="H28" s="226"/>
+      <c r="H28" s="234"/>
     </row>
     <row r="29" spans="1:8" ht="13.8">
       <c r="A29" s="122" t="s">
@@ -36151,10 +36151,10 @@
       <c r="F29" s="124" t="s">
         <v>192</v>
       </c>
-      <c r="G29" s="225" t="s">
+      <c r="G29" s="232" t="s">
         <v>193</v>
       </c>
-      <c r="H29" s="226"/>
+      <c r="H29" s="234"/>
     </row>
     <row r="30" spans="1:8" ht="13.8">
       <c r="A30" s="122" t="s">
@@ -36169,26 +36169,11 @@
       </c>
       <c r="E30" s="124"/>
       <c r="F30" s="124"/>
-      <c r="G30" s="225"/>
-      <c r="H30" s="226"/>
+      <c r="G30" s="232"/>
+      <c r="H30" s="234"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
@@ -36198,6 +36183,21 @@
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
@@ -39412,11 +39412,11 @@
       <c r="F1" s="258"/>
       <c r="G1" s="258"/>
       <c r="H1" s="259"/>
-      <c r="I1" s="227" t="str">
+      <c r="I1" s="225" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="J1" s="228"/>
+      <c r="J1" s="226"/>
     </row>
     <row r="2" spans="1:60" ht="12.75" customHeight="1">
       <c r="A2" s="260"/>
@@ -39427,11 +39427,11 @@
       <c r="F2" s="261"/>
       <c r="G2" s="261"/>
       <c r="H2" s="262"/>
-      <c r="I2" s="229">
+      <c r="I2" s="227">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="J2" s="230"/>
+      <c r="J2" s="228"/>
     </row>
     <row r="3" spans="1:60" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="263"/>
@@ -39442,11 +39442,11 @@
       <c r="F3" s="264"/>
       <c r="G3" s="264"/>
       <c r="H3" s="265"/>
-      <c r="I3" s="231" t="str">
+      <c r="I3" s="229" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="J3" s="232"/>
+      <c r="J3" s="230"/>
     </row>
     <row r="4" spans="1:60" ht="12.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -39540,10 +39540,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="78" t="s">
+        <v>314</v>
+      </c>
+      <c r="C6" s="80" t="s">
         <v>315</v>
-      </c>
-      <c r="C6" s="80" t="s">
-        <v>316</v>
       </c>
       <c r="D6" s="81">
         <v>45908</v>
@@ -39551,7 +39551,7 @@
       <c r="E6" s="81"/>
       <c r="F6" s="81"/>
       <c r="G6" s="81" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H6" s="81">
         <v>45908</v>
@@ -39560,7 +39560,7 @@
         <v>45908</v>
       </c>
       <c r="J6" s="82" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
@@ -39618,7 +39618,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="78" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C7" s="80" t="s">
         <v>283</v>
@@ -39629,7 +39629,7 @@
       <c r="E7" s="81"/>
       <c r="F7" s="81"/>
       <c r="G7" s="80" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H7" s="81">
         <v>45910</v>
@@ -39694,7 +39694,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C8" s="79" t="s">
         <v>59</v>
@@ -39705,7 +39705,7 @@
       <c r="E8" s="85"/>
       <c r="F8" s="85"/>
       <c r="G8" s="79" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H8" s="86">
         <v>46003</v>
@@ -39783,7 +39783,7 @@
         <v>45950</v>
       </c>
       <c r="G9" s="81" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H9" s="81">
         <v>45950</v>
@@ -39848,7 +39848,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C10" s="79" t="s">
         <v>284</v>
@@ -39859,7 +39859,7 @@
       <c r="E10" s="85"/>
       <c r="F10" s="85"/>
       <c r="G10" s="79" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H10" s="85">
         <v>45970</v>

--- a/tools/fichier_excel/GroupeTD-GroupeProjet - ProjetInformatique.xlsx
+++ b/tools/fichier_excel/GroupeTD-GroupeProjet - ProjetInformatique.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03F8EED-88F1-4ED3-9782-083A990D8D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353ABFBA-60EB-4FFF-AEE9-AA3BAB1DAA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2112" windowWidth="23040" windowHeight="11568" tabRatio="894" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="894" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1a-Identification Projet" sheetId="39" r:id="rId1"/>
@@ -1279,10 +1279,10 @@
     <t>L'équipe doit travailler sur GihHub.  (Voir action numéro 1)</t>
   </si>
   <si>
-    <t>L'équipe doit communiquer sur whassap . (Voir action numéro 2)</t>
+    <t>L'équipe doit faire un bilan hebdomadaire tous les dimanches. (Voir action numéro 3)</t>
   </si>
   <si>
-    <t>L'équipe doit faire un bilan hebdomadaire tous les dimanches. (Voir action numéro 3)</t>
+    <t>L'équipe doit communiquer sur Whatsapp . (Voir action numéro 2)</t>
   </si>
 </sst>
 </file>
@@ -7604,9 +7604,39 @@
     <xf numFmtId="14" fontId="4" fillId="80" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="34" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="71" borderId="47" xfId="292" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="71" borderId="0" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="71" borderId="49" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="71" borderId="48" xfId="292" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="71" borderId="21" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="71" borderId="50" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -7631,35 +7661,11 @@
     <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="34" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="71" borderId="47" xfId="292" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="71" borderId="0" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="71" borderId="49" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="71" borderId="48" xfId="292" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="71" borderId="21" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="71" borderId="50" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="96" fillId="69" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -7682,13 +7688,7 @@
     <xf numFmtId="0" fontId="95" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="69" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7884,6 +7884,15 @@
     <xf numFmtId="0" fontId="8" fillId="71" borderId="21" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="100" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="68" borderId="56" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7904,15 +7913,6 @@
     </xf>
     <xf numFmtId="0" fontId="101" fillId="78" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="100" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -24783,11 +24783,11 @@
       <c r="I1" s="113"/>
       <c r="J1" s="113"/>
       <c r="K1" s="113"/>
-      <c r="L1" s="215" t="s">
+      <c r="L1" s="206" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="216"/>
-      <c r="N1" s="217"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="208"/>
       <c r="P1" s="24"/>
     </row>
     <row r="2" spans="2:16" ht="12.75" customHeight="1">
@@ -24801,11 +24801,11 @@
       <c r="I2" s="115"/>
       <c r="J2" s="115"/>
       <c r="K2" s="115"/>
-      <c r="L2" s="218">
+      <c r="L2" s="209">
         <v>45912</v>
       </c>
-      <c r="M2" s="219"/>
-      <c r="N2" s="220"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="211"/>
     </row>
     <row r="3" spans="2:16" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="116"/>
@@ -24818,34 +24818,34 @@
       <c r="I3" s="117"/>
       <c r="J3" s="117"/>
       <c r="K3" s="117"/>
-      <c r="L3" s="221" t="s">
+      <c r="L3" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="222"/>
-      <c r="N3" s="223"/>
+      <c r="M3" s="213"/>
+      <c r="N3" s="214"/>
       <c r="P3" s="24"/>
     </row>
     <row r="4" spans="2:16" ht="12.75" customHeight="1" thickBot="1">
       <c r="P4" s="25"/>
     </row>
     <row r="5" spans="2:16" ht="23.4" thickBot="1">
-      <c r="B5" s="206" t="s">
+      <c r="B5" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="206"/>
+      <c r="C5" s="215"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="224" t="s">
+      <c r="E5" s="216" t="s">
         <v>264</v>
       </c>
-      <c r="F5" s="224"/>
-      <c r="G5" s="224"/>
-      <c r="H5" s="224"/>
-      <c r="I5" s="224"/>
-      <c r="J5" s="224"/>
-      <c r="K5" s="224"/>
-      <c r="L5" s="224"/>
-      <c r="M5" s="224"/>
-      <c r="N5" s="224"/>
+      <c r="F5" s="216"/>
+      <c r="G5" s="216"/>
+      <c r="H5" s="216"/>
+      <c r="I5" s="216"/>
+      <c r="J5" s="216"/>
+      <c r="K5" s="216"/>
+      <c r="L5" s="216"/>
+      <c r="M5" s="216"/>
+      <c r="N5" s="216"/>
     </row>
     <row r="6" spans="2:16" ht="12" customHeight="1" thickBot="1">
       <c r="B6" s="7"/>
@@ -24862,23 +24862,23 @@
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="2:16" ht="18" thickBot="1">
-      <c r="B7" s="206" t="s">
+      <c r="B7" s="215" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="206"/>
+      <c r="C7" s="215"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="209" t="s">
+      <c r="E7" s="219" t="s">
         <v>263</v>
       </c>
-      <c r="F7" s="210"/>
-      <c r="G7" s="210"/>
-      <c r="H7" s="210"/>
-      <c r="I7" s="210"/>
-      <c r="J7" s="210"/>
-      <c r="K7" s="210"/>
-      <c r="L7" s="210"/>
-      <c r="M7" s="210"/>
-      <c r="N7" s="211"/>
+      <c r="F7" s="220"/>
+      <c r="G7" s="220"/>
+      <c r="H7" s="220"/>
+      <c r="I7" s="220"/>
+      <c r="J7" s="220"/>
+      <c r="K7" s="220"/>
+      <c r="L7" s="220"/>
+      <c r="M7" s="220"/>
+      <c r="N7" s="221"/>
     </row>
     <row r="8" spans="2:16" ht="9.6" customHeight="1" thickBot="1">
       <c r="B8" s="10"/>
@@ -24896,23 +24896,23 @@
       <c r="N8" s="12"/>
     </row>
     <row r="9" spans="2:16" ht="54.6" customHeight="1" thickBot="1">
-      <c r="B9" s="212" t="s">
+      <c r="B9" s="222" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="212"/>
+      <c r="C9" s="222"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="213" t="s">
+      <c r="E9" s="223" t="s">
         <v>277</v>
       </c>
-      <c r="F9" s="214"/>
-      <c r="G9" s="214"/>
-      <c r="H9" s="214"/>
-      <c r="I9" s="214"/>
-      <c r="J9" s="214"/>
-      <c r="K9" s="214"/>
-      <c r="L9" s="214"/>
-      <c r="M9" s="214"/>
-      <c r="N9" s="214"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="224"/>
+      <c r="I9" s="224"/>
+      <c r="J9" s="224"/>
+      <c r="K9" s="224"/>
+      <c r="L9" s="224"/>
+      <c r="M9" s="224"/>
+      <c r="N9" s="224"/>
     </row>
     <row r="10" spans="2:16" ht="10.95" customHeight="1" thickBot="1">
       <c r="B10" s="10"/>
@@ -24930,23 +24930,23 @@
       <c r="N10" s="12"/>
     </row>
     <row r="11" spans="2:16" ht="61.2" customHeight="1" thickBot="1">
-      <c r="B11" s="206" t="s">
+      <c r="B11" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="206"/>
+      <c r="C11" s="215"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="213" t="s">
+      <c r="E11" s="223" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="214"/>
-      <c r="G11" s="214"/>
-      <c r="H11" s="214"/>
-      <c r="I11" s="214"/>
-      <c r="J11" s="214"/>
-      <c r="K11" s="214"/>
-      <c r="L11" s="214"/>
-      <c r="M11" s="214"/>
-      <c r="N11" s="214"/>
+      <c r="F11" s="224"/>
+      <c r="G11" s="224"/>
+      <c r="H11" s="224"/>
+      <c r="I11" s="224"/>
+      <c r="J11" s="224"/>
+      <c r="K11" s="224"/>
+      <c r="L11" s="224"/>
+      <c r="M11" s="224"/>
+      <c r="N11" s="224"/>
     </row>
     <row r="12" spans="2:16" ht="10.95" customHeight="1" thickBot="1">
       <c r="B12" s="10"/>
@@ -24964,23 +24964,23 @@
       <c r="N12" s="12"/>
     </row>
     <row r="13" spans="2:16" ht="99" customHeight="1" thickBot="1">
-      <c r="B13" s="206" t="s">
+      <c r="B13" s="215" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="206"/>
+      <c r="C13" s="215"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="207" t="s">
+      <c r="E13" s="217" t="s">
         <v>265</v>
       </c>
-      <c r="F13" s="208"/>
-      <c r="G13" s="208"/>
-      <c r="H13" s="208"/>
-      <c r="I13" s="208"/>
-      <c r="J13" s="208"/>
-      <c r="K13" s="208"/>
-      <c r="L13" s="208"/>
-      <c r="M13" s="208"/>
-      <c r="N13" s="208"/>
+      <c r="F13" s="218"/>
+      <c r="G13" s="218"/>
+      <c r="H13" s="218"/>
+      <c r="I13" s="218"/>
+      <c r="J13" s="218"/>
+      <c r="K13" s="218"/>
+      <c r="L13" s="218"/>
+      <c r="M13" s="218"/>
+      <c r="N13" s="218"/>
     </row>
     <row r="14" spans="2:16" ht="73.5" customHeight="1">
       <c r="B14" s="13"/>
@@ -25004,11 +25004,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="13">
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:N5"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="E13:N13"/>
     <mergeCell ref="B7:C7"/>
@@ -25017,6 +25012,11 @@
     <mergeCell ref="E9:N9"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="E11:N11"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:N5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:N8 E10:N10 E12:N12" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -25039,7 +25039,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:F8"/>
+      <selection activeCell="B7" sqref="B7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
@@ -25070,11 +25070,11 @@
       <c r="G1" s="258"/>
       <c r="H1" s="258"/>
       <c r="I1" s="259"/>
-      <c r="J1" s="225" t="str">
+      <c r="J1" s="227" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="K1" s="226"/>
+      <c r="K1" s="228"/>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="261"/>
@@ -25086,11 +25086,11 @@
       <c r="G2" s="261"/>
       <c r="H2" s="261"/>
       <c r="I2" s="262"/>
-      <c r="J2" s="227">
+      <c r="J2" s="229">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="K2" s="228"/>
+      <c r="K2" s="230"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="264"/>
@@ -25102,11 +25102,11 @@
       <c r="G3" s="264"/>
       <c r="H3" s="264"/>
       <c r="I3" s="265"/>
-      <c r="J3" s="229" t="str">
+      <c r="J3" s="231" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="K3" s="230"/>
+      <c r="K3" s="232"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
       <c r="A4" s="26"/>
@@ -25159,7 +25159,7 @@
         <v>45908</v>
       </c>
       <c r="I6" s="173">
-        <v>49655</v>
+        <v>46003</v>
       </c>
       <c r="J6" s="92" t="s">
         <v>281</v>
@@ -25173,7 +25173,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="266" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C7" s="266"/>
       <c r="D7" s="266"/>
@@ -25186,7 +25186,7 @@
         <v>45910</v>
       </c>
       <c r="I7" s="173">
-        <v>49655</v>
+        <v>46003</v>
       </c>
       <c r="J7" s="92" t="s">
         <v>281</v>
@@ -25200,7 +25200,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="266" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C8" s="266"/>
       <c r="D8" s="266"/>
@@ -25213,7 +25213,7 @@
         <v>45936</v>
       </c>
       <c r="I8" s="173">
-        <v>49655</v>
+        <v>46003</v>
       </c>
       <c r="J8" s="92" t="s">
         <v>281</v>
@@ -25323,11 +25323,11 @@
       <c r="F1" s="271"/>
       <c r="G1" s="271"/>
       <c r="H1" s="272"/>
-      <c r="I1" s="225" t="str">
+      <c r="I1" s="227" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="J1" s="226"/>
+      <c r="J1" s="228"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1">
       <c r="A2" s="273"/>
@@ -25338,11 +25338,11 @@
       <c r="F2" s="274"/>
       <c r="G2" s="274"/>
       <c r="H2" s="275"/>
-      <c r="I2" s="227">
+      <c r="I2" s="229">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="J2" s="228"/>
+      <c r="J2" s="230"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="276"/>
@@ -25353,11 +25353,11 @@
       <c r="F3" s="277"/>
       <c r="G3" s="277"/>
       <c r="H3" s="278"/>
-      <c r="I3" s="229" t="str">
+      <c r="I3" s="231" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="J3" s="230"/>
+      <c r="J3" s="232"/>
     </row>
     <row r="4" spans="1:10" ht="13.8" thickBot="1">
       <c r="A4" s="41"/>
@@ -25906,31 +25906,31 @@
       </c>
       <c r="B1" s="280"/>
       <c r="C1" s="280"/>
-      <c r="D1" s="225" t="str">
+      <c r="D1" s="227" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="E1" s="226"/>
+      <c r="E1" s="228"/>
     </row>
     <row r="2" spans="1:12" ht="12.75" customHeight="1">
       <c r="A2" s="281"/>
       <c r="B2" s="282"/>
       <c r="C2" s="282"/>
-      <c r="D2" s="227">
+      <c r="D2" s="229">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="E2" s="228"/>
+      <c r="E2" s="230"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="283"/>
       <c r="B3" s="284"/>
       <c r="C3" s="284"/>
-      <c r="D3" s="229" t="str">
+      <c r="D3" s="231" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="E3" s="230"/>
+      <c r="E3" s="232"/>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -26487,14 +26487,14 @@
         <f>"PLANNING COURANT  au "&amp;TEXT(K2,"jj/mm/aaaa")</f>
         <v>PLANNING COURANT  au 25/00/Freitag</v>
       </c>
-      <c r="C1" s="300"/>
+      <c r="C1" s="303"/>
       <c r="D1" s="280"/>
       <c r="E1" s="280"/>
       <c r="F1" s="280"/>
       <c r="G1" s="280"/>
       <c r="H1" s="280"/>
       <c r="I1" s="280"/>
-      <c r="J1" s="301"/>
+      <c r="J1" s="304"/>
       <c r="K1" s="249" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
@@ -26511,7 +26511,7 @@
       <c r="G2" s="282"/>
       <c r="H2" s="282"/>
       <c r="I2" s="282"/>
-      <c r="J2" s="302"/>
+      <c r="J2" s="305"/>
       <c r="K2" s="238">
         <f>'1a-Identification Projet'!$L$2</f>
         <v>45912</v>
@@ -26530,7 +26530,7 @@
       <c r="G3" s="284"/>
       <c r="H3" s="284"/>
       <c r="I3" s="284"/>
-      <c r="J3" s="303"/>
+      <c r="J3" s="306"/>
       <c r="K3" s="241" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
@@ -26658,25 +26658,25 @@
     </row>
     <row r="7" spans="1:39" ht="24.6">
       <c r="A7"/>
-      <c r="C7" s="304" t="s">
+      <c r="C7" s="307" t="s">
         <v>266</v>
       </c>
-      <c r="D7" s="305"/>
-      <c r="E7" s="305"/>
-      <c r="F7" s="305"/>
-      <c r="G7" s="305"/>
-      <c r="H7" s="305"/>
-      <c r="I7" s="306"/>
+      <c r="D7" s="308"/>
+      <c r="E7" s="308"/>
+      <c r="F7" s="308"/>
+      <c r="G7" s="308"/>
+      <c r="H7" s="308"/>
+      <c r="I7" s="309"/>
       <c r="J7"/>
-      <c r="K7" s="304" t="s">
+      <c r="K7" s="307" t="s">
         <v>95</v>
       </c>
-      <c r="L7" s="305"/>
-      <c r="M7" s="305"/>
-      <c r="N7" s="305"/>
-      <c r="O7" s="305"/>
-      <c r="P7" s="305"/>
-      <c r="Q7" s="306"/>
+      <c r="L7" s="308"/>
+      <c r="M7" s="308"/>
+      <c r="N7" s="308"/>
+      <c r="O7" s="308"/>
+      <c r="P7" s="308"/>
+      <c r="Q7" s="309"/>
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
@@ -28153,28 +28153,28 @@
     </row>
     <row r="31" spans="1:39" ht="27" customHeight="1">
       <c r="A31"/>
-      <c r="C31" s="307">
+      <c r="C31" s="300">
         <v>21</v>
       </c>
-      <c r="D31" s="308" t="s">
+      <c r="D31" s="301" t="s">
         <v>243</v>
       </c>
-      <c r="E31" s="309">
+      <c r="E31" s="302">
         <v>46003</v>
       </c>
-      <c r="F31" s="309">
+      <c r="F31" s="302">
         <v>45943</v>
       </c>
       <c r="G31" s="161" t="s">
         <v>244</v>
       </c>
-      <c r="H31" s="308" t="s">
+      <c r="H31" s="301" t="s">
         <v>212</v>
       </c>
-      <c r="I31" s="307" t="s">
+      <c r="I31" s="300" t="s">
         <v>205</v>
       </c>
-      <c r="K31" s="307"/>
+      <c r="K31" s="300"/>
       <c r="L31" s="162"/>
       <c r="M31" s="163"/>
       <c r="N31" s="163"/>
@@ -28206,16 +28206,16 @@
     </row>
     <row r="32" spans="1:39" ht="27" customHeight="1">
       <c r="A32"/>
-      <c r="C32" s="307"/>
-      <c r="D32" s="308"/>
-      <c r="E32" s="309"/>
-      <c r="F32" s="309"/>
+      <c r="C32" s="300"/>
+      <c r="D32" s="301"/>
+      <c r="E32" s="302"/>
+      <c r="F32" s="302"/>
       <c r="G32" s="161" t="s">
         <v>245</v>
       </c>
-      <c r="H32" s="308"/>
-      <c r="I32" s="307"/>
-      <c r="K32" s="307"/>
+      <c r="H32" s="301"/>
+      <c r="I32" s="300"/>
+      <c r="K32" s="300"/>
       <c r="L32" s="162"/>
       <c r="M32" s="163"/>
       <c r="N32" s="163"/>
@@ -35317,6 +35317,12 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="13">
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="B1:J3"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="K7:Q7"/>
     <mergeCell ref="I31:I32"/>
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="C31:C32"/>
@@ -35324,12 +35330,6 @@
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="H31:H32"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="B1:J3"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="K7:Q7"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="83" firstPageNumber="0" orientation="landscape" r:id="rId1"/>
@@ -35387,11 +35387,11 @@
       <c r="D2" s="282"/>
       <c r="E2" s="282"/>
       <c r="F2" s="282"/>
-      <c r="G2" s="227">
+      <c r="G2" s="229">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="H2" s="228"/>
+      <c r="H2" s="230"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="283"/>
@@ -35400,11 +35400,11 @@
       <c r="D3" s="284"/>
       <c r="E3" s="284"/>
       <c r="F3" s="284"/>
-      <c r="G3" s="229" t="str">
+      <c r="G3" s="231" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="H3" s="230"/>
+      <c r="H3" s="232"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="B4" s="26"/>
@@ -35581,11 +35581,11 @@
       <c r="D1" s="109"/>
       <c r="E1" s="109"/>
       <c r="F1" s="109"/>
-      <c r="G1" s="225" t="str">
+      <c r="G1" s="227" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="H1" s="226"/>
+      <c r="H1" s="228"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1">
       <c r="A2" s="106"/>
@@ -35594,11 +35594,11 @@
       <c r="D2" s="110"/>
       <c r="E2" s="110"/>
       <c r="F2" s="110"/>
-      <c r="G2" s="227">
+      <c r="G2" s="229">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="H2" s="228"/>
+      <c r="H2" s="230"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
@@ -35607,11 +35607,11 @@
       <c r="D3" s="111"/>
       <c r="E3" s="111"/>
       <c r="F3" s="111"/>
-      <c r="G3" s="229" t="str">
+      <c r="G3" s="231" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="H3" s="230"/>
+      <c r="H3" s="232"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1">
       <c r="B4" s="26"/>
@@ -35641,16 +35641,16 @@
       <c r="H7" s="127"/>
     </row>
     <row r="8" spans="1:15" ht="96" customHeight="1">
-      <c r="A8" s="231" t="s">
+      <c r="A8" s="233" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="231"/>
-      <c r="C8" s="231"/>
-      <c r="D8" s="231"/>
-      <c r="E8" s="231"/>
-      <c r="F8" s="231"/>
-      <c r="G8" s="231"/>
-      <c r="H8" s="231"/>
+      <c r="B8" s="233"/>
+      <c r="C8" s="233"/>
+      <c r="D8" s="233"/>
+      <c r="E8" s="233"/>
+      <c r="F8" s="233"/>
+      <c r="G8" s="233"/>
+      <c r="H8" s="233"/>
     </row>
     <row r="9" spans="1:15" ht="13.8" thickBot="1">
       <c r="A9" s="76" t="s">
@@ -35707,10 +35707,10 @@
       <c r="F11" s="124" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="232" t="s">
+      <c r="G11" s="225" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="233"/>
+      <c r="H11" s="234"/>
     </row>
     <row r="12" spans="1:15" ht="41.4" outlineLevel="2">
       <c r="A12" s="122" t="s">
@@ -35731,10 +35731,10 @@
       <c r="F12" s="123" t="s">
         <v>109</v>
       </c>
-      <c r="G12" s="232" t="s">
+      <c r="G12" s="225" t="s">
         <v>110</v>
       </c>
-      <c r="H12" s="234"/>
+      <c r="H12" s="226"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -35760,10 +35760,10 @@
         <v>113</v>
       </c>
       <c r="F13" s="124"/>
-      <c r="G13" s="232" t="s">
+      <c r="G13" s="225" t="s">
         <v>114</v>
       </c>
-      <c r="H13" s="234"/>
+      <c r="H13" s="226"/>
     </row>
     <row r="14" spans="1:15" s="4" customFormat="1" ht="27.6" outlineLevel="2">
       <c r="A14" s="122" t="s">
@@ -35784,10 +35784,10 @@
       <c r="F14" s="124" t="s">
         <v>118</v>
       </c>
-      <c r="G14" s="232" t="s">
+      <c r="G14" s="225" t="s">
         <v>119</v>
       </c>
-      <c r="H14" s="234"/>
+      <c r="H14" s="226"/>
     </row>
     <row r="15" spans="1:15" s="4" customFormat="1" ht="41.4" outlineLevel="2">
       <c r="A15" s="122" t="s">
@@ -35808,10 +35808,10 @@
       <c r="F15" s="123" t="s">
         <v>123</v>
       </c>
-      <c r="G15" s="232" t="s">
+      <c r="G15" s="225" t="s">
         <v>124</v>
       </c>
-      <c r="H15" s="234"/>
+      <c r="H15" s="226"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -35839,10 +35839,10 @@
       <c r="F16" s="124" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="232" t="s">
+      <c r="G16" s="225" t="s">
         <v>129</v>
       </c>
-      <c r="H16" s="234"/>
+      <c r="H16" s="226"/>
     </row>
     <row r="17" spans="1:8" ht="41.4" outlineLevel="2">
       <c r="A17" s="122" t="s">
@@ -35863,10 +35863,10 @@
       <c r="F17" s="123" t="s">
         <v>133</v>
       </c>
-      <c r="G17" s="232" t="s">
+      <c r="G17" s="225" t="s">
         <v>134</v>
       </c>
-      <c r="H17" s="234"/>
+      <c r="H17" s="226"/>
     </row>
     <row r="18" spans="1:8" ht="41.4">
       <c r="A18" s="122" t="s">
@@ -35887,10 +35887,10 @@
       <c r="F18" s="123" t="s">
         <v>138</v>
       </c>
-      <c r="G18" s="232" t="s">
+      <c r="G18" s="225" t="s">
         <v>139</v>
       </c>
-      <c r="H18" s="234"/>
+      <c r="H18" s="226"/>
     </row>
     <row r="19" spans="1:8" ht="27.6">
       <c r="A19" s="122" t="s">
@@ -35911,10 +35911,10 @@
       <c r="F19" s="123" t="s">
         <v>143</v>
       </c>
-      <c r="G19" s="232" t="s">
+      <c r="G19" s="225" t="s">
         <v>144</v>
       </c>
-      <c r="H19" s="234"/>
+      <c r="H19" s="226"/>
     </row>
     <row r="20" spans="1:8" ht="27.6">
       <c r="A20" s="122" t="s">
@@ -35935,10 +35935,10 @@
       <c r="F20" s="123" t="s">
         <v>148</v>
       </c>
-      <c r="G20" s="232" t="s">
+      <c r="G20" s="225" t="s">
         <v>149</v>
       </c>
-      <c r="H20" s="234"/>
+      <c r="H20" s="226"/>
     </row>
     <row r="21" spans="1:8" ht="27.6">
       <c r="A21" s="122" t="s">
@@ -35959,10 +35959,10 @@
       <c r="F21" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="G21" s="232" t="s">
+      <c r="G21" s="225" t="s">
         <v>154</v>
       </c>
-      <c r="H21" s="234"/>
+      <c r="H21" s="226"/>
     </row>
     <row r="22" spans="1:8" ht="27.6">
       <c r="A22" s="122" t="s">
@@ -35983,10 +35983,10 @@
       <c r="F22" s="123" t="s">
         <v>158</v>
       </c>
-      <c r="G22" s="232" t="s">
+      <c r="G22" s="225" t="s">
         <v>159</v>
       </c>
-      <c r="H22" s="234"/>
+      <c r="H22" s="226"/>
     </row>
     <row r="23" spans="1:8" ht="27.6">
       <c r="A23" s="122" t="s">
@@ -36007,10 +36007,10 @@
       <c r="F23" s="124" t="s">
         <v>162</v>
       </c>
-      <c r="G23" s="232" t="s">
+      <c r="G23" s="225" t="s">
         <v>163</v>
       </c>
-      <c r="H23" s="234"/>
+      <c r="H23" s="226"/>
     </row>
     <row r="24" spans="1:8" ht="13.8">
       <c r="A24" s="122" t="s">
@@ -36031,10 +36031,10 @@
       <c r="F24" s="124" t="s">
         <v>167</v>
       </c>
-      <c r="G24" s="232" t="s">
+      <c r="G24" s="225" t="s">
         <v>168</v>
       </c>
-      <c r="H24" s="234"/>
+      <c r="H24" s="226"/>
     </row>
     <row r="25" spans="1:8" ht="27.6">
       <c r="A25" s="122" t="s">
@@ -36055,10 +36055,10 @@
       <c r="F25" s="124" t="s">
         <v>172</v>
       </c>
-      <c r="G25" s="232" t="s">
+      <c r="G25" s="225" t="s">
         <v>173</v>
       </c>
-      <c r="H25" s="234"/>
+      <c r="H25" s="226"/>
     </row>
     <row r="26" spans="1:8" ht="13.8">
       <c r="A26" s="122" t="s">
@@ -36079,10 +36079,10 @@
       <c r="F26" s="124" t="s">
         <v>177</v>
       </c>
-      <c r="G26" s="232" t="s">
+      <c r="G26" s="225" t="s">
         <v>178</v>
       </c>
-      <c r="H26" s="234"/>
+      <c r="H26" s="226"/>
     </row>
     <row r="27" spans="1:8" ht="27.6">
       <c r="A27" s="122" t="s">
@@ -36103,10 +36103,10 @@
       <c r="F27" s="123" t="s">
         <v>182</v>
       </c>
-      <c r="G27" s="232" t="s">
+      <c r="G27" s="225" t="s">
         <v>183</v>
       </c>
-      <c r="H27" s="234"/>
+      <c r="H27" s="226"/>
     </row>
     <row r="28" spans="1:8" ht="13.8">
       <c r="A28" s="122" t="s">
@@ -36127,10 +36127,10 @@
       <c r="F28" s="124" t="s">
         <v>187</v>
       </c>
-      <c r="G28" s="232" t="s">
+      <c r="G28" s="225" t="s">
         <v>188</v>
       </c>
-      <c r="H28" s="234"/>
+      <c r="H28" s="226"/>
     </row>
     <row r="29" spans="1:8" ht="13.8">
       <c r="A29" s="122" t="s">
@@ -36151,10 +36151,10 @@
       <c r="F29" s="124" t="s">
         <v>192</v>
       </c>
-      <c r="G29" s="232" t="s">
+      <c r="G29" s="225" t="s">
         <v>193</v>
       </c>
-      <c r="H29" s="234"/>
+      <c r="H29" s="226"/>
     </row>
     <row r="30" spans="1:8" ht="13.8">
       <c r="A30" s="122" t="s">
@@ -36169,11 +36169,26 @@
       </c>
       <c r="E30" s="124"/>
       <c r="F30" s="124"/>
-      <c r="G30" s="232"/>
-      <c r="H30" s="234"/>
+      <c r="G30" s="225"/>
+      <c r="H30" s="226"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
@@ -36183,21 +36198,6 @@
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
@@ -39382,7 +39382,7 @@
   <dimension ref="A1:BH19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="82" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
@@ -39412,11 +39412,11 @@
       <c r="F1" s="258"/>
       <c r="G1" s="258"/>
       <c r="H1" s="259"/>
-      <c r="I1" s="225" t="str">
+      <c r="I1" s="227" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="J1" s="226"/>
+      <c r="J1" s="228"/>
     </row>
     <row r="2" spans="1:60" ht="12.75" customHeight="1">
       <c r="A2" s="260"/>
@@ -39427,11 +39427,11 @@
       <c r="F2" s="261"/>
       <c r="G2" s="261"/>
       <c r="H2" s="262"/>
-      <c r="I2" s="227">
+      <c r="I2" s="229">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="J2" s="228"/>
+      <c r="J2" s="230"/>
     </row>
     <row r="3" spans="1:60" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="263"/>
@@ -39442,11 +39442,11 @@
       <c r="F3" s="264"/>
       <c r="G3" s="264"/>
       <c r="H3" s="265"/>
-      <c r="I3" s="229" t="str">
+      <c r="I3" s="231" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="J3" s="230"/>
+      <c r="J3" s="232"/>
     </row>
     <row r="4" spans="1:60" ht="12.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>

--- a/tools/fichier_excel/GroupeTD-GroupeProjet - ProjetInformatique.xlsx
+++ b/tools/fichier_excel/GroupeTD-GroupeProjet - ProjetInformatique.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353ABFBA-60EB-4FFF-AEE9-AA3BAB1DAA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF387343-2435-46C3-9F35-ED1C6D1CFB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="894" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7604,6 +7604,33 @@
     <xf numFmtId="14" fontId="4" fillId="80" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="73" borderId="51" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="73" borderId="25" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="73" borderId="52" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -7631,64 +7658,37 @@
     <xf numFmtId="14" fontId="5" fillId="71" borderId="50" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="73" borderId="51" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="73" borderId="25" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="73" borderId="52" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="68" borderId="47" xfId="958" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="68" borderId="49" xfId="958" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="48" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="50" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="96" fillId="69" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="96" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="68" borderId="47" xfId="958" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="68" borderId="49" xfId="958" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="48" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="50" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7884,6 +7884,27 @@
     <xf numFmtId="0" fontId="8" fillId="71" borderId="21" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="68" borderId="56" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="78" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="78" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="78" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="100" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -7892,27 +7913,6 @@
     </xf>
     <xf numFmtId="14" fontId="100" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="56" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="78" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="78" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="78" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -24783,11 +24783,11 @@
       <c r="I1" s="113"/>
       <c r="J1" s="113"/>
       <c r="K1" s="113"/>
-      <c r="L1" s="206" t="s">
+      <c r="L1" s="215" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="207"/>
-      <c r="N1" s="208"/>
+      <c r="M1" s="216"/>
+      <c r="N1" s="217"/>
       <c r="P1" s="24"/>
     </row>
     <row r="2" spans="2:16" ht="12.75" customHeight="1">
@@ -24801,11 +24801,11 @@
       <c r="I2" s="115"/>
       <c r="J2" s="115"/>
       <c r="K2" s="115"/>
-      <c r="L2" s="209">
+      <c r="L2" s="218">
         <v>45912</v>
       </c>
-      <c r="M2" s="210"/>
-      <c r="N2" s="211"/>
+      <c r="M2" s="219"/>
+      <c r="N2" s="220"/>
     </row>
     <row r="3" spans="2:16" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="116"/>
@@ -24818,34 +24818,34 @@
       <c r="I3" s="117"/>
       <c r="J3" s="117"/>
       <c r="K3" s="117"/>
-      <c r="L3" s="212" t="s">
+      <c r="L3" s="221" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="213"/>
-      <c r="N3" s="214"/>
+      <c r="M3" s="222"/>
+      <c r="N3" s="223"/>
       <c r="P3" s="24"/>
     </row>
     <row r="4" spans="2:16" ht="12.75" customHeight="1" thickBot="1">
       <c r="P4" s="25"/>
     </row>
     <row r="5" spans="2:16" ht="23.4" thickBot="1">
-      <c r="B5" s="215" t="s">
+      <c r="B5" s="206" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="215"/>
+      <c r="C5" s="206"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="216" t="s">
+      <c r="E5" s="224" t="s">
         <v>264</v>
       </c>
-      <c r="F5" s="216"/>
-      <c r="G5" s="216"/>
-      <c r="H5" s="216"/>
-      <c r="I5" s="216"/>
-      <c r="J5" s="216"/>
-      <c r="K5" s="216"/>
-      <c r="L5" s="216"/>
-      <c r="M5" s="216"/>
-      <c r="N5" s="216"/>
+      <c r="F5" s="224"/>
+      <c r="G5" s="224"/>
+      <c r="H5" s="224"/>
+      <c r="I5" s="224"/>
+      <c r="J5" s="224"/>
+      <c r="K5" s="224"/>
+      <c r="L5" s="224"/>
+      <c r="M5" s="224"/>
+      <c r="N5" s="224"/>
     </row>
     <row r="6" spans="2:16" ht="12" customHeight="1" thickBot="1">
       <c r="B6" s="7"/>
@@ -24862,23 +24862,23 @@
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="2:16" ht="18" thickBot="1">
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="206" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="215"/>
+      <c r="C7" s="206"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="219" t="s">
+      <c r="E7" s="209" t="s">
         <v>263</v>
       </c>
-      <c r="F7" s="220"/>
-      <c r="G7" s="220"/>
-      <c r="H7" s="220"/>
-      <c r="I7" s="220"/>
-      <c r="J7" s="220"/>
-      <c r="K7" s="220"/>
-      <c r="L7" s="220"/>
-      <c r="M7" s="220"/>
-      <c r="N7" s="221"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="210"/>
+      <c r="H7" s="210"/>
+      <c r="I7" s="210"/>
+      <c r="J7" s="210"/>
+      <c r="K7" s="210"/>
+      <c r="L7" s="210"/>
+      <c r="M7" s="210"/>
+      <c r="N7" s="211"/>
     </row>
     <row r="8" spans="2:16" ht="9.6" customHeight="1" thickBot="1">
       <c r="B8" s="10"/>
@@ -24896,23 +24896,23 @@
       <c r="N8" s="12"/>
     </row>
     <row r="9" spans="2:16" ht="54.6" customHeight="1" thickBot="1">
-      <c r="B9" s="222" t="s">
+      <c r="B9" s="212" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="222"/>
+      <c r="C9" s="212"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="223" t="s">
+      <c r="E9" s="213" t="s">
         <v>277</v>
       </c>
-      <c r="F9" s="224"/>
-      <c r="G9" s="224"/>
-      <c r="H9" s="224"/>
-      <c r="I9" s="224"/>
-      <c r="J9" s="224"/>
-      <c r="K9" s="224"/>
-      <c r="L9" s="224"/>
-      <c r="M9" s="224"/>
-      <c r="N9" s="224"/>
+      <c r="F9" s="214"/>
+      <c r="G9" s="214"/>
+      <c r="H9" s="214"/>
+      <c r="I9" s="214"/>
+      <c r="J9" s="214"/>
+      <c r="K9" s="214"/>
+      <c r="L9" s="214"/>
+      <c r="M9" s="214"/>
+      <c r="N9" s="214"/>
     </row>
     <row r="10" spans="2:16" ht="10.95" customHeight="1" thickBot="1">
       <c r="B10" s="10"/>
@@ -24930,23 +24930,23 @@
       <c r="N10" s="12"/>
     </row>
     <row r="11" spans="2:16" ht="61.2" customHeight="1" thickBot="1">
-      <c r="B11" s="215" t="s">
+      <c r="B11" s="206" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="215"/>
+      <c r="C11" s="206"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="223" t="s">
+      <c r="E11" s="213" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="224"/>
-      <c r="G11" s="224"/>
-      <c r="H11" s="224"/>
-      <c r="I11" s="224"/>
-      <c r="J11" s="224"/>
-      <c r="K11" s="224"/>
-      <c r="L11" s="224"/>
-      <c r="M11" s="224"/>
-      <c r="N11" s="224"/>
+      <c r="F11" s="214"/>
+      <c r="G11" s="214"/>
+      <c r="H11" s="214"/>
+      <c r="I11" s="214"/>
+      <c r="J11" s="214"/>
+      <c r="K11" s="214"/>
+      <c r="L11" s="214"/>
+      <c r="M11" s="214"/>
+      <c r="N11" s="214"/>
     </row>
     <row r="12" spans="2:16" ht="10.95" customHeight="1" thickBot="1">
       <c r="B12" s="10"/>
@@ -24964,23 +24964,23 @@
       <c r="N12" s="12"/>
     </row>
     <row r="13" spans="2:16" ht="99" customHeight="1" thickBot="1">
-      <c r="B13" s="215" t="s">
+      <c r="B13" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="215"/>
+      <c r="C13" s="206"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="217" t="s">
+      <c r="E13" s="207" t="s">
         <v>265</v>
       </c>
-      <c r="F13" s="218"/>
-      <c r="G13" s="218"/>
-      <c r="H13" s="218"/>
-      <c r="I13" s="218"/>
-      <c r="J13" s="218"/>
-      <c r="K13" s="218"/>
-      <c r="L13" s="218"/>
-      <c r="M13" s="218"/>
-      <c r="N13" s="218"/>
+      <c r="F13" s="208"/>
+      <c r="G13" s="208"/>
+      <c r="H13" s="208"/>
+      <c r="I13" s="208"/>
+      <c r="J13" s="208"/>
+      <c r="K13" s="208"/>
+      <c r="L13" s="208"/>
+      <c r="M13" s="208"/>
+      <c r="N13" s="208"/>
     </row>
     <row r="14" spans="2:16" ht="73.5" customHeight="1">
       <c r="B14" s="13"/>
@@ -25004,6 +25004,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="13">
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:N5"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="E13:N13"/>
     <mergeCell ref="B7:C7"/>
@@ -25012,11 +25017,6 @@
     <mergeCell ref="E9:N9"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="E11:N11"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:N5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:N8 E10:N10 E12:N12" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -25070,11 +25070,11 @@
       <c r="G1" s="258"/>
       <c r="H1" s="258"/>
       <c r="I1" s="259"/>
-      <c r="J1" s="227" t="str">
+      <c r="J1" s="225" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="K1" s="228"/>
+      <c r="K1" s="226"/>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="261"/>
@@ -25086,11 +25086,11 @@
       <c r="G2" s="261"/>
       <c r="H2" s="261"/>
       <c r="I2" s="262"/>
-      <c r="J2" s="229">
+      <c r="J2" s="227">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="K2" s="230"/>
+      <c r="K2" s="228"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="264"/>
@@ -25102,11 +25102,11 @@
       <c r="G3" s="264"/>
       <c r="H3" s="264"/>
       <c r="I3" s="265"/>
-      <c r="J3" s="231" t="str">
+      <c r="J3" s="229" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="K3" s="232"/>
+      <c r="K3" s="230"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
       <c r="A4" s="26"/>
@@ -25323,11 +25323,11 @@
       <c r="F1" s="271"/>
       <c r="G1" s="271"/>
       <c r="H1" s="272"/>
-      <c r="I1" s="227" t="str">
+      <c r="I1" s="225" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="J1" s="228"/>
+      <c r="J1" s="226"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1">
       <c r="A2" s="273"/>
@@ -25338,11 +25338,11 @@
       <c r="F2" s="274"/>
       <c r="G2" s="274"/>
       <c r="H2" s="275"/>
-      <c r="I2" s="229">
+      <c r="I2" s="227">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="J2" s="230"/>
+      <c r="J2" s="228"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="276"/>
@@ -25353,11 +25353,11 @@
       <c r="F3" s="277"/>
       <c r="G3" s="277"/>
       <c r="H3" s="278"/>
-      <c r="I3" s="231" t="str">
+      <c r="I3" s="229" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="J3" s="232"/>
+      <c r="J3" s="230"/>
     </row>
     <row r="4" spans="1:10" ht="13.8" thickBot="1">
       <c r="A4" s="41"/>
@@ -25906,31 +25906,31 @@
       </c>
       <c r="B1" s="280"/>
       <c r="C1" s="280"/>
-      <c r="D1" s="227" t="str">
+      <c r="D1" s="225" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="E1" s="228"/>
+      <c r="E1" s="226"/>
     </row>
     <row r="2" spans="1:12" ht="12.75" customHeight="1">
       <c r="A2" s="281"/>
       <c r="B2" s="282"/>
       <c r="C2" s="282"/>
-      <c r="D2" s="229">
+      <c r="D2" s="227">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="E2" s="230"/>
+      <c r="E2" s="228"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="283"/>
       <c r="B3" s="284"/>
       <c r="C3" s="284"/>
-      <c r="D3" s="231" t="str">
+      <c r="D3" s="229" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="E3" s="232"/>
+      <c r="E3" s="230"/>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -26487,14 +26487,14 @@
         <f>"PLANNING COURANT  au "&amp;TEXT(K2,"jj/mm/aaaa")</f>
         <v>PLANNING COURANT  au 25/00/Freitag</v>
       </c>
-      <c r="C1" s="303"/>
+      <c r="C1" s="300"/>
       <c r="D1" s="280"/>
       <c r="E1" s="280"/>
       <c r="F1" s="280"/>
       <c r="G1" s="280"/>
       <c r="H1" s="280"/>
       <c r="I1" s="280"/>
-      <c r="J1" s="304"/>
+      <c r="J1" s="301"/>
       <c r="K1" s="249" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
@@ -26511,7 +26511,7 @@
       <c r="G2" s="282"/>
       <c r="H2" s="282"/>
       <c r="I2" s="282"/>
-      <c r="J2" s="305"/>
+      <c r="J2" s="302"/>
       <c r="K2" s="238">
         <f>'1a-Identification Projet'!$L$2</f>
         <v>45912</v>
@@ -26530,7 +26530,7 @@
       <c r="G3" s="284"/>
       <c r="H3" s="284"/>
       <c r="I3" s="284"/>
-      <c r="J3" s="306"/>
+      <c r="J3" s="303"/>
       <c r="K3" s="241" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
@@ -26658,25 +26658,25 @@
     </row>
     <row r="7" spans="1:39" ht="24.6">
       <c r="A7"/>
-      <c r="C7" s="307" t="s">
+      <c r="C7" s="304" t="s">
         <v>266</v>
       </c>
-      <c r="D7" s="308"/>
-      <c r="E7" s="308"/>
-      <c r="F7" s="308"/>
-      <c r="G7" s="308"/>
-      <c r="H7" s="308"/>
-      <c r="I7" s="309"/>
+      <c r="D7" s="305"/>
+      <c r="E7" s="305"/>
+      <c r="F7" s="305"/>
+      <c r="G7" s="305"/>
+      <c r="H7" s="305"/>
+      <c r="I7" s="306"/>
       <c r="J7"/>
-      <c r="K7" s="307" t="s">
+      <c r="K7" s="304" t="s">
         <v>95</v>
       </c>
-      <c r="L7" s="308"/>
-      <c r="M7" s="308"/>
-      <c r="N7" s="308"/>
-      <c r="O7" s="308"/>
-      <c r="P7" s="308"/>
-      <c r="Q7" s="309"/>
+      <c r="L7" s="305"/>
+      <c r="M7" s="305"/>
+      <c r="N7" s="305"/>
+      <c r="O7" s="305"/>
+      <c r="P7" s="305"/>
+      <c r="Q7" s="306"/>
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
@@ -28153,28 +28153,28 @@
     </row>
     <row r="31" spans="1:39" ht="27" customHeight="1">
       <c r="A31"/>
-      <c r="C31" s="300">
+      <c r="C31" s="307">
         <v>21</v>
       </c>
-      <c r="D31" s="301" t="s">
+      <c r="D31" s="308" t="s">
         <v>243</v>
       </c>
-      <c r="E31" s="302">
+      <c r="E31" s="309">
         <v>46003</v>
       </c>
-      <c r="F31" s="302">
+      <c r="F31" s="309">
         <v>45943</v>
       </c>
       <c r="G31" s="161" t="s">
         <v>244</v>
       </c>
-      <c r="H31" s="301" t="s">
+      <c r="H31" s="308" t="s">
         <v>212</v>
       </c>
-      <c r="I31" s="300" t="s">
+      <c r="I31" s="307" t="s">
         <v>205</v>
       </c>
-      <c r="K31" s="300"/>
+      <c r="K31" s="307"/>
       <c r="L31" s="162"/>
       <c r="M31" s="163"/>
       <c r="N31" s="163"/>
@@ -28206,16 +28206,16 @@
     </row>
     <row r="32" spans="1:39" ht="27" customHeight="1">
       <c r="A32"/>
-      <c r="C32" s="300"/>
-      <c r="D32" s="301"/>
-      <c r="E32" s="302"/>
-      <c r="F32" s="302"/>
+      <c r="C32" s="307"/>
+      <c r="D32" s="308"/>
+      <c r="E32" s="309"/>
+      <c r="F32" s="309"/>
       <c r="G32" s="161" t="s">
         <v>245</v>
       </c>
-      <c r="H32" s="301"/>
-      <c r="I32" s="300"/>
-      <c r="K32" s="300"/>
+      <c r="H32" s="308"/>
+      <c r="I32" s="307"/>
+      <c r="K32" s="307"/>
       <c r="L32" s="162"/>
       <c r="M32" s="163"/>
       <c r="N32" s="163"/>
@@ -35317,12 +35317,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="13">
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="B1:J3"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="K7:Q7"/>
     <mergeCell ref="I31:I32"/>
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="C31:C32"/>
@@ -35330,6 +35324,12 @@
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="H31:H32"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="B1:J3"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="K7:Q7"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="83" firstPageNumber="0" orientation="landscape" r:id="rId1"/>
@@ -35387,11 +35387,11 @@
       <c r="D2" s="282"/>
       <c r="E2" s="282"/>
       <c r="F2" s="282"/>
-      <c r="G2" s="229">
+      <c r="G2" s="227">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="H2" s="230"/>
+      <c r="H2" s="228"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="283"/>
@@ -35400,11 +35400,11 @@
       <c r="D3" s="284"/>
       <c r="E3" s="284"/>
       <c r="F3" s="284"/>
-      <c r="G3" s="231" t="str">
+      <c r="G3" s="229" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="H3" s="232"/>
+      <c r="H3" s="230"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="B4" s="26"/>
@@ -35581,11 +35581,11 @@
       <c r="D1" s="109"/>
       <c r="E1" s="109"/>
       <c r="F1" s="109"/>
-      <c r="G1" s="227" t="str">
+      <c r="G1" s="225" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="H1" s="228"/>
+      <c r="H1" s="226"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1">
       <c r="A2" s="106"/>
@@ -35594,11 +35594,11 @@
       <c r="D2" s="110"/>
       <c r="E2" s="110"/>
       <c r="F2" s="110"/>
-      <c r="G2" s="229">
+      <c r="G2" s="227">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="H2" s="230"/>
+      <c r="H2" s="228"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
@@ -35607,11 +35607,11 @@
       <c r="D3" s="111"/>
       <c r="E3" s="111"/>
       <c r="F3" s="111"/>
-      <c r="G3" s="231" t="str">
+      <c r="G3" s="229" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="H3" s="232"/>
+      <c r="H3" s="230"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1">
       <c r="B4" s="26"/>
@@ -35641,16 +35641,16 @@
       <c r="H7" s="127"/>
     </row>
     <row r="8" spans="1:15" ht="96" customHeight="1">
-      <c r="A8" s="233" t="s">
+      <c r="A8" s="231" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="233"/>
-      <c r="C8" s="233"/>
-      <c r="D8" s="233"/>
-      <c r="E8" s="233"/>
-      <c r="F8" s="233"/>
-      <c r="G8" s="233"/>
-      <c r="H8" s="233"/>
+      <c r="B8" s="231"/>
+      <c r="C8" s="231"/>
+      <c r="D8" s="231"/>
+      <c r="E8" s="231"/>
+      <c r="F8" s="231"/>
+      <c r="G8" s="231"/>
+      <c r="H8" s="231"/>
     </row>
     <row r="9" spans="1:15" ht="13.8" thickBot="1">
       <c r="A9" s="76" t="s">
@@ -35707,10 +35707,10 @@
       <c r="F11" s="124" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="225" t="s">
+      <c r="G11" s="232" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="234"/>
+      <c r="H11" s="233"/>
     </row>
     <row r="12" spans="1:15" ht="41.4" outlineLevel="2">
       <c r="A12" s="122" t="s">
@@ -35731,10 +35731,10 @@
       <c r="F12" s="123" t="s">
         <v>109</v>
       </c>
-      <c r="G12" s="225" t="s">
+      <c r="G12" s="232" t="s">
         <v>110</v>
       </c>
-      <c r="H12" s="226"/>
+      <c r="H12" s="234"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -35760,10 +35760,10 @@
         <v>113</v>
       </c>
       <c r="F13" s="124"/>
-      <c r="G13" s="225" t="s">
+      <c r="G13" s="232" t="s">
         <v>114</v>
       </c>
-      <c r="H13" s="226"/>
+      <c r="H13" s="234"/>
     </row>
     <row r="14" spans="1:15" s="4" customFormat="1" ht="27.6" outlineLevel="2">
       <c r="A14" s="122" t="s">
@@ -35784,10 +35784,10 @@
       <c r="F14" s="124" t="s">
         <v>118</v>
       </c>
-      <c r="G14" s="225" t="s">
+      <c r="G14" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="H14" s="226"/>
+      <c r="H14" s="234"/>
     </row>
     <row r="15" spans="1:15" s="4" customFormat="1" ht="41.4" outlineLevel="2">
       <c r="A15" s="122" t="s">
@@ -35808,10 +35808,10 @@
       <c r="F15" s="123" t="s">
         <v>123</v>
       </c>
-      <c r="G15" s="225" t="s">
+      <c r="G15" s="232" t="s">
         <v>124</v>
       </c>
-      <c r="H15" s="226"/>
+      <c r="H15" s="234"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -35839,10 +35839,10 @@
       <c r="F16" s="124" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="225" t="s">
+      <c r="G16" s="232" t="s">
         <v>129</v>
       </c>
-      <c r="H16" s="226"/>
+      <c r="H16" s="234"/>
     </row>
     <row r="17" spans="1:8" ht="41.4" outlineLevel="2">
       <c r="A17" s="122" t="s">
@@ -35863,10 +35863,10 @@
       <c r="F17" s="123" t="s">
         <v>133</v>
       </c>
-      <c r="G17" s="225" t="s">
+      <c r="G17" s="232" t="s">
         <v>134</v>
       </c>
-      <c r="H17" s="226"/>
+      <c r="H17" s="234"/>
     </row>
     <row r="18" spans="1:8" ht="41.4">
       <c r="A18" s="122" t="s">
@@ -35887,10 +35887,10 @@
       <c r="F18" s="123" t="s">
         <v>138</v>
       </c>
-      <c r="G18" s="225" t="s">
+      <c r="G18" s="232" t="s">
         <v>139</v>
       </c>
-      <c r="H18" s="226"/>
+      <c r="H18" s="234"/>
     </row>
     <row r="19" spans="1:8" ht="27.6">
       <c r="A19" s="122" t="s">
@@ -35911,10 +35911,10 @@
       <c r="F19" s="123" t="s">
         <v>143</v>
       </c>
-      <c r="G19" s="225" t="s">
+      <c r="G19" s="232" t="s">
         <v>144</v>
       </c>
-      <c r="H19" s="226"/>
+      <c r="H19" s="234"/>
     </row>
     <row r="20" spans="1:8" ht="27.6">
       <c r="A20" s="122" t="s">
@@ -35935,10 +35935,10 @@
       <c r="F20" s="123" t="s">
         <v>148</v>
       </c>
-      <c r="G20" s="225" t="s">
+      <c r="G20" s="232" t="s">
         <v>149</v>
       </c>
-      <c r="H20" s="226"/>
+      <c r="H20" s="234"/>
     </row>
     <row r="21" spans="1:8" ht="27.6">
       <c r="A21" s="122" t="s">
@@ -35959,10 +35959,10 @@
       <c r="F21" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="G21" s="225" t="s">
+      <c r="G21" s="232" t="s">
         <v>154</v>
       </c>
-      <c r="H21" s="226"/>
+      <c r="H21" s="234"/>
     </row>
     <row r="22" spans="1:8" ht="27.6">
       <c r="A22" s="122" t="s">
@@ -35983,10 +35983,10 @@
       <c r="F22" s="123" t="s">
         <v>158</v>
       </c>
-      <c r="G22" s="225" t="s">
+      <c r="G22" s="232" t="s">
         <v>159</v>
       </c>
-      <c r="H22" s="226"/>
+      <c r="H22" s="234"/>
     </row>
     <row r="23" spans="1:8" ht="27.6">
       <c r="A23" s="122" t="s">
@@ -36007,10 +36007,10 @@
       <c r="F23" s="124" t="s">
         <v>162</v>
       </c>
-      <c r="G23" s="225" t="s">
+      <c r="G23" s="232" t="s">
         <v>163</v>
       </c>
-      <c r="H23" s="226"/>
+      <c r="H23" s="234"/>
     </row>
     <row r="24" spans="1:8" ht="13.8">
       <c r="A24" s="122" t="s">
@@ -36031,10 +36031,10 @@
       <c r="F24" s="124" t="s">
         <v>167</v>
       </c>
-      <c r="G24" s="225" t="s">
+      <c r="G24" s="232" t="s">
         <v>168</v>
       </c>
-      <c r="H24" s="226"/>
+      <c r="H24" s="234"/>
     </row>
     <row r="25" spans="1:8" ht="27.6">
       <c r="A25" s="122" t="s">
@@ -36055,10 +36055,10 @@
       <c r="F25" s="124" t="s">
         <v>172</v>
       </c>
-      <c r="G25" s="225" t="s">
+      <c r="G25" s="232" t="s">
         <v>173</v>
       </c>
-      <c r="H25" s="226"/>
+      <c r="H25" s="234"/>
     </row>
     <row r="26" spans="1:8" ht="13.8">
       <c r="A26" s="122" t="s">
@@ -36079,10 +36079,10 @@
       <c r="F26" s="124" t="s">
         <v>177</v>
       </c>
-      <c r="G26" s="225" t="s">
+      <c r="G26" s="232" t="s">
         <v>178</v>
       </c>
-      <c r="H26" s="226"/>
+      <c r="H26" s="234"/>
     </row>
     <row r="27" spans="1:8" ht="27.6">
       <c r="A27" s="122" t="s">
@@ -36103,10 +36103,10 @@
       <c r="F27" s="123" t="s">
         <v>182</v>
       </c>
-      <c r="G27" s="225" t="s">
+      <c r="G27" s="232" t="s">
         <v>183</v>
       </c>
-      <c r="H27" s="226"/>
+      <c r="H27" s="234"/>
     </row>
     <row r="28" spans="1:8" ht="13.8">
       <c r="A28" s="122" t="s">
@@ -36127,10 +36127,10 @@
       <c r="F28" s="124" t="s">
         <v>187</v>
       </c>
-      <c r="G28" s="225" t="s">
+      <c r="G28" s="232" t="s">
         <v>188</v>
       </c>
-      <c r="H28" s="226"/>
+      <c r="H28" s="234"/>
     </row>
     <row r="29" spans="1:8" ht="13.8">
       <c r="A29" s="122" t="s">
@@ -36151,10 +36151,10 @@
       <c r="F29" s="124" t="s">
         <v>192</v>
       </c>
-      <c r="G29" s="225" t="s">
+      <c r="G29" s="232" t="s">
         <v>193</v>
       </c>
-      <c r="H29" s="226"/>
+      <c r="H29" s="234"/>
     </row>
     <row r="30" spans="1:8" ht="13.8">
       <c r="A30" s="122" t="s">
@@ -36169,26 +36169,11 @@
       </c>
       <c r="E30" s="124"/>
       <c r="F30" s="124"/>
-      <c r="G30" s="225"/>
-      <c r="H30" s="226"/>
+      <c r="G30" s="232"/>
+      <c r="H30" s="234"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
@@ -36198,6 +36183,21 @@
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
@@ -39412,11 +39412,11 @@
       <c r="F1" s="258"/>
       <c r="G1" s="258"/>
       <c r="H1" s="259"/>
-      <c r="I1" s="227" t="str">
+      <c r="I1" s="225" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="J1" s="228"/>
+      <c r="J1" s="226"/>
     </row>
     <row r="2" spans="1:60" ht="12.75" customHeight="1">
       <c r="A2" s="260"/>
@@ -39427,11 +39427,11 @@
       <c r="F2" s="261"/>
       <c r="G2" s="261"/>
       <c r="H2" s="262"/>
-      <c r="I2" s="229">
+      <c r="I2" s="227">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="J2" s="230"/>
+      <c r="J2" s="228"/>
     </row>
     <row r="3" spans="1:60" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="263"/>
@@ -39442,11 +39442,11 @@
       <c r="F3" s="264"/>
       <c r="G3" s="264"/>
       <c r="H3" s="265"/>
-      <c r="I3" s="231" t="str">
+      <c r="I3" s="229" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="J3" s="232"/>
+      <c r="J3" s="230"/>
     </row>
     <row r="4" spans="1:60" ht="12.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>

--- a/tools/fichier_excel/GroupeTD-GroupeProjet - ProjetInformatique.xlsx
+++ b/tools/fichier_excel/GroupeTD-GroupeProjet - ProjetInformatique.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF387343-2435-46C3-9F35-ED1C6D1CFB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347F63C4-753C-4E79-B2FD-96B818BBD834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="894" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="894" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1a-Identification Projet" sheetId="39" r:id="rId1"/>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="351">
   <si>
     <t>Responsable</t>
   </si>
@@ -994,22 +994,10 @@
     <t>Période du 03.11.2025 au 09.11.2024</t>
   </si>
   <si>
-    <t>Période du 10.11.2025 au 16.11.12025</t>
-  </si>
-  <si>
-    <t>Période du 17.11.12025 au 23.11.12025</t>
-  </si>
-  <si>
-    <t>Période du 24.11.12025 au 30.11.12025</t>
-  </si>
-  <si>
     <t>Période du 01.12.2025 au 07.12.2025</t>
   </si>
   <si>
     <t>Période du 08.12.2025 au 14.12.2025</t>
-  </si>
-  <si>
-    <t>Période du 15.12.2025 au 21.12.2025</t>
   </si>
   <si>
     <t>Gihalu Russel</t>
@@ -1187,12 +1175,6 @@
     <t>Lancer et Diriger une réunion tous les dimanches</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Faire les modifications  demandées par le proffesseur sur le CC2</t>
-  </si>
-  <si>
     <t>CC4(recette finale)</t>
   </si>
   <si>
@@ -1283,6 +1265,42 @@
   </si>
   <si>
     <t>L'équipe doit communiquer sur Whatsapp . (Voir action numéro 2)</t>
+  </si>
+  <si>
+    <t>Période du 24.11.2025 au 30.11.2025</t>
+  </si>
+  <si>
+    <t>Période du 10.11.2025 au 16.11.2025</t>
+  </si>
+  <si>
+    <t>Période du 17.11.2025 au 23.11.2025</t>
+  </si>
+  <si>
+    <t>1. Le responsable du projet était malade, ce qui a causé son absence à la présentation.</t>
+  </si>
+  <si>
+    <t>2. A cause des contrôles continues, on était obligé de décaler la date du début de la partie finale par rapport au planning initial</t>
+  </si>
+  <si>
+    <t>1. L'équipe s'est adaptée à l'absence du responsable pour gérer la présentation de la partie gestion</t>
+  </si>
+  <si>
+    <t>1. L'équipe a accéléré le travail pour finir plus tôt que le planning</t>
+  </si>
+  <si>
+    <t>2. L'équipe a fini le travail technique planifié</t>
+  </si>
+  <si>
+    <t>3. L'équipe a bien présenté la partie finale technique</t>
+  </si>
+  <si>
+    <t>Faire les modifications demandées par le professeur sur le CC2</t>
+  </si>
+  <si>
+    <t>Remplacer le responsable du groupe durant son indisponibilité</t>
+  </si>
+  <si>
+    <t>DD,DW</t>
   </si>
 </sst>
 </file>
@@ -7604,9 +7622,39 @@
     <xf numFmtId="14" fontId="4" fillId="80" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="34" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="71" borderId="47" xfId="292" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="71" borderId="0" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="71" borderId="49" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="71" borderId="48" xfId="292" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="71" borderId="21" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="71" borderId="50" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="72" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -7631,35 +7679,11 @@
     <xf numFmtId="0" fontId="7" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="34" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="45" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="71" borderId="47" xfId="292" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="71" borderId="0" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="71" borderId="49" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="71" borderId="48" xfId="292" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="71" borderId="21" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="71" borderId="50" xfId="292" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="73" borderId="2" xfId="956" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="96" fillId="69" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="958" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -7682,13 +7706,7 @@
     <xf numFmtId="0" fontId="95" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="69" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="69" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="68" borderId="46" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7884,6 +7902,15 @@
     <xf numFmtId="0" fontId="8" fillId="71" borderId="21" xfId="946" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="100" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="68" borderId="56" xfId="957" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7904,15 +7931,6 @@
     </xf>
     <xf numFmtId="0" fontId="101" fillId="78" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="100" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -8127,56 +8145,55 @@
     <cellStyle name="_Solution_Monitoring_Tools_File_V2_83090147-DDQ-TAV-EN-001_OUTILS_PILOTAGE-1" xfId="185" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
     <cellStyle name="_Solution_Monitoring_Tools_File_V2_dossierpilotage_dts_2012_10_19" xfId="186" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
     <cellStyle name="12Under" xfId="187" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
-    <cellStyle name="20 % - Akzent1" xfId="194" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="195" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="196" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="197" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="198" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="199" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20 % - Accent1 2" xfId="188" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
     <cellStyle name="20 % - Accent2 2" xfId="189" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
     <cellStyle name="20 % - Accent3 2" xfId="190" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
     <cellStyle name="20 % - Accent4 2" xfId="191" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
     <cellStyle name="20 % - Accent5 2" xfId="192" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
     <cellStyle name="20 % - Accent6 2" xfId="193" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
-    <cellStyle name="40 % - Akzent1" xfId="206" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="207" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="208" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="209" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="210" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="211" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="194" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="195" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="196" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="197" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="198" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="199" builtinId="50" customBuiltin="1"/>
     <cellStyle name="40 % - Accent1 2" xfId="200" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
     <cellStyle name="40 % - Accent2 2" xfId="201" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
     <cellStyle name="40 % - Accent3 2" xfId="202" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
     <cellStyle name="40 % - Accent4 2" xfId="203" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
     <cellStyle name="40 % - Accent5 2" xfId="204" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
     <cellStyle name="40 % - Accent6 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
-    <cellStyle name="60 % - Akzent1" xfId="218" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="219" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="220" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="221" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="222" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="223" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="206" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="207" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="208" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="209" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="210" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="211" builtinId="51" customBuiltin="1"/>
     <cellStyle name="60 % - Accent1 2" xfId="212" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
     <cellStyle name="60 % - Accent2 2" xfId="213" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
     <cellStyle name="60 % - Accent3 2" xfId="214" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
     <cellStyle name="60 % - Accent4 2" xfId="215" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
     <cellStyle name="60 % - Accent5 2" xfId="216" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
     <cellStyle name="60 % - Accent6 2" xfId="217" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="60% - Accent1" xfId="218" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="219" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="220" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="221" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="222" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="223" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="224" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent1 2" xfId="225" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="Accent2" xfId="226" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent2 2" xfId="227" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="Accent3" xfId="228" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent3 2" xfId="229" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="Accent4" xfId="230" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent4 2" xfId="231" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="Accent5" xfId="232" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent5 2" xfId="233" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="Accent6" xfId="234" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Accent6 2" xfId="235" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
-    <cellStyle name="Akzent1" xfId="224" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="226" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="228" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="230" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="232" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="234" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Bad" xfId="883" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
-    <cellStyle name="Berechnung" xfId="245" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Bord: quadrillage" xfId="236" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
     <cellStyle name="Bord: quadrillage gras" xfId="237" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
     <cellStyle name="Bord: quadrillage gras 2" xfId="1170" xr:uid="{E6CC26DB-73E0-447F-AC06-EED4707DF3BB}"/>
@@ -8187,6 +8204,7 @@
     <cellStyle name="branche_1 - Fiche descriptive" xfId="242" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
     <cellStyle name="Caché" xfId="243" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
     <cellStyle name="Calcul 2" xfId="244" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="Calculation" xfId="245" builtinId="22" customBuiltin="1"/>
     <cellStyle name="CARTOUCHE_THOM" xfId="246" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
     <cellStyle name="Check Cell" xfId="1165" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
     <cellStyle name="Comma [0]" xfId="247" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
@@ -8274,9 +8292,7 @@
     <cellStyle name="Donnée 4" xfId="322" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
     <cellStyle name="Donnée 5" xfId="323" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
     <cellStyle name="Donnée_1 - Fiche descriptive" xfId="324" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
-    <cellStyle name="Eingabe" xfId="882" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Entrée 2" xfId="325" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
-    <cellStyle name="Ergebnis" xfId="1150" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Euro" xfId="326" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
     <cellStyle name="Euro 2" xfId="327" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
     <cellStyle name="Euro 2 2" xfId="328" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
@@ -8965,6 +8981,7 @@
     <cellStyle name="Hyperlink 2" xfId="879" xr:uid="{00000000-0005-0000-0000-000090030000}"/>
     <cellStyle name="Hyperlink 2 2" xfId="880" xr:uid="{00000000-0005-0000-0000-000091030000}"/>
     <cellStyle name="Hyperlink_1 - Fiche descriptive" xfId="881" xr:uid="{00000000-0005-0000-0000-000092030000}"/>
+    <cellStyle name="Input" xfId="882" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant 2" xfId="884" xr:uid="{00000000-0005-0000-0000-000095030000}"/>
     <cellStyle name="item" xfId="885" xr:uid="{00000000-0005-0000-0000-000096030000}"/>
     <cellStyle name="item 2" xfId="886" xr:uid="{00000000-0005-0000-0000-000097030000}"/>
@@ -8997,6 +9014,7 @@
     <cellStyle name="Lien hypertexte 6 2" xfId="1306" xr:uid="{3157CAE7-E5F3-4808-A259-1024D05AC903}"/>
     <cellStyle name="Lien_x0018_hypertexte" xfId="911" xr:uid="{00000000-0005-0000-0000-0000B0030000}"/>
     <cellStyle name="Lien_x0018_hypertexte 2" xfId="912" xr:uid="{00000000-0005-0000-0000-0000B1030000}"/>
+    <cellStyle name="Linked Cell" xfId="913" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Masqué" xfId="914" xr:uid="{00000000-0005-0000-0000-0000B3030000}"/>
     <cellStyle name="Masqué 2" xfId="915" xr:uid="{00000000-0005-0000-0000-0000B4030000}"/>
     <cellStyle name="Masqué 2 2" xfId="916" xr:uid="{00000000-0005-0000-0000-0000B5030000}"/>
@@ -9029,6 +9047,7 @@
     <cellStyle name="Non modifiable 3" xfId="943" xr:uid="{00000000-0005-0000-0000-0000D1030000}"/>
     <cellStyle name="Non modifiable 3 2" xfId="944" xr:uid="{00000000-0005-0000-0000-0000D2030000}"/>
     <cellStyle name="Non modifiable 4" xfId="945" xr:uid="{00000000-0005-0000-0000-0000D3030000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="946" xr:uid="{00000000-0005-0000-0000-0000D5030000}"/>
     <cellStyle name="Normal 2 2" xfId="947" xr:uid="{00000000-0005-0000-0000-0000D6030000}"/>
     <cellStyle name="Normal 2 2 2" xfId="948" xr:uid="{00000000-0005-0000-0000-0000D7030000}"/>
@@ -9051,7 +9070,7 @@
     <cellStyle name="Normal_Maquette_TDB4 2" xfId="959" xr:uid="{00000000-0005-0000-0000-0000E2030000}"/>
     <cellStyle name="Normal_Project reporting template-87201044-MGPR-GRP-EN- 2" xfId="960" xr:uid="{00000000-0005-0000-0000-0000E3030000}"/>
     <cellStyle name="Normal_Solution_Monitoring_Dashboard_File 2" xfId="961" xr:uid="{00000000-0005-0000-0000-0000E4030000}"/>
-    <cellStyle name="Notiz" xfId="962" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="962" builtinId="10" customBuiltin="1"/>
     <cellStyle name="obsolete" xfId="963" xr:uid="{00000000-0005-0000-0000-0000E5030000}"/>
     <cellStyle name="one" xfId="964" xr:uid="{00000000-0005-0000-0000-0000E6030000}"/>
     <cellStyle name="Output" xfId="1113" xr:uid="{00000000-0005-0000-0000-0000E7030000}"/>
@@ -9207,7 +9226,6 @@
     <cellStyle name="SAPBEXundefined_1 - Fiche descriptive" xfId="1110" xr:uid="{00000000-0005-0000-0000-00007A040000}"/>
     <cellStyle name="Satisfaisant 2" xfId="1112" xr:uid="{00000000-0005-0000-0000-00007C040000}"/>
     <cellStyle name="Sortie 2" xfId="1114" xr:uid="{00000000-0005-0000-0000-00007E040000}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="StationEach" xfId="1115" xr:uid="{00000000-0005-0000-0000-00007F040000}"/>
     <cellStyle name="StationTot" xfId="1116" xr:uid="{00000000-0005-0000-0000-000080040000}"/>
     <cellStyle name="Style 1" xfId="1117" xr:uid="{00000000-0005-0000-0000-000081040000}"/>
@@ -9240,6 +9258,7 @@
     <cellStyle name="TitreSérie 4" xfId="1147" xr:uid="{00000000-0005-0000-0000-0000A0040000}"/>
     <cellStyle name="TitreSérie 5" xfId="1148" xr:uid="{00000000-0005-0000-0000-0000A1040000}"/>
     <cellStyle name="TitreSérie_1 - Fiche descriptive" xfId="1149" xr:uid="{00000000-0005-0000-0000-0000A2040000}"/>
+    <cellStyle name="Total" xfId="1150" builtinId="25" customBuiltin="1"/>
     <cellStyle name="TypeDonnée" xfId="1151" xr:uid="{00000000-0005-0000-0000-0000A4040000}"/>
     <cellStyle name="TypeDonnée 2" xfId="1152" xr:uid="{00000000-0005-0000-0000-0000A5040000}"/>
     <cellStyle name="TypeDonnée 2 2" xfId="1153" xr:uid="{00000000-0005-0000-0000-0000A6040000}"/>
@@ -9255,8 +9274,7 @@
     <cellStyle name="Variation 4" xfId="1163" xr:uid="{00000000-0005-0000-0000-0000B0040000}"/>
     <cellStyle name="Variation_1 - Fiche descriptive" xfId="1164" xr:uid="{00000000-0005-0000-0000-0000B1040000}"/>
     <cellStyle name="Vérification 2" xfId="1166" xr:uid="{00000000-0005-0000-0000-0000B3040000}"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="913" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="1167" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="1167" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Обычный_2.1 GANTT" xfId="1168" xr:uid="{00000000-0005-0000-0000-0000B5040000}"/>
     <cellStyle name="標準_Application List with Client Dependencies DSL" xfId="1169" xr:uid="{00000000-0005-0000-0000-0000B6040000}"/>
   </cellStyles>
@@ -24761,7 +24779,7 @@
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="1.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" style="5"/>
@@ -24783,11 +24801,11 @@
       <c r="I1" s="113"/>
       <c r="J1" s="113"/>
       <c r="K1" s="113"/>
-      <c r="L1" s="215" t="s">
+      <c r="L1" s="206" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="216"/>
-      <c r="N1" s="217"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="208"/>
       <c r="P1" s="24"/>
     </row>
     <row r="2" spans="2:16" ht="12.75" customHeight="1">
@@ -24801,11 +24819,11 @@
       <c r="I2" s="115"/>
       <c r="J2" s="115"/>
       <c r="K2" s="115"/>
-      <c r="L2" s="218">
+      <c r="L2" s="209">
         <v>45912</v>
       </c>
-      <c r="M2" s="219"/>
-      <c r="N2" s="220"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="211"/>
     </row>
     <row r="3" spans="2:16" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="116"/>
@@ -24818,34 +24836,34 @@
       <c r="I3" s="117"/>
       <c r="J3" s="117"/>
       <c r="K3" s="117"/>
-      <c r="L3" s="221" t="s">
+      <c r="L3" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="222"/>
-      <c r="N3" s="223"/>
+      <c r="M3" s="213"/>
+      <c r="N3" s="214"/>
       <c r="P3" s="24"/>
     </row>
     <row r="4" spans="2:16" ht="12.75" customHeight="1" thickBot="1">
       <c r="P4" s="25"/>
     </row>
     <row r="5" spans="2:16" ht="23.4" thickBot="1">
-      <c r="B5" s="206" t="s">
+      <c r="B5" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="206"/>
+      <c r="C5" s="215"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="224" t="s">
-        <v>264</v>
-      </c>
-      <c r="F5" s="224"/>
-      <c r="G5" s="224"/>
-      <c r="H5" s="224"/>
-      <c r="I5" s="224"/>
-      <c r="J5" s="224"/>
-      <c r="K5" s="224"/>
-      <c r="L5" s="224"/>
-      <c r="M5" s="224"/>
-      <c r="N5" s="224"/>
+      <c r="E5" s="216" t="s">
+        <v>260</v>
+      </c>
+      <c r="F5" s="216"/>
+      <c r="G5" s="216"/>
+      <c r="H5" s="216"/>
+      <c r="I5" s="216"/>
+      <c r="J5" s="216"/>
+      <c r="K5" s="216"/>
+      <c r="L5" s="216"/>
+      <c r="M5" s="216"/>
+      <c r="N5" s="216"/>
     </row>
     <row r="6" spans="2:16" ht="12" customHeight="1" thickBot="1">
       <c r="B6" s="7"/>
@@ -24862,23 +24880,23 @@
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="2:16" ht="18" thickBot="1">
-      <c r="B7" s="206" t="s">
+      <c r="B7" s="215" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="206"/>
+      <c r="C7" s="215"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="209" t="s">
-        <v>263</v>
-      </c>
-      <c r="F7" s="210"/>
-      <c r="G7" s="210"/>
-      <c r="H7" s="210"/>
-      <c r="I7" s="210"/>
-      <c r="J7" s="210"/>
-      <c r="K7" s="210"/>
-      <c r="L7" s="210"/>
-      <c r="M7" s="210"/>
-      <c r="N7" s="211"/>
+      <c r="E7" s="219" t="s">
+        <v>259</v>
+      </c>
+      <c r="F7" s="220"/>
+      <c r="G7" s="220"/>
+      <c r="H7" s="220"/>
+      <c r="I7" s="220"/>
+      <c r="J7" s="220"/>
+      <c r="K7" s="220"/>
+      <c r="L7" s="220"/>
+      <c r="M7" s="220"/>
+      <c r="N7" s="221"/>
     </row>
     <row r="8" spans="2:16" ht="9.6" customHeight="1" thickBot="1">
       <c r="B8" s="10"/>
@@ -24896,23 +24914,23 @@
       <c r="N8" s="12"/>
     </row>
     <row r="9" spans="2:16" ht="54.6" customHeight="1" thickBot="1">
-      <c r="B9" s="212" t="s">
+      <c r="B9" s="222" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="212"/>
+      <c r="C9" s="222"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="213" t="s">
-        <v>277</v>
-      </c>
-      <c r="F9" s="214"/>
-      <c r="G9" s="214"/>
-      <c r="H9" s="214"/>
-      <c r="I9" s="214"/>
-      <c r="J9" s="214"/>
-      <c r="K9" s="214"/>
-      <c r="L9" s="214"/>
-      <c r="M9" s="214"/>
-      <c r="N9" s="214"/>
+      <c r="E9" s="223" t="s">
+        <v>273</v>
+      </c>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="224"/>
+      <c r="I9" s="224"/>
+      <c r="J9" s="224"/>
+      <c r="K9" s="224"/>
+      <c r="L9" s="224"/>
+      <c r="M9" s="224"/>
+      <c r="N9" s="224"/>
     </row>
     <row r="10" spans="2:16" ht="10.95" customHeight="1" thickBot="1">
       <c r="B10" s="10"/>
@@ -24930,23 +24948,23 @@
       <c r="N10" s="12"/>
     </row>
     <row r="11" spans="2:16" ht="61.2" customHeight="1" thickBot="1">
-      <c r="B11" s="206" t="s">
+      <c r="B11" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="206"/>
+      <c r="C11" s="215"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="213" t="s">
+      <c r="E11" s="223" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="214"/>
-      <c r="G11" s="214"/>
-      <c r="H11" s="214"/>
-      <c r="I11" s="214"/>
-      <c r="J11" s="214"/>
-      <c r="K11" s="214"/>
-      <c r="L11" s="214"/>
-      <c r="M11" s="214"/>
-      <c r="N11" s="214"/>
+      <c r="F11" s="224"/>
+      <c r="G11" s="224"/>
+      <c r="H11" s="224"/>
+      <c r="I11" s="224"/>
+      <c r="J11" s="224"/>
+      <c r="K11" s="224"/>
+      <c r="L11" s="224"/>
+      <c r="M11" s="224"/>
+      <c r="N11" s="224"/>
     </row>
     <row r="12" spans="2:16" ht="10.95" customHeight="1" thickBot="1">
       <c r="B12" s="10"/>
@@ -24964,23 +24982,23 @@
       <c r="N12" s="12"/>
     </row>
     <row r="13" spans="2:16" ht="99" customHeight="1" thickBot="1">
-      <c r="B13" s="206" t="s">
+      <c r="B13" s="215" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="206"/>
+      <c r="C13" s="215"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="207" t="s">
-        <v>265</v>
-      </c>
-      <c r="F13" s="208"/>
-      <c r="G13" s="208"/>
-      <c r="H13" s="208"/>
-      <c r="I13" s="208"/>
-      <c r="J13" s="208"/>
-      <c r="K13" s="208"/>
-      <c r="L13" s="208"/>
-      <c r="M13" s="208"/>
-      <c r="N13" s="208"/>
+      <c r="E13" s="217" t="s">
+        <v>261</v>
+      </c>
+      <c r="F13" s="218"/>
+      <c r="G13" s="218"/>
+      <c r="H13" s="218"/>
+      <c r="I13" s="218"/>
+      <c r="J13" s="218"/>
+      <c r="K13" s="218"/>
+      <c r="L13" s="218"/>
+      <c r="M13" s="218"/>
+      <c r="N13" s="218"/>
     </row>
     <row r="14" spans="2:16" ht="73.5" customHeight="1">
       <c r="B14" s="13"/>
@@ -25004,11 +25022,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="13">
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:N5"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="E13:N13"/>
     <mergeCell ref="B7:C7"/>
@@ -25017,6 +25030,11 @@
     <mergeCell ref="E9:N9"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="E11:N11"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:N5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:N8 E10:N10 E12:N12" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -25038,11 +25056,11 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:F7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="16" style="3" customWidth="1"/>
     <col min="2" max="2" width="52" style="3" customWidth="1"/>
@@ -25058,9 +25076,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A1" s="271" t="str">
+      <c r="A1" s="271" t="e">
         <f>"LISTE DES DECISIONS au "&amp;TEXT(J2,"jj/mm/aaaa")</f>
-        <v>LISTE DES DECISIONS au 25/00/Freitag</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="258"/>
       <c r="C1" s="258"/>
@@ -25070,11 +25088,11 @@
       <c r="G1" s="258"/>
       <c r="H1" s="258"/>
       <c r="I1" s="259"/>
-      <c r="J1" s="225" t="str">
+      <c r="J1" s="227" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="K1" s="226"/>
+      <c r="K1" s="228"/>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="261"/>
@@ -25086,11 +25104,11 @@
       <c r="G2" s="261"/>
       <c r="H2" s="261"/>
       <c r="I2" s="262"/>
-      <c r="J2" s="227">
+      <c r="J2" s="229">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="K2" s="228"/>
+      <c r="K2" s="230"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="264"/>
@@ -25102,11 +25120,11 @@
       <c r="G3" s="264"/>
       <c r="H3" s="264"/>
       <c r="I3" s="265"/>
-      <c r="J3" s="229" t="str">
+      <c r="J3" s="231" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="K3" s="230"/>
+      <c r="K3" s="232"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
       <c r="A4" s="26"/>
@@ -25146,14 +25164,14 @@
         <v>1</v>
       </c>
       <c r="B6" s="266" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C6" s="266"/>
       <c r="D6" s="266"/>
       <c r="E6" s="266"/>
       <c r="F6" s="266"/>
       <c r="G6" s="91" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H6" s="173">
         <v>45908</v>
@@ -25162,25 +25180,25 @@
         <v>46003</v>
       </c>
       <c r="J6" s="92" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K6" s="93" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30">
+    <row r="7" spans="1:11" ht="45">
       <c r="A7" s="90">
         <v>2</v>
       </c>
       <c r="B7" s="266" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C7" s="266"/>
       <c r="D7" s="266"/>
       <c r="E7" s="266"/>
       <c r="F7" s="266"/>
       <c r="G7" s="91" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H7" s="173">
         <v>45910</v>
@@ -25189,7 +25207,7 @@
         <v>46003</v>
       </c>
       <c r="J7" s="92" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K7" s="93" t="s">
         <v>22</v>
@@ -25200,14 +25218,14 @@
         <v>3</v>
       </c>
       <c r="B8" s="266" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C8" s="266"/>
       <c r="D8" s="266"/>
       <c r="E8" s="266"/>
       <c r="F8" s="266"/>
       <c r="G8" s="91" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H8" s="173">
         <v>45936</v>
@@ -25216,7 +25234,7 @@
         <v>46003</v>
       </c>
       <c r="J8" s="92" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K8" s="93" t="s">
         <v>22</v>
@@ -25291,11 +25309,11 @@
   </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="129" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="33.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" style="3" customWidth="1"/>
@@ -25323,11 +25341,11 @@
       <c r="F1" s="271"/>
       <c r="G1" s="271"/>
       <c r="H1" s="272"/>
-      <c r="I1" s="225" t="str">
+      <c r="I1" s="227" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="J1" s="226"/>
+      <c r="J1" s="228"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1">
       <c r="A2" s="273"/>
@@ -25338,11 +25356,11 @@
       <c r="F2" s="274"/>
       <c r="G2" s="274"/>
       <c r="H2" s="275"/>
-      <c r="I2" s="227">
+      <c r="I2" s="229">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="J2" s="228"/>
+      <c r="J2" s="230"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="276"/>
@@ -25353,11 +25371,11 @@
       <c r="F3" s="277"/>
       <c r="G3" s="277"/>
       <c r="H3" s="278"/>
-      <c r="I3" s="229" t="str">
+      <c r="I3" s="231" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="J3" s="230"/>
+      <c r="J3" s="232"/>
     </row>
     <row r="4" spans="1:10" ht="13.8" thickBot="1">
       <c r="A4" s="41"/>
@@ -25433,7 +25451,7 @@
     </row>
     <row r="8" spans="1:10" ht="13.8" outlineLevel="1" thickBot="1">
       <c r="A8" s="59" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
@@ -25465,12 +25483,12 @@
     </row>
     <row r="10" spans="1:10" outlineLevel="1">
       <c r="A10" s="59" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B10" s="59"/>
       <c r="C10" s="59"/>
       <c r="D10" s="59" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E10" s="59"/>
       <c r="F10" s="59"/>
@@ -25483,12 +25501,12 @@
     </row>
     <row r="11" spans="1:10" ht="13.8" outlineLevel="2" thickBot="1">
       <c r="A11" s="59" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
       <c r="D11" s="59" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E11" s="59"/>
       <c r="F11" s="59"/>
@@ -25529,7 +25547,7 @@
     </row>
     <row r="14" spans="1:10" outlineLevel="1">
       <c r="A14" s="59" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B14" s="59"/>
       <c r="C14" s="59"/>
@@ -25549,7 +25567,7 @@
     </row>
     <row r="15" spans="1:10" outlineLevel="2">
       <c r="A15" s="59" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
@@ -25569,7 +25587,7 @@
     </row>
     <row r="16" spans="1:10" outlineLevel="2">
       <c r="A16" s="59" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
@@ -25589,7 +25607,7 @@
     </row>
     <row r="17" spans="1:10" ht="13.8" outlineLevel="2" thickBot="1">
       <c r="A17" s="59" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B17" s="59"/>
       <c r="C17" s="59"/>
@@ -25623,7 +25641,7 @@
     </row>
     <row r="19" spans="1:10" outlineLevel="1">
       <c r="A19" s="59" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B19" s="59"/>
       <c r="C19" s="59"/>
@@ -25884,11 +25902,11 @@
   </sheetPr>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="126" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="32.5546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="76.33203125" style="3" customWidth="1"/>
@@ -25906,31 +25924,31 @@
       </c>
       <c r="B1" s="280"/>
       <c r="C1" s="280"/>
-      <c r="D1" s="225" t="str">
+      <c r="D1" s="227" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="E1" s="226"/>
+      <c r="E1" s="228"/>
     </row>
     <row r="2" spans="1:12" ht="12.75" customHeight="1">
       <c r="A2" s="281"/>
       <c r="B2" s="282"/>
       <c r="C2" s="282"/>
-      <c r="D2" s="227">
+      <c r="D2" s="229">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="E2" s="228"/>
+      <c r="E2" s="230"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="283"/>
       <c r="B3" s="284"/>
       <c r="C3" s="284"/>
-      <c r="D3" s="229" t="str">
+      <c r="D3" s="231" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="E3" s="230"/>
+      <c r="E3" s="232"/>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -25963,10 +25981,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="59" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C7" s="59">
         <v>45926</v>
@@ -25980,10 +25998,10 @@
     </row>
     <row r="8" spans="1:12" outlineLevel="2">
       <c r="A8" s="59" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C8" s="59">
         <v>45937</v>
@@ -25997,10 +26015,10 @@
     </row>
     <row r="9" spans="1:12" outlineLevel="2">
       <c r="A9" s="59" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C9" s="59">
         <v>45948</v>
@@ -26021,10 +26039,10 @@
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" outlineLevel="2">
       <c r="A10" s="59" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C10" s="59">
         <v>46003</v>
@@ -26094,11 +26112,11 @@
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" showZeros="0" topLeftCell="A6" zoomScale="89" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="71.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="105.21875" style="3" bestFit="1" customWidth="1"/>
@@ -26200,14 +26218,14 @@
     </row>
     <row r="7" spans="1:9" ht="26.4">
       <c r="A7" s="60" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C7" s="63"/>
       <c r="D7" s="64" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E7" s="63"/>
       <c r="F7" s="65"/>
@@ -26215,16 +26233,16 @@
       <c r="H7" s="65"/>
       <c r="I7" s="66"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="26.4">
       <c r="A8" s="60" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C8" s="63"/>
       <c r="D8" s="64" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E8" s="63"/>
       <c r="F8" s="65"/>
@@ -26234,14 +26252,14 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="61" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C9" s="63"/>
       <c r="D9" s="64" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E9" s="63"/>
       <c r="F9" s="65"/>
@@ -26334,14 +26352,14 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="71" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B16" s="72" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C16" s="63"/>
       <c r="D16" s="64" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="65"/>
@@ -26351,14 +26369,14 @@
     </row>
     <row r="17" spans="1:9" ht="21" customHeight="1">
       <c r="A17" s="71" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B17" s="72" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C17" s="63"/>
       <c r="D17" s="64" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E17" s="63"/>
       <c r="F17" s="65"/>
@@ -26368,14 +26386,14 @@
     </row>
     <row r="18" spans="1:9" ht="26.4">
       <c r="A18" s="74" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B18" s="72" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C18" s="63"/>
       <c r="D18" s="64" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E18" s="63"/>
       <c r="F18" s="65"/>
@@ -26456,11 +26474,11 @@
   </sheetPr>
   <dimension ref="A1:AM209"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B17" zoomScale="76" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView showGridLines="0" topLeftCell="C20" zoomScale="112" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="1.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
@@ -26487,14 +26505,14 @@
         <f>"PLANNING COURANT  au "&amp;TEXT(K2,"jj/mm/aaaa")</f>
         <v>PLANNING COURANT  au 25/00/Freitag</v>
       </c>
-      <c r="C1" s="300"/>
+      <c r="C1" s="303"/>
       <c r="D1" s="280"/>
       <c r="E1" s="280"/>
       <c r="F1" s="280"/>
       <c r="G1" s="280"/>
       <c r="H1" s="280"/>
       <c r="I1" s="280"/>
-      <c r="J1" s="301"/>
+      <c r="J1" s="304"/>
       <c r="K1" s="249" t="str">
         <f>'1a-Identification Projet'!$L$1</f>
         <v>reference Tableau de bord</v>
@@ -26511,7 +26529,7 @@
       <c r="G2" s="282"/>
       <c r="H2" s="282"/>
       <c r="I2" s="282"/>
-      <c r="J2" s="302"/>
+      <c r="J2" s="305"/>
       <c r="K2" s="238">
         <f>'1a-Identification Projet'!$L$2</f>
         <v>45912</v>
@@ -26530,7 +26548,7 @@
       <c r="G3" s="284"/>
       <c r="H3" s="284"/>
       <c r="I3" s="284"/>
-      <c r="J3" s="303"/>
+      <c r="J3" s="306"/>
       <c r="K3" s="241" t="str">
         <f>'1a-Identification Projet'!$L$3</f>
         <v>Organisation</v>
@@ -26658,25 +26676,25 @@
     </row>
     <row r="7" spans="1:39" ht="24.6">
       <c r="A7"/>
-      <c r="C7" s="304" t="s">
-        <v>266</v>
-      </c>
-      <c r="D7" s="305"/>
-      <c r="E7" s="305"/>
-      <c r="F7" s="305"/>
-      <c r="G7" s="305"/>
-      <c r="H7" s="305"/>
-      <c r="I7" s="306"/>
+      <c r="C7" s="307" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="308"/>
+      <c r="E7" s="308"/>
+      <c r="F7" s="308"/>
+      <c r="G7" s="308"/>
+      <c r="H7" s="308"/>
+      <c r="I7" s="309"/>
       <c r="J7"/>
-      <c r="K7" s="304" t="s">
+      <c r="K7" s="307" t="s">
         <v>95</v>
       </c>
-      <c r="L7" s="305"/>
-      <c r="M7" s="305"/>
-      <c r="N7" s="305"/>
-      <c r="O7" s="305"/>
-      <c r="P7" s="305"/>
-      <c r="Q7" s="306"/>
+      <c r="L7" s="308"/>
+      <c r="M7" s="308"/>
+      <c r="N7" s="308"/>
+      <c r="O7" s="308"/>
+      <c r="P7" s="308"/>
+      <c r="Q7" s="309"/>
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
@@ -26742,7 +26760,7 @@
         <v>66</v>
       </c>
       <c r="Q8" s="184" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="R8"/>
       <c r="S8"/>
@@ -26800,7 +26818,7 @@
       <c r="P9" s="179"/>
       <c r="Q9" s="185">
         <f>SUM(Q10,Q13,Q22,Q29)</f>
-        <v>16.899999999999999</v>
+        <v>21.7</v>
       </c>
       <c r="R9"/>
       <c r="S9"/>
@@ -26924,7 +26942,7 @@
         <v>204</v>
       </c>
       <c r="Q11" s="180" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="R11"/>
       <c r="S11"/>
@@ -26991,7 +27009,7 @@
         <v>207</v>
       </c>
       <c r="Q12" s="180" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="R12"/>
       <c r="S12"/>
@@ -27302,7 +27320,7 @@
         <v>9</v>
       </c>
       <c r="L17" s="162" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M17" s="163">
         <v>45940</v>
@@ -27314,7 +27332,7 @@
         <v>7</v>
       </c>
       <c r="P17" s="162" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q17" s="180">
         <v>0.6</v>
@@ -27369,7 +27387,7 @@
         <v>10</v>
       </c>
       <c r="L18" s="162" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M18" s="163">
         <v>45941</v>
@@ -27381,7 +27399,7 @@
         <v>218</v>
       </c>
       <c r="P18" s="162" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Q18" s="180">
         <v>0.4</v>
@@ -27436,7 +27454,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="162" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M19" s="163">
         <v>45942</v>
@@ -27503,7 +27521,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="162" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M20" s="163">
         <v>45944</v>
@@ -27553,10 +27571,10 @@
       <c r="H21" s="162"/>
       <c r="I21" s="161"/>
       <c r="K21" s="161" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L21" s="162" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M21" s="163">
         <v>45950</v>
@@ -27566,7 +27584,7 @@
       </c>
       <c r="O21" s="161"/>
       <c r="P21" s="162" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Q21" s="180">
         <v>0.8</v>
@@ -27731,10 +27749,10 @@
       <c r="H24" s="162"/>
       <c r="I24" s="161"/>
       <c r="K24" s="175" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L24" s="176" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M24" s="177">
         <v>45968</v>
@@ -28066,14 +28084,15 @@
         <v>239</v>
       </c>
       <c r="M29" s="166">
-        <v>45992</v>
-      </c>
-      <c r="N29" s="166"/>
+        <v>45998</v>
+      </c>
+      <c r="N29" s="166">
+        <v>46001</v>
+      </c>
       <c r="O29" s="167"/>
       <c r="P29" s="168"/>
       <c r="Q29" s="187">
-        <f>SUM(Q30:Q35)</f>
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="R29"/>
       <c r="S29"/>
@@ -28110,7 +28129,7 @@
         <v>46001</v>
       </c>
       <c r="F30" s="163">
-        <v>45941</v>
+        <v>46002</v>
       </c>
       <c r="G30" s="161" t="s">
         <v>242</v>
@@ -28121,13 +28140,27 @@
       <c r="I30" s="161" t="s">
         <v>205</v>
       </c>
-      <c r="K30" s="161"/>
-      <c r="L30" s="162"/>
-      <c r="M30" s="163"/>
-      <c r="N30" s="163"/>
-      <c r="O30" s="161"/>
-      <c r="P30" s="162"/>
-      <c r="Q30" s="180"/>
+      <c r="K30" s="161">
+        <v>20</v>
+      </c>
+      <c r="L30" s="162" t="s">
+        <v>241</v>
+      </c>
+      <c r="M30" s="163">
+        <v>45998</v>
+      </c>
+      <c r="N30" s="163">
+        <v>45999</v>
+      </c>
+      <c r="O30" s="161" t="s">
+        <v>242</v>
+      </c>
+      <c r="P30" s="162" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q30" s="161" t="s">
+        <v>205</v>
+      </c>
       <c r="R30"/>
       <c r="S30"/>
       <c r="T30"/>
@@ -28153,34 +28186,48 @@
     </row>
     <row r="31" spans="1:39" ht="27" customHeight="1">
       <c r="A31"/>
-      <c r="C31" s="307">
+      <c r="C31" s="300">
         <v>21</v>
       </c>
-      <c r="D31" s="308" t="s">
+      <c r="D31" s="301" t="s">
         <v>243</v>
       </c>
-      <c r="E31" s="309">
+      <c r="E31" s="302">
         <v>46003</v>
       </c>
-      <c r="F31" s="309">
-        <v>45943</v>
+      <c r="F31" s="302">
+        <v>46004</v>
       </c>
       <c r="G31" s="161" t="s">
         <v>244</v>
       </c>
-      <c r="H31" s="308" t="s">
+      <c r="H31" s="301" t="s">
         <v>212</v>
       </c>
-      <c r="I31" s="307" t="s">
+      <c r="I31" s="300" t="s">
         <v>205</v>
       </c>
-      <c r="K31" s="307"/>
-      <c r="L31" s="162"/>
-      <c r="M31" s="163"/>
-      <c r="N31" s="163"/>
-      <c r="O31" s="161"/>
-      <c r="P31" s="162"/>
-      <c r="Q31" s="180"/>
+      <c r="K31" s="300">
+        <v>21</v>
+      </c>
+      <c r="L31" s="301" t="s">
+        <v>243</v>
+      </c>
+      <c r="M31" s="302">
+        <v>45999</v>
+      </c>
+      <c r="N31" s="302">
+        <v>45999</v>
+      </c>
+      <c r="O31" s="161" t="s">
+        <v>244</v>
+      </c>
+      <c r="P31" s="301" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q31" s="300" t="s">
+        <v>226</v>
+      </c>
       <c r="R31"/>
       <c r="S31"/>
       <c r="T31"/>
@@ -28206,22 +28253,24 @@
     </row>
     <row r="32" spans="1:39" ht="27" customHeight="1">
       <c r="A32"/>
-      <c r="C32" s="307"/>
-      <c r="D32" s="308"/>
-      <c r="E32" s="309"/>
-      <c r="F32" s="309"/>
+      <c r="C32" s="300"/>
+      <c r="D32" s="301"/>
+      <c r="E32" s="302"/>
+      <c r="F32" s="302"/>
       <c r="G32" s="161" t="s">
         <v>245</v>
       </c>
-      <c r="H32" s="308"/>
-      <c r="I32" s="307"/>
-      <c r="K32" s="307"/>
-      <c r="L32" s="162"/>
-      <c r="M32" s="163"/>
-      <c r="N32" s="163"/>
-      <c r="O32" s="161"/>
-      <c r="P32" s="162"/>
-      <c r="Q32" s="180"/>
+      <c r="H32" s="301"/>
+      <c r="I32" s="300"/>
+      <c r="K32" s="300"/>
+      <c r="L32" s="301"/>
+      <c r="M32" s="302"/>
+      <c r="N32" s="302"/>
+      <c r="O32" s="161" t="s">
+        <v>245</v>
+      </c>
+      <c r="P32" s="301"/>
+      <c r="Q32" s="300"/>
       <c r="R32"/>
       <c r="S32"/>
       <c r="T32"/>
@@ -28268,13 +28317,27 @@
       <c r="I33" s="161" t="s">
         <v>232</v>
       </c>
-      <c r="K33" s="161"/>
-      <c r="L33" s="162"/>
-      <c r="M33" s="163"/>
-      <c r="N33" s="163"/>
-      <c r="O33" s="161"/>
-      <c r="P33" s="162"/>
-      <c r="Q33" s="180"/>
+      <c r="K33" s="161">
+        <v>22</v>
+      </c>
+      <c r="L33" s="162" t="s">
+        <v>246</v>
+      </c>
+      <c r="M33" s="163">
+        <v>45999</v>
+      </c>
+      <c r="N33" s="163">
+        <v>45999</v>
+      </c>
+      <c r="O33" s="161" t="s">
+        <v>203</v>
+      </c>
+      <c r="P33" s="162" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q33" s="161" t="s">
+        <v>226</v>
+      </c>
       <c r="R33"/>
       <c r="S33"/>
       <c r="T33"/>
@@ -28310,7 +28373,7 @@
         <v>46006</v>
       </c>
       <c r="F34" s="163">
-        <v>45946</v>
+        <v>46007</v>
       </c>
       <c r="G34" s="161" t="s">
         <v>203</v>
@@ -28321,13 +28384,27 @@
       <c r="I34" s="161" t="s">
         <v>205</v>
       </c>
-      <c r="K34" s="161"/>
-      <c r="L34" s="162"/>
-      <c r="M34" s="163"/>
-      <c r="N34" s="163"/>
-      <c r="O34" s="161"/>
-      <c r="P34" s="162"/>
-      <c r="Q34" s="180"/>
+      <c r="K34" s="161">
+        <v>23</v>
+      </c>
+      <c r="L34" s="162" t="s">
+        <v>247</v>
+      </c>
+      <c r="M34" s="163">
+        <v>46000</v>
+      </c>
+      <c r="N34" s="163">
+        <v>46000</v>
+      </c>
+      <c r="O34" s="161" t="s">
+        <v>203</v>
+      </c>
+      <c r="P34" s="162" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q34" s="161" t="s">
+        <v>205</v>
+      </c>
       <c r="R34"/>
       <c r="S34"/>
       <c r="T34"/>
@@ -28363,7 +28440,7 @@
         <v>46009</v>
       </c>
       <c r="F35" s="163">
-        <v>45950</v>
+        <v>46011</v>
       </c>
       <c r="G35" s="161" t="s">
         <v>249</v>
@@ -28374,13 +28451,27 @@
       <c r="I35" s="161" t="s">
         <v>205</v>
       </c>
-      <c r="K35" s="161"/>
-      <c r="L35" s="162"/>
-      <c r="M35" s="163"/>
-      <c r="N35" s="163"/>
-      <c r="O35" s="161"/>
-      <c r="P35" s="162"/>
-      <c r="Q35" s="180"/>
+      <c r="K35" s="161">
+        <v>24</v>
+      </c>
+      <c r="L35" s="162" t="s">
+        <v>248</v>
+      </c>
+      <c r="M35" s="163">
+        <v>46001</v>
+      </c>
+      <c r="N35" s="163">
+        <v>46001</v>
+      </c>
+      <c r="O35" s="161" t="s">
+        <v>249</v>
+      </c>
+      <c r="P35" s="162" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q35" s="161" t="s">
+        <v>205</v>
+      </c>
       <c r="R35"/>
       <c r="S35"/>
       <c r="T35"/>
@@ -35316,7 +35407,18 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="13">
+  <mergeCells count="18">
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="B1:J3"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="K7:Q7"/>
     <mergeCell ref="I31:I32"/>
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="C31:C32"/>
@@ -35324,12 +35426,6 @@
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="H31:H32"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="B1:J3"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="K7:Q7"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="83" firstPageNumber="0" orientation="landscape" r:id="rId1"/>
@@ -35350,7 +35446,7 @@
       <selection activeCell="A11" sqref="A11:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" style="3" customWidth="1"/>
@@ -35387,11 +35483,11 @@
       <c r="D2" s="282"/>
       <c r="E2" s="282"/>
       <c r="F2" s="282"/>
-      <c r="G2" s="227">
+      <c r="G2" s="229">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="H2" s="228"/>
+      <c r="H2" s="230"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="283"/>
@@ -35400,11 +35496,11 @@
       <c r="D3" s="284"/>
       <c r="E3" s="284"/>
       <c r="F3" s="284"/>
-      <c r="G3" s="229" t="str">
+      <c r="G3" s="231" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="H3" s="230"/>
+      <c r="H3" s="232"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="B4" s="26"/>
@@ -35429,7 +35525,7 @@
     </row>
     <row r="8" spans="1:8" ht="113.4" customHeight="1">
       <c r="A8" s="316" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B8" s="316"/>
       <c r="C8" s="316"/>
@@ -35456,7 +35552,7 @@
     </row>
     <row r="11" spans="1:8" ht="154.19999999999999" customHeight="1">
       <c r="A11" s="317" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B11" s="317"/>
       <c r="C11" s="317"/>
@@ -35483,7 +35579,7 @@
     </row>
     <row r="14" spans="1:8" ht="93.75" customHeight="1">
       <c r="A14" s="310" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B14" s="311"/>
       <c r="C14" s="311"/>
@@ -35521,7 +35617,7 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" customWidth="1"/>
@@ -35560,7 +35656,7 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="26.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" style="3" customWidth="1"/>
@@ -35581,11 +35677,11 @@
       <c r="D1" s="109"/>
       <c r="E1" s="109"/>
       <c r="F1" s="109"/>
-      <c r="G1" s="225" t="str">
+      <c r="G1" s="227" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="H1" s="226"/>
+      <c r="H1" s="228"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1">
       <c r="A2" s="106"/>
@@ -35594,11 +35690,11 @@
       <c r="D2" s="110"/>
       <c r="E2" s="110"/>
       <c r="F2" s="110"/>
-      <c r="G2" s="227">
+      <c r="G2" s="229">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="H2" s="228"/>
+      <c r="H2" s="230"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
@@ -35607,11 +35703,11 @@
       <c r="D3" s="111"/>
       <c r="E3" s="111"/>
       <c r="F3" s="111"/>
-      <c r="G3" s="229" t="str">
+      <c r="G3" s="231" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="H3" s="230"/>
+      <c r="H3" s="232"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1">
       <c r="B4" s="26"/>
@@ -35641,16 +35737,16 @@
       <c r="H7" s="127"/>
     </row>
     <row r="8" spans="1:15" ht="96" customHeight="1">
-      <c r="A8" s="231" t="s">
+      <c r="A8" s="233" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="231"/>
-      <c r="C8" s="231"/>
-      <c r="D8" s="231"/>
-      <c r="E8" s="231"/>
-      <c r="F8" s="231"/>
-      <c r="G8" s="231"/>
-      <c r="H8" s="231"/>
+      <c r="B8" s="233"/>
+      <c r="C8" s="233"/>
+      <c r="D8" s="233"/>
+      <c r="E8" s="233"/>
+      <c r="F8" s="233"/>
+      <c r="G8" s="233"/>
+      <c r="H8" s="233"/>
     </row>
     <row r="9" spans="1:15" ht="13.8" thickBot="1">
       <c r="A9" s="76" t="s">
@@ -35707,10 +35803,10 @@
       <c r="F11" s="124" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="232" t="s">
+      <c r="G11" s="225" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="233"/>
+      <c r="H11" s="234"/>
     </row>
     <row r="12" spans="1:15" ht="41.4" outlineLevel="2">
       <c r="A12" s="122" t="s">
@@ -35731,10 +35827,10 @@
       <c r="F12" s="123" t="s">
         <v>109</v>
       </c>
-      <c r="G12" s="232" t="s">
+      <c r="G12" s="225" t="s">
         <v>110</v>
       </c>
-      <c r="H12" s="234"/>
+      <c r="H12" s="226"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -35760,10 +35856,10 @@
         <v>113</v>
       </c>
       <c r="F13" s="124"/>
-      <c r="G13" s="232" t="s">
+      <c r="G13" s="225" t="s">
         <v>114</v>
       </c>
-      <c r="H13" s="234"/>
+      <c r="H13" s="226"/>
     </row>
     <row r="14" spans="1:15" s="4" customFormat="1" ht="27.6" outlineLevel="2">
       <c r="A14" s="122" t="s">
@@ -35784,10 +35880,10 @@
       <c r="F14" s="124" t="s">
         <v>118</v>
       </c>
-      <c r="G14" s="232" t="s">
+      <c r="G14" s="225" t="s">
         <v>119</v>
       </c>
-      <c r="H14" s="234"/>
+      <c r="H14" s="226"/>
     </row>
     <row r="15" spans="1:15" s="4" customFormat="1" ht="41.4" outlineLevel="2">
       <c r="A15" s="122" t="s">
@@ -35808,10 +35904,10 @@
       <c r="F15" s="123" t="s">
         <v>123</v>
       </c>
-      <c r="G15" s="232" t="s">
+      <c r="G15" s="225" t="s">
         <v>124</v>
       </c>
-      <c r="H15" s="234"/>
+      <c r="H15" s="226"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -35839,10 +35935,10 @@
       <c r="F16" s="124" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="232" t="s">
+      <c r="G16" s="225" t="s">
         <v>129</v>
       </c>
-      <c r="H16" s="234"/>
+      <c r="H16" s="226"/>
     </row>
     <row r="17" spans="1:8" ht="41.4" outlineLevel="2">
       <c r="A17" s="122" t="s">
@@ -35863,10 +35959,10 @@
       <c r="F17" s="123" t="s">
         <v>133</v>
       </c>
-      <c r="G17" s="232" t="s">
+      <c r="G17" s="225" t="s">
         <v>134</v>
       </c>
-      <c r="H17" s="234"/>
+      <c r="H17" s="226"/>
     </row>
     <row r="18" spans="1:8" ht="41.4">
       <c r="A18" s="122" t="s">
@@ -35887,10 +35983,10 @@
       <c r="F18" s="123" t="s">
         <v>138</v>
       </c>
-      <c r="G18" s="232" t="s">
+      <c r="G18" s="225" t="s">
         <v>139</v>
       </c>
-      <c r="H18" s="234"/>
+      <c r="H18" s="226"/>
     </row>
     <row r="19" spans="1:8" ht="27.6">
       <c r="A19" s="122" t="s">
@@ -35911,10 +36007,10 @@
       <c r="F19" s="123" t="s">
         <v>143</v>
       </c>
-      <c r="G19" s="232" t="s">
+      <c r="G19" s="225" t="s">
         <v>144</v>
       </c>
-      <c r="H19" s="234"/>
+      <c r="H19" s="226"/>
     </row>
     <row r="20" spans="1:8" ht="27.6">
       <c r="A20" s="122" t="s">
@@ -35935,10 +36031,10 @@
       <c r="F20" s="123" t="s">
         <v>148</v>
       </c>
-      <c r="G20" s="232" t="s">
+      <c r="G20" s="225" t="s">
         <v>149</v>
       </c>
-      <c r="H20" s="234"/>
+      <c r="H20" s="226"/>
     </row>
     <row r="21" spans="1:8" ht="27.6">
       <c r="A21" s="122" t="s">
@@ -35959,10 +36055,10 @@
       <c r="F21" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="G21" s="232" t="s">
+      <c r="G21" s="225" t="s">
         <v>154</v>
       </c>
-      <c r="H21" s="234"/>
+      <c r="H21" s="226"/>
     </row>
     <row r="22" spans="1:8" ht="27.6">
       <c r="A22" s="122" t="s">
@@ -35983,10 +36079,10 @@
       <c r="F22" s="123" t="s">
         <v>158</v>
       </c>
-      <c r="G22" s="232" t="s">
+      <c r="G22" s="225" t="s">
         <v>159</v>
       </c>
-      <c r="H22" s="234"/>
+      <c r="H22" s="226"/>
     </row>
     <row r="23" spans="1:8" ht="27.6">
       <c r="A23" s="122" t="s">
@@ -36007,10 +36103,10 @@
       <c r="F23" s="124" t="s">
         <v>162</v>
       </c>
-      <c r="G23" s="232" t="s">
+      <c r="G23" s="225" t="s">
         <v>163</v>
       </c>
-      <c r="H23" s="234"/>
+      <c r="H23" s="226"/>
     </row>
     <row r="24" spans="1:8" ht="13.8">
       <c r="A24" s="122" t="s">
@@ -36031,10 +36127,10 @@
       <c r="F24" s="124" t="s">
         <v>167</v>
       </c>
-      <c r="G24" s="232" t="s">
+      <c r="G24" s="225" t="s">
         <v>168</v>
       </c>
-      <c r="H24" s="234"/>
+      <c r="H24" s="226"/>
     </row>
     <row r="25" spans="1:8" ht="27.6">
       <c r="A25" s="122" t="s">
@@ -36055,10 +36151,10 @@
       <c r="F25" s="124" t="s">
         <v>172</v>
       </c>
-      <c r="G25" s="232" t="s">
+      <c r="G25" s="225" t="s">
         <v>173</v>
       </c>
-      <c r="H25" s="234"/>
+      <c r="H25" s="226"/>
     </row>
     <row r="26" spans="1:8" ht="13.8">
       <c r="A26" s="122" t="s">
@@ -36079,10 +36175,10 @@
       <c r="F26" s="124" t="s">
         <v>177</v>
       </c>
-      <c r="G26" s="232" t="s">
+      <c r="G26" s="225" t="s">
         <v>178</v>
       </c>
-      <c r="H26" s="234"/>
+      <c r="H26" s="226"/>
     </row>
     <row r="27" spans="1:8" ht="27.6">
       <c r="A27" s="122" t="s">
@@ -36103,10 +36199,10 @@
       <c r="F27" s="123" t="s">
         <v>182</v>
       </c>
-      <c r="G27" s="232" t="s">
+      <c r="G27" s="225" t="s">
         <v>183</v>
       </c>
-      <c r="H27" s="234"/>
+      <c r="H27" s="226"/>
     </row>
     <row r="28" spans="1:8" ht="13.8">
       <c r="A28" s="122" t="s">
@@ -36127,10 +36223,10 @@
       <c r="F28" s="124" t="s">
         <v>187</v>
       </c>
-      <c r="G28" s="232" t="s">
+      <c r="G28" s="225" t="s">
         <v>188</v>
       </c>
-      <c r="H28" s="234"/>
+      <c r="H28" s="226"/>
     </row>
     <row r="29" spans="1:8" ht="13.8">
       <c r="A29" s="122" t="s">
@@ -36151,10 +36247,10 @@
       <c r="F29" s="124" t="s">
         <v>192</v>
       </c>
-      <c r="G29" s="232" t="s">
+      <c r="G29" s="225" t="s">
         <v>193</v>
       </c>
-      <c r="H29" s="234"/>
+      <c r="H29" s="226"/>
     </row>
     <row r="30" spans="1:8" ht="13.8">
       <c r="A30" s="122" t="s">
@@ -36169,11 +36265,26 @@
       </c>
       <c r="E30" s="124"/>
       <c r="F30" s="124"/>
-      <c r="G30" s="232"/>
-      <c r="H30" s="234"/>
+      <c r="G30" s="225"/>
+      <c r="H30" s="226"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
@@ -36183,21 +36294,6 @@
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
@@ -36215,7 +36311,7 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="16384" width="11.5546875" style="172"/>
   </cols>
@@ -36235,7 +36331,7 @@
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="1.6640625" style="3" customWidth="1"/>
     <col min="2" max="16384" width="11.44140625" style="3"/>
@@ -36433,7 +36529,7 @@
       <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="1.6640625" style="3" customWidth="1"/>
     <col min="2" max="16384" width="11.44140625" style="3"/>
@@ -37323,7 +37419,7 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="1.6640625" style="3" customWidth="1"/>
     <col min="2" max="16384" width="11.44140625" style="3"/>
@@ -37943,11 +38039,11 @@
   </sheetPr>
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A67" zoomScale="79" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView showGridLines="0" topLeftCell="A23" zoomScale="115" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="1.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
@@ -38654,7 +38750,7 @@
         <v>46001</v>
       </c>
       <c r="E27" s="142">
-        <v>45941</v>
+        <v>46002</v>
       </c>
       <c r="F27" s="143" t="s">
         <v>242</v>
@@ -38684,7 +38780,7 @@
         <v>46003</v>
       </c>
       <c r="E28" s="255">
-        <v>45943</v>
+        <v>46004</v>
       </c>
       <c r="F28" s="150" t="s">
         <v>244</v>
@@ -38732,7 +38828,7 @@
         <v>46003</v>
       </c>
       <c r="E30" s="142">
-        <v>45943</v>
+        <v>46004</v>
       </c>
       <c r="F30" s="143" t="s">
         <v>203</v>
@@ -38762,7 +38858,7 @@
         <v>46006</v>
       </c>
       <c r="E31" s="142">
-        <v>45946</v>
+        <v>46007</v>
       </c>
       <c r="F31" s="143" t="s">
         <v>203</v>
@@ -38792,7 +38888,7 @@
         <v>46009</v>
       </c>
       <c r="E32" s="142">
-        <v>45950</v>
+        <v>46011</v>
       </c>
       <c r="F32" s="143" t="s">
         <v>249</v>
@@ -38885,13 +38981,13 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A47" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView showGridLines="0" topLeftCell="A53" zoomScale="84" zoomScaleNormal="80" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="88.6640625" style="20" customWidth="1"/>
     <col min="2" max="2" width="85.33203125" style="20" customWidth="1"/>
@@ -38979,10 +39075,10 @@
     </row>
     <row r="8" spans="1:11" ht="31.2" outlineLevel="1">
       <c r="A8" s="107" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B8" s="107" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.6" outlineLevel="1">
@@ -39017,7 +39113,7 @@
     </row>
     <row r="15" spans="1:11" ht="31.2" outlineLevel="1">
       <c r="A15" s="107" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B15" s="107"/>
     </row>
@@ -39053,10 +39149,10 @@
     </row>
     <row r="22" spans="1:2" ht="46.8">
       <c r="A22" s="107" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B22" s="107" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.6">
@@ -39091,16 +39187,16 @@
     </row>
     <row r="29" spans="1:2" ht="31.2">
       <c r="A29" s="107" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B29" s="107" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.6">
       <c r="A30" s="107"/>
       <c r="B30" s="107" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.6">
@@ -39131,10 +39227,10 @@
     </row>
     <row r="36" spans="1:2" ht="31.2">
       <c r="A36" s="107" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B36" s="107" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.6">
@@ -39155,7 +39251,7 @@
     </row>
     <row r="41" spans="1:2" ht="18" thickBot="1">
       <c r="A41" s="47" t="s">
-        <v>257</v>
+        <v>340</v>
       </c>
       <c r="B41" s="48"/>
     </row>
@@ -39170,7 +39266,7 @@
     <row r="43" spans="1:2" ht="31.2">
       <c r="A43" s="107"/>
       <c r="B43" s="107" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.6">
@@ -39191,7 +39287,7 @@
     </row>
     <row r="48" spans="1:2" ht="18" thickBot="1">
       <c r="A48" s="47" t="s">
-        <v>258</v>
+        <v>341</v>
       </c>
       <c r="B48" s="48"/>
     </row>
@@ -39205,13 +39301,13 @@
     </row>
     <row r="50" spans="1:2" ht="31.2">
       <c r="A50" s="107" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B50" s="107"/>
     </row>
     <row r="51" spans="1:2" ht="15.6">
       <c r="A51" s="107" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B51" s="107"/>
     </row>
@@ -39229,7 +39325,7 @@
     </row>
     <row r="55" spans="1:2" ht="18" thickBot="1">
       <c r="A55" s="47" t="s">
-        <v>259</v>
+        <v>339</v>
       </c>
       <c r="B55" s="48"/>
     </row>
@@ -39244,7 +39340,7 @@
     <row r="57" spans="1:2" ht="31.2">
       <c r="A57" s="107"/>
       <c r="B57" s="107" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.6">
@@ -39265,7 +39361,7 @@
     </row>
     <row r="62" spans="1:2" ht="18" thickBot="1">
       <c r="A62" s="47" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B62" s="48"/>
     </row>
@@ -39277,13 +39373,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.6">
-      <c r="A64" s="107"/>
-      <c r="B64" s="107"/>
-    </row>
-    <row r="65" spans="1:2" ht="15.6">
+    <row r="64" spans="1:2" ht="31.2">
+      <c r="A64" s="107" t="s">
+        <v>344</v>
+      </c>
+      <c r="B64" s="107" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="31.2">
       <c r="A65" s="107"/>
-      <c r="B65" s="107"/>
+      <c r="B65" s="107" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="66" spans="1:2" ht="15.6">
       <c r="A66" s="107"/>
@@ -39299,7 +39401,7 @@
     </row>
     <row r="69" spans="1:2" ht="18" thickBot="1">
       <c r="A69" s="47" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B69" s="48"/>
     </row>
@@ -39312,15 +39414,21 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.6">
-      <c r="A71" s="107"/>
+      <c r="A71" s="107" t="s">
+        <v>345</v>
+      </c>
       <c r="B71" s="107"/>
     </row>
     <row r="72" spans="1:2" ht="15.6">
-      <c r="A72" s="107"/>
+      <c r="A72" s="107" t="s">
+        <v>346</v>
+      </c>
       <c r="B72" s="107"/>
     </row>
     <row r="73" spans="1:2" ht="15.6">
-      <c r="A73" s="107"/>
+      <c r="A73" s="107" t="s">
+        <v>347</v>
+      </c>
       <c r="B73" s="107"/>
     </row>
     <row r="74" spans="1:2" ht="15">
@@ -39330,40 +39438,6 @@
     <row r="75" spans="1:2" ht="15">
       <c r="A75" s="33"/>
       <c r="B75" s="35"/>
-    </row>
-    <row r="76" spans="1:2" ht="18" thickBot="1">
-      <c r="A76" s="47" t="s">
-        <v>262</v>
-      </c>
-      <c r="B76" s="48"/>
-    </row>
-    <row r="77" spans="1:2" ht="16.2" thickBot="1">
-      <c r="A77" s="169" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77" s="171" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="15.6">
-      <c r="A78" s="107"/>
-      <c r="B78" s="107"/>
-    </row>
-    <row r="79" spans="1:2" ht="15.6">
-      <c r="A79" s="107"/>
-      <c r="B79" s="107"/>
-    </row>
-    <row r="80" spans="1:2" ht="15.6">
-      <c r="A80" s="107"/>
-      <c r="B80" s="107"/>
-    </row>
-    <row r="81" spans="1:2" ht="15">
-      <c r="A81" s="32"/>
-      <c r="B81" s="34"/>
-    </row>
-    <row r="82" spans="1:2" ht="15">
-      <c r="A82" s="33"/>
-      <c r="B82" s="35"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -39379,13 +39453,13 @@
   <sheetPr codeName="Feuil15">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BH19"/>
+  <dimension ref="A1:BH20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="82" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" zoomScale="124" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="7.88671875" style="3" customWidth="1"/>
     <col min="2" max="2" width="58.44140625" style="3" customWidth="1"/>
@@ -39401,9 +39475,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="13.5" customHeight="1">
-      <c r="A1" s="257" t="str">
+      <c r="A1" s="257" t="e">
         <f>"LISTE DES ACTIONS au "&amp;TEXT(I2,"jj/mm/aaaa")</f>
-        <v>LISTE DES ACTIONS au 25/00/Freitag</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="258"/>
       <c r="C1" s="258"/>
@@ -39412,11 +39486,11 @@
       <c r="F1" s="258"/>
       <c r="G1" s="258"/>
       <c r="H1" s="259"/>
-      <c r="I1" s="225" t="str">
+      <c r="I1" s="227" t="str">
         <f>'1a-Identification Projet'!$L1</f>
         <v>reference Tableau de bord</v>
       </c>
-      <c r="J1" s="226"/>
+      <c r="J1" s="228"/>
     </row>
     <row r="2" spans="1:60" ht="12.75" customHeight="1">
       <c r="A2" s="260"/>
@@ -39427,11 +39501,11 @@
       <c r="F2" s="261"/>
       <c r="G2" s="261"/>
       <c r="H2" s="262"/>
-      <c r="I2" s="227">
+      <c r="I2" s="229">
         <f>'1a-Identification Projet'!$L2</f>
         <v>45912</v>
       </c>
-      <c r="J2" s="228"/>
+      <c r="J2" s="230"/>
     </row>
     <row r="3" spans="1:60" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="263"/>
@@ -39442,11 +39516,11 @@
       <c r="F3" s="264"/>
       <c r="G3" s="264"/>
       <c r="H3" s="265"/>
-      <c r="I3" s="229" t="str">
+      <c r="I3" s="231" t="str">
         <f>'1a-Identification Projet'!$L3</f>
         <v>Organisation</v>
       </c>
-      <c r="J3" s="230"/>
+      <c r="J3" s="232"/>
     </row>
     <row r="4" spans="1:60" ht="12.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -39540,10 +39614,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D6" s="81">
         <v>45908</v>
@@ -39551,7 +39625,7 @@
       <c r="E6" s="81"/>
       <c r="F6" s="81"/>
       <c r="G6" s="81" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H6" s="81">
         <v>45908</v>
@@ -39560,7 +39634,7 @@
         <v>45908</v>
       </c>
       <c r="J6" s="82" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
@@ -39618,10 +39692,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="78" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D7" s="81">
         <v>45910</v>
@@ -39629,7 +39703,7 @@
       <c r="E7" s="81"/>
       <c r="F7" s="81"/>
       <c r="G7" s="80" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H7" s="81">
         <v>45910</v>
@@ -39694,7 +39768,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C8" s="79" t="s">
         <v>59</v>
@@ -39705,7 +39779,7 @@
       <c r="E8" s="85"/>
       <c r="F8" s="85"/>
       <c r="G8" s="79" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H8" s="86">
         <v>46003</v>
@@ -39768,10 +39842,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D9" s="81">
         <v>45949</v>
@@ -39783,7 +39857,7 @@
         <v>45950</v>
       </c>
       <c r="G9" s="81" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H9" s="81">
         <v>45950</v>
@@ -39848,10 +39922,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="C10" s="79" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D10" s="85">
         <v>45968</v>
@@ -39859,7 +39933,7 @@
       <c r="E10" s="85"/>
       <c r="F10" s="85"/>
       <c r="G10" s="79" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H10" s="85">
         <v>45970</v>
@@ -39920,16 +39994,28 @@
       <c r="BH10" s="3"/>
     </row>
     <row r="11" spans="1:60" s="23" customFormat="1" ht="15">
-      <c r="A11" s="196"/>
-      <c r="B11" s="204"/>
-      <c r="C11" s="198"/>
-      <c r="D11" s="199"/>
-      <c r="E11" s="199"/>
-      <c r="F11" s="199"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="205"/>
-      <c r="I11" s="202"/>
-      <c r="J11" s="197"/>
+      <c r="A11" s="83">
+        <v>6</v>
+      </c>
+      <c r="B11" s="84" t="s">
+        <v>349</v>
+      </c>
+      <c r="C11" s="79" t="s">
+        <v>350</v>
+      </c>
+      <c r="D11" s="85">
+        <v>45992</v>
+      </c>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="79" t="s">
+        <v>314</v>
+      </c>
+      <c r="H11" s="85">
+        <v>45998</v>
+      </c>
+      <c r="I11" s="85"/>
+      <c r="J11" s="84"/>
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
@@ -39989,7 +40075,7 @@
       <c r="E12" s="199"/>
       <c r="F12" s="199"/>
       <c r="G12" s="198"/>
-      <c r="H12" s="201"/>
+      <c r="H12" s="205"/>
       <c r="I12" s="202"/>
       <c r="J12" s="197"/>
       <c r="K12" s="27"/>
@@ -40043,29 +40129,29 @@
       <c r="BG12" s="3"/>
       <c r="BH12" s="3"/>
     </row>
-    <row r="13" spans="1:60" s="23" customFormat="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
+    <row r="13" spans="1:60" s="23" customFormat="1" ht="15">
+      <c r="A13" s="196"/>
+      <c r="B13" s="204"/>
+      <c r="C13" s="198"/>
+      <c r="D13" s="199"/>
+      <c r="E13" s="199"/>
+      <c r="F13" s="199"/>
+      <c r="G13" s="198"/>
+      <c r="H13" s="201"/>
+      <c r="I13" s="202"/>
+      <c r="J13" s="197"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
@@ -40105,20 +40191,70 @@
       <c r="BG13" s="3"/>
       <c r="BH13" s="3"/>
     </row>
-    <row r="14" spans="1:60">
-      <c r="F14" s="22"/>
-    </row>
-    <row r="16" spans="1:60">
-      <c r="A16" s="194"/>
-      <c r="B16" s="194"/>
-      <c r="C16" s="194"/>
-      <c r="D16" s="194"/>
-      <c r="E16" s="195"/>
-      <c r="F16" s="195"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="194"/>
-      <c r="I16" s="194"/>
-      <c r="J16" s="194"/>
+    <row r="14" spans="1:60" s="23" customFormat="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+      <c r="AU14" s="3"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="3"/>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+      <c r="BE14" s="3"/>
+      <c r="BF14" s="3"/>
+      <c r="BG14" s="3"/>
+      <c r="BH14" s="3"/>
+    </row>
+    <row r="15" spans="1:60">
+      <c r="F15" s="22"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="194"/>
@@ -40133,16 +40269,16 @@
       <c r="J17" s="194"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="196"/>
-      <c r="B18" s="197"/>
-      <c r="C18" s="198"/>
-      <c r="D18" s="199"/>
-      <c r="E18" s="199"/>
-      <c r="F18" s="199"/>
-      <c r="G18" s="199"/>
-      <c r="H18" s="199"/>
-      <c r="I18" s="199"/>
-      <c r="J18" s="200"/>
+      <c r="A18" s="194"/>
+      <c r="B18" s="194"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="194"/>
+      <c r="E18" s="195"/>
+      <c r="F18" s="195"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="194"/>
+      <c r="J18" s="194"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="196"/>
@@ -40151,10 +40287,22 @@
       <c r="D19" s="199"/>
       <c r="E19" s="199"/>
       <c r="F19" s="199"/>
-      <c r="G19" s="198"/>
-      <c r="H19" s="201"/>
-      <c r="I19" s="202"/>
-      <c r="J19" s="197"/>
+      <c r="G19" s="199"/>
+      <c r="H19" s="199"/>
+      <c r="I19" s="199"/>
+      <c r="J19" s="200"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="196"/>
+      <c r="B20" s="197"/>
+      <c r="C20" s="198"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="199"/>
+      <c r="F20" s="199"/>
+      <c r="G20" s="198"/>
+      <c r="H20" s="201"/>
+      <c r="I20" s="202"/>
+      <c r="J20" s="197"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -40163,7 +40311,7 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="A1:H3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A6:J10">
+  <conditionalFormatting sqref="A6:J11">
     <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
       <formula>IF($G6="Done",TRUE,FALSE)</formula>
     </cfRule>
@@ -40174,30 +40322,30 @@
       <formula>IF($G6="Pending",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:J12">
+  <conditionalFormatting sqref="A13:J13">
     <cfRule type="expression" dxfId="5" priority="31" stopIfTrue="1">
-      <formula>IF($G12="Done",TRUE,FALSE)</formula>
+      <formula>IF($G13="Done",TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="32" stopIfTrue="1">
-      <formula>IF($G12="Cancelled",TRUE,FALSE)</formula>
+      <formula>IF($G13="Cancelled",TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="33" stopIfTrue="1">
-      <formula>IF($G12="Pending",TRUE,FALSE)</formula>
+      <formula>IF($G13="Pending",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:J19">
+  <conditionalFormatting sqref="A19:J20">
     <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
-      <formula>IF($G18="Done",TRUE,FALSE)</formula>
+      <formula>IF($G19="Done",TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
-      <formula>IF($G18="Cancelled",TRUE,FALSE)</formula>
+      <formula>IF($G19="Cancelled",TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>IF($G18="Pending",TRUE,FALSE)</formula>
+      <formula>IF($G19="Pending",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G19 G7:G8 G10:G12" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G20 G7:G8 G10:G13" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"Pending,Cancelled,Done,In Progress"</formula1>
     </dataValidation>
   </dataValidations>
